--- a/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
+++ b/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="13160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="WEIGHT_STATUS" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WEIGHT_STATUS!$C$1:$AC$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WEIGHT_STATUS!$C$1:$AD$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="590">
   <si>
     <t>f_result</t>
   </si>
@@ -284,6 +284,21 @@
     <t>取健康评估记录表已确认状态的最新一条记录的既往疾病结果</t>
   </si>
   <si>
+    <t>f_age</t>
+  </si>
+  <si>
+    <t>f_testcase</t>
+  </si>
+  <si>
+    <t>f_caseTotal</t>
+  </si>
+  <si>
+    <t>f_errID</t>
+  </si>
+  <si>
+    <t>f_errInfo</t>
+  </si>
+  <si>
     <t>身体指标</t>
   </si>
   <si>
@@ -299,6 +314,9 @@
     <t>BMI&gt;=24 and 年龄&gt;=18 and 年龄&lt;65</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>TZ_STZB001</t>
   </si>
   <si>
@@ -679,243 +697,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(14&lt;= 年龄＜14.5 and 22.3&lt;= BMI and 性别=男) or (14.5&lt;= 年龄＜15 and 22.6&lt;= BMI and 性别=男) or (15&lt;= 年龄＜15.5 and 22.9&lt;= BMI and 性别=男) or (15.5&lt;= 年龄＜16 and 23.1&lt;= BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (16&lt;= 年龄＜16.5 and 23.3&lt;= BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (16.5&lt;= 年龄＜17 and 23.5&lt;= BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (17&lt;= 年龄＜17.5 and 23.7&lt;= BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (17.5&lt;= 年龄＜18 and 23.8&lt;= BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (14&lt;= 年龄＜14.5 and 22.8&lt;= BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (14.5&lt;= 年龄＜15 and 23.0&lt;= BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (15&lt;= 年龄＜15.5 and 23.2&lt;= BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (15.5&lt;= 年龄＜16 and 23.4&lt;= BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (16&lt;= 年龄＜16.5 and 23.6&lt;= BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (16.5&lt;= 年龄＜17 and 23.7&lt;= BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (17&lt;= 年龄＜17.5 and 23.8&lt;= BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (17.5&lt;= 年龄＜18 and 23.9&lt;= BMI and 性别=女)</t>
-    </r>
+    <t>(14&lt;= 年龄＜14.5 and 22.3&lt;= BMI and 性别=男) or (14.5&lt;= 年龄＜15 and 22.6&lt;= BMI and 性别=男) or (15&lt;= 年龄＜15.5 and 22.9&lt;= BMI and 性别=男) or (15.5&lt;= 年龄＜16 and 23.1&lt;= BMI and 性别=男)
+or (16&lt;= 年龄＜16.5 and 23.3&lt;= BMI and 性别=男)
+or (16.5&lt;= 年龄＜17 and 23.5&lt;= BMI and 性别=男)
+or (17&lt;= 年龄＜17.5 and 23.7&lt;= BMI and 性别=男)
+or (17.5&lt;= 年龄＜18 and 23.8&lt;= BMI and 性别=男)
+or (14&lt;= 年龄＜14.5 and 22.8&lt;= BMI and 性别=女)
+or (14.5&lt;= 年龄＜15 and 23.0&lt;= BMI and 性别=女)
+or (15&lt;= 年龄＜15.5 and 23.2&lt;= BMI and 性别=女)
+or (15.5&lt;= 年龄＜16 and 23.4&lt;= BMI and 性别=女)
+or (16&lt;= 年龄＜16.5 and 23.6&lt;= BMI and 性别=女)
+or (16.5&lt;= 年龄＜17 and 23.7&lt;= BMI and 性别=女)
+or (17&lt;= 年龄＜17.5 and 23.8&lt;= BMI and 性别=女)
+or (17.5&lt;= 年龄＜18 and 23.9&lt;= BMI and 性别=女)</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>TZ_STZB007</t>
@@ -8909,140 +8706,16 @@
     <t>按照儿童性别和年龄段判断儿童体重正常（24-30月龄）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(24月≤年龄＜27月 and 14≤BMI＜17.4 and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (27月≤年龄＜30月 and 13.9≤BMI＜17.2 and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (24月≤年龄＜27月 and 13.7≤BMI＜17 and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (27月≤年龄＜30月 and 13.6≤BMI＜169 and 性别=女)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(24月&lt;= 年龄＜27月 and 14&lt;= BMI＜17.4 and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (27月&lt;= 年龄＜30月 and 13.9&lt;= BMI＜17.2 and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (24月&lt;= 年龄＜27月 and 13.7&lt;= BMI＜17 and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (27月&lt;= 年龄＜30月 and 13.6&lt;= BMI＜169 and 性别=女)</t>
-    </r>
+    <t>(24月≤年龄＜27月 and 14≤BMI＜17.4 and 性别=男)
+or (27月≤年龄＜30月 and 13.9≤BMI＜17.2 and 性别=男)
+or (24月≤年龄＜27月 and 13.7≤BMI＜17 and 性别=女)
+or (27月≤年龄＜30月 and 13.6≤BMI＜16.9 and 性别=女)</t>
+  </si>
+  <si>
+    <t>(24月&lt;= 年龄＜27月 and 14&lt;= BMI＜17.4 and 性别=男)
+or (27月&lt;= 年龄＜30月 and 13.9&lt;= BMI＜17.2 and 性别=男)
+or (24月&lt;= 年龄＜27月 and 13.7&lt;= BMI＜17 and 性别=女)
+or (27月&lt;= 年龄＜30月 and 13.6&lt;= BMI＜16.9 and 性别=女)</t>
   </si>
   <si>
     <t>TZ_STZB029</t>
@@ -14755,24 +14428,24 @@
     <t>f_weightStatusCode</t>
   </si>
   <si>
-    <t>f_testcase</t>
-  </si>
-  <si>
-    <t>f_errID</t>
-  </si>
-  <si>
     <t>体重偏低</t>
   </si>
   <si>
     <t>BMI＜18.5</t>
   </si>
   <si>
+    <t>检查小于和大于随机值</t>
+  </si>
+  <si>
     <t>正常</t>
   </si>
   <si>
     <t>18.5&lt;=BMI&lt;24.0</t>
   </si>
   <si>
+    <t>检查等于边界值、区间内外随机值</t>
+  </si>
+  <si>
     <t>超重</t>
   </si>
   <si>
@@ -14785,7 +14458,16 @@
     <t>BMI&gt;=28.0</t>
   </si>
   <si>
-    <r>
+    <t>检查等于边界值、小于和大于随机值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>(6&lt;=</t>
     </r>
     <r>
@@ -18145,6 +17827,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>检查每组条件，等于边界值、区间内外随机值</t>
   </si>
   <si>
     <t>(6&lt;=年龄＜6.5 and 13.4&lt;=BMI＜16.4 and 性别=男) 
@@ -21542,7 +21227,7 @@
 or (年龄=22月 and 13.6&lt;=BMI＜16.9 and 性别=女)
 or (年龄=23月 and 13.5&lt;=BMI＜16.8 and 性别=女)
 or (24月&lt;=年龄＜27月 and 13.7&lt;=BMI＜17 and 性别=女)
-or (27月&lt;=年龄＜30月 and 13.6&lt;=BMI＜169 and 性别=女)
+or (27月&lt;=年龄＜30月 and 13.6&lt;=BMI＜16.9 and 性别=女)
 or (30月&lt;=年龄＜33月 and 13.5&lt;=BMI＜16.7 and 性别=女)
 or (33月&lt;=年龄＜36月 and 13.4&lt;=BMI＜16.6 and 性别=女)
 or (36月&lt;=年龄＜39月 and 13.3&lt;=BMI＜16.5 and 性别=女)
@@ -21710,81 +21395,13 @@
 or (42月&lt;=年龄＜45月 and BMI&gt;=18.0 and 性别=女)
 or (45月&lt;=年龄＜48月 and BMI&gt;=18.0 and 性别=女)
 or (48月&lt;=年龄＜51月 and BMI&gt;=18.0 and 性别=女)
-or (51月&lt;=年龄＜54月 and BMI&gt;=18.0and 性别=女)
+or (51月&lt;=年龄＜54月 and BMI&gt;=18.0 and 性别=女)
 or (54月&lt;=年龄＜57月 and BMI&gt;=18.1 and 性别=女)
 or (57月&lt;=年龄＜60月 and BMI&gt;=18.1 and 性别=女)
 or (60月&lt;=年龄＜63月 and BMI&gt;=18.2 and 性别=女)
 or (63月&lt;=年龄＜66月 and BMI&gt;=18.3 and 性别=女)
 or (66月&lt;=年龄＜69月 and BMI&gt;=18.4 and 性别=女)
 or (69月&lt;=年龄&lt;=72月 and BMI&gt;=18.4 and 性别=女)</t>
-  </si>
-  <si>
-    <r>
-      <t>6&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年龄＜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6.5 and 13.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">BMI and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>性别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -22687,9 +22304,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -22698,6 +22312,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -23344,7 +22961,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.84615384615385" defaultRowHeight="15.2"/>
@@ -23605,9 +23222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="评估因素取值">
-    <tabColor rgb="FF98D7B6"/>
-  </sheetPr>
+  <sheetPr codeName="评估因素取值"/>
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24536,15 +24151,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="评估因素规则库">
-    <tabColor rgb="FF98D7B6"/>
-  </sheetPr>
-  <dimension ref="A1:AA201"/>
+  <sheetPr codeName="评估因素规则库"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -24552,11 +24165,13 @@
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="32.6538461538462" customWidth="1"/>
     <col min="5" max="5" width="28.875" style="26" customWidth="1"/>
-    <col min="6" max="7" width="49.2403846153846" customWidth="1"/>
-    <col min="8" max="8" width="34.8173076923077" customWidth="1"/>
+    <col min="6" max="6" width="49.2403846153846" customWidth="1"/>
+    <col min="7" max="7" width="59.4807692307692" customWidth="1"/>
+    <col min="8" max="8" width="20.1538461538462" customWidth="1"/>
+    <col min="9" max="9" width="34.8173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="27.75" customHeight="1" spans="1:27">
+    <row r="1" s="25" customFormat="1" ht="27.75" customHeight="1" spans="1:29">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -24578,51 +24193,65 @@
       <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-    </row>
-    <row r="2" ht="31" spans="1:27">
+      <c r="J1" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+    </row>
+    <row r="2" ht="31" spans="1:29">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -24641,29 +24270,33 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
-    </row>
-    <row r="3" ht="31" spans="1:27">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" ht="31" spans="1:29">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -24682,29 +24315,33 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-    </row>
-    <row r="4" ht="31" spans="1:27">
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" ht="31" spans="1:29">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>86</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -24723,31 +24360,35 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-    </row>
-    <row r="5" ht="31" spans="1:27">
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" ht="31" spans="1:29">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -24764,29 +24405,33 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-    </row>
-    <row r="6" ht="31" spans="1:27">
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" ht="31" spans="1:29">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>96</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -24805,29 +24450,33 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-    </row>
-    <row r="7" ht="31" spans="1:27">
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" ht="31" spans="1:29">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -24846,29 +24495,33 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-    </row>
-    <row r="8" ht="244" spans="1:27">
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+    </row>
+    <row r="8" ht="244" spans="1:29">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -24887,29 +24540,33 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-    </row>
-    <row r="9" ht="409.5" spans="1:27">
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+    </row>
+    <row r="9" ht="244" spans="1:29">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>112</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -24928,29 +24585,33 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-    </row>
-    <row r="10" ht="244" spans="1:27">
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+    </row>
+    <row r="10" ht="244" spans="1:29">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -24969,29 +24630,33 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
-    </row>
-    <row r="11" ht="183" spans="1:27">
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+    </row>
+    <row r="11" ht="183" spans="1:29">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>121</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -25010,29 +24675,33 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
-    </row>
-    <row r="12" ht="350" spans="1:27">
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" ht="183" spans="1:29">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>126</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -25051,29 +24720,33 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-    </row>
-    <row r="13" ht="183" spans="1:27">
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" ht="183" spans="1:29">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>131</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -25092,29 +24765,33 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-    </row>
-    <row r="14" ht="304" spans="1:27">
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+    </row>
+    <row r="14" ht="304" spans="1:29">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>136</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -25133,29 +24810,33 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
-    </row>
-    <row r="15" ht="365" spans="1:27">
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" ht="304" spans="1:29">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -25174,29 +24855,33 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
-    </row>
-    <row r="16" ht="274" spans="1:27">
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" ht="274" spans="1:29">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>146</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -25215,29 +24900,33 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
-    </row>
-    <row r="17" ht="122" spans="1:27">
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" ht="122" spans="1:29">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>151</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -25256,29 +24945,33 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
-    </row>
-    <row r="18" ht="244" spans="1:27">
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+    </row>
+    <row r="18" ht="228" spans="1:29">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>156</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -25297,29 +24990,33 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
-    </row>
-    <row r="19" ht="122" spans="1:27">
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+    </row>
+    <row r="19" ht="122" spans="1:29">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>161</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -25338,29 +25035,33 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
-    </row>
-    <row r="20" ht="122" spans="1:27">
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+    </row>
+    <row r="20" ht="122" spans="1:29">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>166</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -25379,29 +25080,33 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
-    </row>
-    <row r="21" ht="244" spans="1:27">
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+    </row>
+    <row r="21" ht="198" spans="1:29">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -25420,29 +25125,33 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
-    </row>
-    <row r="22" ht="122" spans="1:27">
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+    </row>
+    <row r="22" ht="122" spans="1:29">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="I22" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -25461,29 +25170,33 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
-    </row>
-    <row r="23" ht="122" spans="1:27">
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+    </row>
+    <row r="23" ht="122" spans="1:29">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>181</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -25502,29 +25215,33 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
-    </row>
-    <row r="24" ht="244" spans="1:27">
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+    </row>
+    <row r="24" ht="228" spans="1:29">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>186</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -25543,29 +25260,33 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
-    </row>
-    <row r="25" ht="122" spans="1:27">
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+    </row>
+    <row r="25" ht="122" spans="1:29">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>191</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -25584,29 +25305,33 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
-    </row>
-    <row r="26" ht="61" spans="1:27">
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+    </row>
+    <row r="26" ht="61" spans="1:29">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="I26" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>196</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -25625,29 +25350,33 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
-    </row>
-    <row r="27" ht="107" spans="1:27">
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+    </row>
+    <row r="27" ht="107" spans="1:29">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>201</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -25666,29 +25395,33 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
-    </row>
-    <row r="28" ht="61" spans="1:27">
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+    </row>
+    <row r="28" ht="61" spans="1:29">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="I28" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>206</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -25707,29 +25440,33 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
-    </row>
-    <row r="29" ht="61" spans="1:27">
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+    </row>
+    <row r="29" ht="61" spans="1:29">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>211</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -25748,29 +25485,33 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-    </row>
-    <row r="30" ht="107" spans="1:27">
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+    </row>
+    <row r="30" ht="92" spans="1:29">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="I30" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>216</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -25789,29 +25530,33 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-    </row>
-    <row r="31" ht="61" spans="1:27">
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+    </row>
+    <row r="31" ht="61" spans="1:29">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>221</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -25830,29 +25575,33 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
-    </row>
-    <row r="32" ht="183" spans="1:27">
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+    </row>
+    <row r="32" ht="183" spans="1:29">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I32" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>226</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -25871,29 +25620,33 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
-    </row>
-    <row r="33" ht="183" spans="1:27">
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+    </row>
+    <row r="33" ht="183" spans="1:29">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="I33" s="6"/>
+        <v>230</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>231</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -25912,29 +25665,33 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
-    </row>
-    <row r="34" ht="183" spans="1:27">
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+    </row>
+    <row r="34" ht="183" spans="1:29">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="I34" s="6"/>
+        <v>234</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>235</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -25953,29 +25710,33 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
-    </row>
-    <row r="35" ht="183" spans="1:27">
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+    </row>
+    <row r="35" ht="183" spans="1:29">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="I35" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>240</v>
+      </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -25994,29 +25755,33 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
-    </row>
-    <row r="36" ht="183" spans="1:27">
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+    </row>
+    <row r="36" ht="183" spans="1:29">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>245</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -26035,29 +25800,33 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
-    </row>
-    <row r="37" ht="183" spans="1:27">
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+    </row>
+    <row r="37" ht="183" spans="1:29">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="I37" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>249</v>
+      </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -26076,29 +25845,33 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
-    </row>
-    <row r="38" ht="92" spans="1:27">
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+    </row>
+    <row r="38" ht="92" spans="1:29">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="I38" s="6"/>
+        <v>253</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>254</v>
+      </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -26117,29 +25890,33 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
-    </row>
-    <row r="39" ht="92" spans="1:27">
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+    </row>
+    <row r="39" ht="92" spans="1:29">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="I39" s="6"/>
+        <v>258</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>259</v>
+      </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -26158,29 +25935,33 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
-    </row>
-    <row r="40" ht="92" spans="1:27">
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+    </row>
+    <row r="40" ht="92" spans="1:29">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>263</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -26199,29 +25980,33 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
-    </row>
-    <row r="41" ht="92" spans="1:27">
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+    </row>
+    <row r="41" ht="92" spans="1:29">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="I41" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>268</v>
+      </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -26240,29 +26025,33 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
-    </row>
-    <row r="42" ht="92" spans="1:27">
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+    </row>
+    <row r="42" ht="92" spans="1:29">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="I42" s="6"/>
+        <v>272</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>273</v>
+      </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -26281,29 +26070,33 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
-    </row>
-    <row r="43" ht="92" spans="1:27">
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+    </row>
+    <row r="43" ht="92" spans="1:29">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="I43" s="6"/>
+        <v>276</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>277</v>
+      </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -26322,29 +26115,33 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
-    </row>
-    <row r="44" ht="152" spans="1:27">
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+    </row>
+    <row r="44" ht="152" spans="1:29">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>282</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -26363,29 +26160,33 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
-    </row>
-    <row r="45" ht="152" spans="1:27">
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+    </row>
+    <row r="45" ht="152" spans="1:29">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="I45" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>287</v>
+      </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -26404,29 +26205,33 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
-    </row>
-    <row r="46" ht="152" spans="1:27">
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+    </row>
+    <row r="46" ht="152" spans="1:29">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="I46" s="6"/>
+        <v>290</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>291</v>
+      </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -26445,29 +26250,33 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
-    </row>
-    <row r="47" ht="31" spans="1:27">
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+    </row>
+    <row r="47" ht="31" spans="1:29">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="27" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="I47" s="6"/>
+        <v>295</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>296</v>
+      </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -26486,29 +26295,33 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
-    </row>
-    <row r="48" ht="31" spans="1:27">
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+    </row>
+    <row r="48" ht="31" spans="1:29">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="27" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="I48" s="6"/>
+        <v>299</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>300</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -26527,29 +26340,33 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
-    </row>
-    <row r="49" ht="17" spans="1:27">
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+    </row>
+    <row r="49" ht="17" spans="1:29">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>295</v>
+        <v>301</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>302</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>302</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>303</v>
+      </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -26568,29 +26385,33 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
-    </row>
-    <row r="50" ht="17" spans="1:27">
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+    </row>
+    <row r="50" ht="17" spans="1:29">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>305</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="I50" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>306</v>
+      </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -26609,29 +26430,33 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
-    </row>
-    <row r="51" ht="17" spans="1:27">
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+    </row>
+    <row r="51" ht="17" spans="1:29">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="I51" s="6"/>
+        <v>308</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>309</v>
+      </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -26650,29 +26475,33 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
-    </row>
-    <row r="52" ht="17" spans="1:27">
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+    </row>
+    <row r="52" ht="17" spans="1:29">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>304</v>
+        <v>310</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>311</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="I52" s="6"/>
+        <v>311</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>312</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -26691,29 +26520,33 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
-    </row>
-    <row r="53" ht="17" spans="1:27">
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+    </row>
+    <row r="53" ht="17" spans="1:29">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>307</v>
+        <v>313</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>314</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="I53" s="6"/>
+        <v>314</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>315</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -26732,29 +26565,33 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
-    </row>
-    <row r="54" ht="17" spans="1:27">
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+    </row>
+    <row r="54" ht="17" spans="1:29">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>310</v>
+        <v>316</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="I54" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>318</v>
+      </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -26773,29 +26610,33 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
-    </row>
-    <row r="55" ht="17" spans="1:27">
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+    </row>
+    <row r="55" ht="17" spans="1:29">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>312</v>
+        <v>319</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="I55" s="6"/>
+        <v>321</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>322</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -26814,29 +26655,33 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
-    </row>
-    <row r="56" ht="17" spans="1:27">
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+    </row>
+    <row r="56" ht="17" spans="1:29">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>316</v>
+        <v>323</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>323</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="I56" s="6"/>
+        <v>325</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>326</v>
+      </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -26855,29 +26700,33 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
-    </row>
-    <row r="57" ht="17" spans="1:27">
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+    </row>
+    <row r="57" ht="17" spans="1:29">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>320</v>
+        <v>327</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>327</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="I57" s="6"/>
+        <v>329</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>330</v>
+      </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -26896,13 +26745,15 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
-    </row>
-    <row r="58" ht="15.2" spans="1:27">
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+    </row>
+    <row r="58" ht="15.2" spans="1:29">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="32"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -26925,13 +26776,15 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
-    </row>
-    <row r="59" ht="15.2" spans="1:27">
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+    </row>
+    <row r="59" ht="15.2" spans="1:29">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="32"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -26954,13 +26807,15 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:27">
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:29">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="32"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -26983,13 +26838,15 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:27">
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:29">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="32"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -27012,13 +26869,15 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:27">
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:29">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="32"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -27041,13 +26900,15 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:27">
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:29">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="32"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -27070,13 +26931,15 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:27">
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:29">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="32"/>
+      <c r="E64" s="31"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -27099,13 +26962,15 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:27">
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:29">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="32"/>
+      <c r="E65" s="31"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -27128,13 +26993,15 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:27">
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:29">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="32"/>
+      <c r="E66" s="31"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -27157,13 +27024,15 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:27">
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:29">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="32"/>
+      <c r="E67" s="31"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -27186,13 +27055,15 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:27">
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:29">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="32"/>
+      <c r="E68" s="31"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -27215,13 +27086,15 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:27">
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:29">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="32"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -27244,13 +27117,15 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:27">
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:29">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="32"/>
+      <c r="E70" s="31"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -27273,13 +27148,15 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:27">
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:29">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="32"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -27302,13 +27179,15 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:27">
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:29">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="32"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -27331,13 +27210,15 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:27">
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:29">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="32"/>
+      <c r="E73" s="31"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -27360,13 +27241,15 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:27">
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:29">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="32"/>
+      <c r="E74" s="31"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -27389,13 +27272,15 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:27">
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:29">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="32"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -27418,13 +27303,15 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:27">
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:29">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="32"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -27447,13 +27334,15 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:27">
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:29">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="32"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -27476,13 +27365,15 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:27">
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:29">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="32"/>
+      <c r="E78" s="31"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -27505,13 +27396,15 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:27">
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:29">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="32"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -27534,13 +27427,15 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:27">
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:29">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="32"/>
+      <c r="E80" s="31"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -27563,13 +27458,15 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:27">
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:29">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="32"/>
+      <c r="E81" s="31"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -27592,13 +27489,15 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:27">
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:29">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="32"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -27621,13 +27520,15 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:27">
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:29">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="32"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -27650,13 +27551,15 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:27">
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:29">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="32"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -27679,13 +27582,15 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:27">
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:29">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="32"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -27708,13 +27613,15 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:27">
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:29">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="32"/>
+      <c r="E86" s="31"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -27737,13 +27644,15 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:27">
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:29">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="32"/>
+      <c r="E87" s="31"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -27766,13 +27675,15 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:27">
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:29">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="32"/>
+      <c r="E88" s="31"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -27795,13 +27706,15 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:27">
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:29">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="32"/>
+      <c r="E89" s="31"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -27824,13 +27737,15 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:27">
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:29">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="32"/>
+      <c r="E90" s="31"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -27853,13 +27768,15 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:27">
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:29">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="32"/>
+      <c r="E91" s="31"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -27882,13 +27799,15 @@
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:27">
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:29">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="32"/>
+      <c r="E92" s="31"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -27911,13 +27830,15 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
-    </row>
-    <row r="93" customHeight="1" spans="1:27">
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:29">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="32"/>
+      <c r="E93" s="31"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -27940,13 +27861,15 @@
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
-    </row>
-    <row r="94" customHeight="1" spans="1:27">
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:29">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="32"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -27969,13 +27892,15 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:27">
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:29">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="32"/>
+      <c r="E95" s="31"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -27998,13 +27923,15 @@
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:27">
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:29">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="32"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -28027,13 +27954,15 @@
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:27">
+      <c r="AB96" s="6"/>
+      <c r="AC96" s="6"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:29">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="32"/>
+      <c r="E97" s="31"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -28056,13 +27985,15 @@
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
-    </row>
-    <row r="98" customHeight="1" spans="1:27">
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:29">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="32"/>
+      <c r="E98" s="31"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -28085,13 +28016,15 @@
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
-    </row>
-    <row r="99" customHeight="1" spans="1:27">
+      <c r="AB98" s="6"/>
+      <c r="AC98" s="6"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:29">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="32"/>
+      <c r="E99" s="31"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -28114,13 +28047,15 @@
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
-    </row>
-    <row r="100" customHeight="1" spans="1:27">
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:29">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="32"/>
+      <c r="E100" s="31"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -28143,13 +28078,15 @@
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
-    </row>
-    <row r="101" customHeight="1" spans="1:27">
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:29">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="32"/>
+      <c r="E101" s="31"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -28172,13 +28109,15 @@
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
-    </row>
-    <row r="102" customHeight="1" spans="1:27">
+      <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:29">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="32"/>
+      <c r="E102" s="31"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -28201,13 +28140,15 @@
       <c r="Y102" s="6"/>
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
-    </row>
-    <row r="103" customHeight="1" spans="1:27">
+      <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:29">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="32"/>
+      <c r="E103" s="31"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -28230,13 +28171,15 @@
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
       <c r="AA103" s="6"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:27">
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:29">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="32"/>
+      <c r="E104" s="31"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -28259,13 +28202,15 @@
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:27">
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:29">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="32"/>
+      <c r="E105" s="31"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -28288,13 +28233,15 @@
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:27">
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:29">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
-      <c r="E106" s="32"/>
+      <c r="E106" s="31"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -28317,13 +28264,15 @@
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
-    </row>
-    <row r="107" customHeight="1" spans="1:27">
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="6"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:29">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="32"/>
+      <c r="E107" s="31"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -28346,13 +28295,15 @@
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:27">
+      <c r="AB107" s="6"/>
+      <c r="AC107" s="6"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:29">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="32"/>
+      <c r="E108" s="31"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -28375,13 +28326,15 @@
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
-    </row>
-    <row r="109" customHeight="1" spans="1:27">
+      <c r="AB108" s="6"/>
+      <c r="AC108" s="6"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:29">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="32"/>
+      <c r="E109" s="31"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -28404,13 +28357,15 @@
       <c r="Y109" s="6"/>
       <c r="Z109" s="6"/>
       <c r="AA109" s="6"/>
-    </row>
-    <row r="110" customHeight="1" spans="1:27">
+      <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:29">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="32"/>
+      <c r="E110" s="31"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -28433,13 +28388,15 @@
       <c r="Y110" s="6"/>
       <c r="Z110" s="6"/>
       <c r="AA110" s="6"/>
-    </row>
-    <row r="111" customHeight="1" spans="1:27">
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:29">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="32"/>
+      <c r="E111" s="31"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -28462,13 +28419,15 @@
       <c r="Y111" s="6"/>
       <c r="Z111" s="6"/>
       <c r="AA111" s="6"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:27">
+      <c r="AB111" s="6"/>
+      <c r="AC111" s="6"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:29">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="32"/>
+      <c r="E112" s="31"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -28491,13 +28450,15 @@
       <c r="Y112" s="6"/>
       <c r="Z112" s="6"/>
       <c r="AA112" s="6"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:27">
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="6"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:29">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="32"/>
+      <c r="E113" s="31"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -28520,13 +28481,15 @@
       <c r="Y113" s="6"/>
       <c r="Z113" s="6"/>
       <c r="AA113" s="6"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:27">
+      <c r="AB113" s="6"/>
+      <c r="AC113" s="6"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:29">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="32"/>
+      <c r="E114" s="31"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -28549,13 +28512,15 @@
       <c r="Y114" s="6"/>
       <c r="Z114" s="6"/>
       <c r="AA114" s="6"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:27">
+      <c r="AB114" s="6"/>
+      <c r="AC114" s="6"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:29">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="32"/>
+      <c r="E115" s="31"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -28578,13 +28543,15 @@
       <c r="Y115" s="6"/>
       <c r="Z115" s="6"/>
       <c r="AA115" s="6"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:27">
+      <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:29">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="32"/>
+      <c r="E116" s="31"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -28607,13 +28574,15 @@
       <c r="Y116" s="6"/>
       <c r="Z116" s="6"/>
       <c r="AA116" s="6"/>
-    </row>
-    <row r="117" customHeight="1" spans="1:27">
+      <c r="AB116" s="6"/>
+      <c r="AC116" s="6"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:29">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="32"/>
+      <c r="E117" s="31"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -28636,13 +28605,15 @@
       <c r="Y117" s="6"/>
       <c r="Z117" s="6"/>
       <c r="AA117" s="6"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:27">
+      <c r="AB117" s="6"/>
+      <c r="AC117" s="6"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:29">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="32"/>
+      <c r="E118" s="31"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -28665,13 +28636,15 @@
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
       <c r="AA118" s="6"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:27">
+      <c r="AB118" s="6"/>
+      <c r="AC118" s="6"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:29">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="32"/>
+      <c r="E119" s="31"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -28694,13 +28667,15 @@
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
       <c r="AA119" s="6"/>
-    </row>
-    <row r="120" customHeight="1" spans="1:27">
+      <c r="AB119" s="6"/>
+      <c r="AC119" s="6"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:29">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="32"/>
+      <c r="E120" s="31"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -28723,13 +28698,15 @@
       <c r="Y120" s="6"/>
       <c r="Z120" s="6"/>
       <c r="AA120" s="6"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:27">
+      <c r="AB120" s="6"/>
+      <c r="AC120" s="6"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:29">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="32"/>
+      <c r="E121" s="31"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -28752,13 +28729,15 @@
       <c r="Y121" s="6"/>
       <c r="Z121" s="6"/>
       <c r="AA121" s="6"/>
-    </row>
-    <row r="122" customHeight="1" spans="1:27">
+      <c r="AB121" s="6"/>
+      <c r="AC121" s="6"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:29">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="32"/>
+      <c r="E122" s="31"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -28781,13 +28760,15 @@
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
       <c r="AA122" s="6"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:27">
+      <c r="AB122" s="6"/>
+      <c r="AC122" s="6"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:29">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="32"/>
+      <c r="E123" s="31"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -28810,13 +28791,15 @@
       <c r="Y123" s="6"/>
       <c r="Z123" s="6"/>
       <c r="AA123" s="6"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:27">
+      <c r="AB123" s="6"/>
+      <c r="AC123" s="6"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:29">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="32"/>
+      <c r="E124" s="31"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -28839,13 +28822,15 @@
       <c r="Y124" s="6"/>
       <c r="Z124" s="6"/>
       <c r="AA124" s="6"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:27">
+      <c r="AB124" s="6"/>
+      <c r="AC124" s="6"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:29">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="32"/>
+      <c r="E125" s="31"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -28868,13 +28853,15 @@
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
       <c r="AA125" s="6"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:27">
+      <c r="AB125" s="6"/>
+      <c r="AC125" s="6"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:29">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="32"/>
+      <c r="E126" s="31"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -28897,13 +28884,15 @@
       <c r="Y126" s="6"/>
       <c r="Z126" s="6"/>
       <c r="AA126" s="6"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:27">
+      <c r="AB126" s="6"/>
+      <c r="AC126" s="6"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:29">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="32"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -28926,13 +28915,15 @@
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
       <c r="AA127" s="6"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:27">
+      <c r="AB127" s="6"/>
+      <c r="AC127" s="6"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:29">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="32"/>
+      <c r="E128" s="31"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -28955,13 +28946,15 @@
       <c r="Y128" s="6"/>
       <c r="Z128" s="6"/>
       <c r="AA128" s="6"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:27">
+      <c r="AB128" s="6"/>
+      <c r="AC128" s="6"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:29">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="32"/>
+      <c r="E129" s="31"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -28984,13 +28977,15 @@
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
       <c r="AA129" s="6"/>
-    </row>
-    <row r="130" customHeight="1" spans="1:27">
+      <c r="AB129" s="6"/>
+      <c r="AC129" s="6"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:29">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="32"/>
+      <c r="E130" s="31"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -29013,13 +29008,15 @@
       <c r="Y130" s="6"/>
       <c r="Z130" s="6"/>
       <c r="AA130" s="6"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:27">
+      <c r="AB130" s="6"/>
+      <c r="AC130" s="6"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:29">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="32"/>
+      <c r="E131" s="31"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -29042,13 +29039,15 @@
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
-    </row>
-    <row r="132" customHeight="1" spans="1:27">
+      <c r="AB131" s="6"/>
+      <c r="AC131" s="6"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:29">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="32"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -29071,13 +29070,15 @@
       <c r="Y132" s="6"/>
       <c r="Z132" s="6"/>
       <c r="AA132" s="6"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:27">
+      <c r="AB132" s="6"/>
+      <c r="AC132" s="6"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:29">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="32"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -29100,13 +29101,15 @@
       <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
       <c r="AA133" s="6"/>
-    </row>
-    <row r="134" customHeight="1" spans="1:27">
+      <c r="AB133" s="6"/>
+      <c r="AC133" s="6"/>
+    </row>
+    <row r="134" customHeight="1" spans="1:29">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="32"/>
+      <c r="E134" s="31"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -29129,13 +29132,15 @@
       <c r="Y134" s="6"/>
       <c r="Z134" s="6"/>
       <c r="AA134" s="6"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:27">
+      <c r="AB134" s="6"/>
+      <c r="AC134" s="6"/>
+    </row>
+    <row r="135" customHeight="1" spans="1:29">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="32"/>
+      <c r="E135" s="31"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -29158,13 +29163,15 @@
       <c r="Y135" s="6"/>
       <c r="Z135" s="6"/>
       <c r="AA135" s="6"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:27">
+      <c r="AB135" s="6"/>
+      <c r="AC135" s="6"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:29">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="32"/>
+      <c r="E136" s="31"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -29187,13 +29194,15 @@
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
       <c r="AA136" s="6"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:27">
+      <c r="AB136" s="6"/>
+      <c r="AC136" s="6"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:29">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="32"/>
+      <c r="E137" s="31"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -29216,13 +29225,15 @@
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:27">
+      <c r="AB137" s="6"/>
+      <c r="AC137" s="6"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:29">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="32"/>
+      <c r="E138" s="31"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -29245,13 +29256,15 @@
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
       <c r="AA138" s="6"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:27">
+      <c r="AB138" s="6"/>
+      <c r="AC138" s="6"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:29">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="32"/>
+      <c r="E139" s="31"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -29274,13 +29287,15 @@
       <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
       <c r="AA139" s="6"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:27">
+      <c r="AB139" s="6"/>
+      <c r="AC139" s="6"/>
+    </row>
+    <row r="140" customHeight="1" spans="1:29">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="32"/>
+      <c r="E140" s="31"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -29303,13 +29318,15 @@
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
       <c r="AA140" s="6"/>
-    </row>
-    <row r="141" customHeight="1" spans="1:27">
+      <c r="AB140" s="6"/>
+      <c r="AC140" s="6"/>
+    </row>
+    <row r="141" customHeight="1" spans="1:29">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="32"/>
+      <c r="E141" s="31"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -29332,13 +29349,15 @@
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
       <c r="AA141" s="6"/>
-    </row>
-    <row r="142" customHeight="1" spans="1:27">
+      <c r="AB141" s="6"/>
+      <c r="AC141" s="6"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:29">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="32"/>
+      <c r="E142" s="31"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -29361,13 +29380,15 @@
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:27">
+      <c r="AB142" s="6"/>
+      <c r="AC142" s="6"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:29">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="32"/>
+      <c r="E143" s="31"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -29390,13 +29411,15 @@
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
       <c r="AA143" s="6"/>
-    </row>
-    <row r="144" customHeight="1" spans="1:27">
+      <c r="AB143" s="6"/>
+      <c r="AC143" s="6"/>
+    </row>
+    <row r="144" customHeight="1" spans="1:29">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="32"/>
+      <c r="E144" s="31"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -29419,13 +29442,15 @@
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
       <c r="AA144" s="6"/>
-    </row>
-    <row r="145" customHeight="1" spans="1:27">
+      <c r="AB144" s="6"/>
+      <c r="AC144" s="6"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:29">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="32"/>
+      <c r="E145" s="31"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -29448,13 +29473,15 @@
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
-    </row>
-    <row r="146" customHeight="1" spans="1:27">
+      <c r="AB145" s="6"/>
+      <c r="AC145" s="6"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:29">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="32"/>
+      <c r="E146" s="31"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -29477,13 +29504,15 @@
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
       <c r="AA146" s="6"/>
-    </row>
-    <row r="147" customHeight="1" spans="1:27">
+      <c r="AB146" s="6"/>
+      <c r="AC146" s="6"/>
+    </row>
+    <row r="147" customHeight="1" spans="1:29">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="32"/>
+      <c r="E147" s="31"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -29506,13 +29535,15 @@
       <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
       <c r="AA147" s="6"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:27">
+      <c r="AB147" s="6"/>
+      <c r="AC147" s="6"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:29">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="32"/>
+      <c r="E148" s="31"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -29535,13 +29566,15 @@
       <c r="Y148" s="6"/>
       <c r="Z148" s="6"/>
       <c r="AA148" s="6"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:27">
+      <c r="AB148" s="6"/>
+      <c r="AC148" s="6"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:29">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="32"/>
+      <c r="E149" s="31"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -29564,13 +29597,15 @@
       <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
       <c r="AA149" s="6"/>
-    </row>
-    <row r="150" customHeight="1" spans="1:27">
+      <c r="AB149" s="6"/>
+      <c r="AC149" s="6"/>
+    </row>
+    <row r="150" customHeight="1" spans="1:29">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="32"/>
+      <c r="E150" s="31"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -29593,13 +29628,15 @@
       <c r="Y150" s="6"/>
       <c r="Z150" s="6"/>
       <c r="AA150" s="6"/>
-    </row>
-    <row r="151" customHeight="1" spans="1:27">
+      <c r="AB150" s="6"/>
+      <c r="AC150" s="6"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:29">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="32"/>
+      <c r="E151" s="31"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
@@ -29622,13 +29659,15 @@
       <c r="Y151" s="6"/>
       <c r="Z151" s="6"/>
       <c r="AA151" s="6"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:27">
+      <c r="AB151" s="6"/>
+      <c r="AC151" s="6"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:29">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="32"/>
+      <c r="E152" s="31"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
@@ -29651,13 +29690,15 @@
       <c r="Y152" s="6"/>
       <c r="Z152" s="6"/>
       <c r="AA152" s="6"/>
-    </row>
-    <row r="153" customHeight="1" spans="1:27">
+      <c r="AB152" s="6"/>
+      <c r="AC152" s="6"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:29">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="32"/>
+      <c r="E153" s="31"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -29680,13 +29721,15 @@
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
       <c r="AA153" s="6"/>
-    </row>
-    <row r="154" customHeight="1" spans="1:27">
+      <c r="AB153" s="6"/>
+      <c r="AC153" s="6"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:29">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="32"/>
+      <c r="E154" s="31"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -29709,13 +29752,15 @@
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
       <c r="AA154" s="6"/>
-    </row>
-    <row r="155" customHeight="1" spans="1:27">
+      <c r="AB154" s="6"/>
+      <c r="AC154" s="6"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:29">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="32"/>
+      <c r="E155" s="31"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -29738,13 +29783,15 @@
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
       <c r="AA155" s="6"/>
-    </row>
-    <row r="156" customHeight="1" spans="1:27">
+      <c r="AB155" s="6"/>
+      <c r="AC155" s="6"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:29">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="32"/>
+      <c r="E156" s="31"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -29767,13 +29814,15 @@
       <c r="Y156" s="6"/>
       <c r="Z156" s="6"/>
       <c r="AA156" s="6"/>
-    </row>
-    <row r="157" customHeight="1" spans="1:27">
+      <c r="AB156" s="6"/>
+      <c r="AC156" s="6"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:29">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="32"/>
+      <c r="E157" s="31"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -29796,13 +29845,15 @@
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
       <c r="AA157" s="6"/>
-    </row>
-    <row r="158" customHeight="1" spans="1:27">
+      <c r="AB157" s="6"/>
+      <c r="AC157" s="6"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:29">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="32"/>
+      <c r="E158" s="31"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -29825,13 +29876,15 @@
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
       <c r="AA158" s="6"/>
-    </row>
-    <row r="159" customHeight="1" spans="1:27">
+      <c r="AB158" s="6"/>
+      <c r="AC158" s="6"/>
+    </row>
+    <row r="159" customHeight="1" spans="1:29">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="32"/>
+      <c r="E159" s="31"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -29854,13 +29907,15 @@
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
       <c r="AA159" s="6"/>
-    </row>
-    <row r="160" customHeight="1" spans="1:27">
+      <c r="AB159" s="6"/>
+      <c r="AC159" s="6"/>
+    </row>
+    <row r="160" customHeight="1" spans="1:29">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="32"/>
+      <c r="E160" s="31"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -29883,13 +29938,15 @@
       <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
       <c r="AA160" s="6"/>
-    </row>
-    <row r="161" customHeight="1" spans="1:27">
+      <c r="AB160" s="6"/>
+      <c r="AC160" s="6"/>
+    </row>
+    <row r="161" customHeight="1" spans="1:29">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="32"/>
+      <c r="E161" s="31"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -29912,13 +29969,15 @@
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
       <c r="AA161" s="6"/>
-    </row>
-    <row r="162" customHeight="1" spans="1:27">
+      <c r="AB161" s="6"/>
+      <c r="AC161" s="6"/>
+    </row>
+    <row r="162" customHeight="1" spans="1:29">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="32"/>
+      <c r="E162" s="31"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -29941,13 +30000,15 @@
       <c r="Y162" s="6"/>
       <c r="Z162" s="6"/>
       <c r="AA162" s="6"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:27">
+      <c r="AB162" s="6"/>
+      <c r="AC162" s="6"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:29">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="32"/>
+      <c r="E163" s="31"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -29970,13 +30031,15 @@
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
       <c r="AA163" s="6"/>
-    </row>
-    <row r="164" customHeight="1" spans="1:27">
+      <c r="AB163" s="6"/>
+      <c r="AC163" s="6"/>
+    </row>
+    <row r="164" customHeight="1" spans="1:29">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
-      <c r="E164" s="32"/>
+      <c r="E164" s="31"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -29999,13 +30062,15 @@
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
       <c r="AA164" s="6"/>
-    </row>
-    <row r="165" customHeight="1" spans="1:27">
+      <c r="AB164" s="6"/>
+      <c r="AC164" s="6"/>
+    </row>
+    <row r="165" customHeight="1" spans="1:29">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
-      <c r="E165" s="32"/>
+      <c r="E165" s="31"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -30028,13 +30093,15 @@
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
       <c r="AA165" s="6"/>
-    </row>
-    <row r="166" customHeight="1" spans="1:27">
+      <c r="AB165" s="6"/>
+      <c r="AC165" s="6"/>
+    </row>
+    <row r="166" customHeight="1" spans="1:29">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
-      <c r="E166" s="32"/>
+      <c r="E166" s="31"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -30057,13 +30124,15 @@
       <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
       <c r="AA166" s="6"/>
-    </row>
-    <row r="167" customHeight="1" spans="1:27">
+      <c r="AB166" s="6"/>
+      <c r="AC166" s="6"/>
+    </row>
+    <row r="167" customHeight="1" spans="1:29">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="32"/>
+      <c r="E167" s="31"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
@@ -30086,13 +30155,15 @@
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
       <c r="AA167" s="6"/>
-    </row>
-    <row r="168" customHeight="1" spans="1:27">
+      <c r="AB167" s="6"/>
+      <c r="AC167" s="6"/>
+    </row>
+    <row r="168" customHeight="1" spans="1:29">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="32"/>
+      <c r="E168" s="31"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
@@ -30115,13 +30186,15 @@
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
       <c r="AA168" s="6"/>
-    </row>
-    <row r="169" customHeight="1" spans="1:27">
+      <c r="AB168" s="6"/>
+      <c r="AC168" s="6"/>
+    </row>
+    <row r="169" customHeight="1" spans="1:29">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
-      <c r="E169" s="32"/>
+      <c r="E169" s="31"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
@@ -30144,13 +30217,15 @@
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="6"/>
-    </row>
-    <row r="170" customHeight="1" spans="1:27">
+      <c r="AB169" s="6"/>
+      <c r="AC169" s="6"/>
+    </row>
+    <row r="170" customHeight="1" spans="1:29">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
-      <c r="E170" s="32"/>
+      <c r="E170" s="31"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -30173,13 +30248,15 @@
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
       <c r="AA170" s="6"/>
-    </row>
-    <row r="171" customHeight="1" spans="1:27">
+      <c r="AB170" s="6"/>
+      <c r="AC170" s="6"/>
+    </row>
+    <row r="171" customHeight="1" spans="1:29">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
-      <c r="E171" s="32"/>
+      <c r="E171" s="31"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
@@ -30202,13 +30279,15 @@
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
       <c r="AA171" s="6"/>
-    </row>
-    <row r="172" customHeight="1" spans="1:27">
+      <c r="AB171" s="6"/>
+      <c r="AC171" s="6"/>
+    </row>
+    <row r="172" customHeight="1" spans="1:29">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="32"/>
+      <c r="E172" s="31"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
@@ -30231,13 +30310,15 @@
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
       <c r="AA172" s="6"/>
-    </row>
-    <row r="173" customHeight="1" spans="1:27">
+      <c r="AB172" s="6"/>
+      <c r="AC172" s="6"/>
+    </row>
+    <row r="173" customHeight="1" spans="1:29">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="32"/>
+      <c r="E173" s="31"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
@@ -30260,13 +30341,15 @@
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="6"/>
-    </row>
-    <row r="174" customHeight="1" spans="1:27">
+      <c r="AB173" s="6"/>
+      <c r="AC173" s="6"/>
+    </row>
+    <row r="174" customHeight="1" spans="1:29">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
-      <c r="E174" s="32"/>
+      <c r="E174" s="31"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -30289,13 +30372,15 @@
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
       <c r="AA174" s="6"/>
-    </row>
-    <row r="175" customHeight="1" spans="1:27">
+      <c r="AB174" s="6"/>
+      <c r="AC174" s="6"/>
+    </row>
+    <row r="175" customHeight="1" spans="1:29">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="32"/>
+      <c r="E175" s="31"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
@@ -30318,13 +30403,15 @@
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
       <c r="AA175" s="6"/>
-    </row>
-    <row r="176" customHeight="1" spans="1:27">
+      <c r="AB175" s="6"/>
+      <c r="AC175" s="6"/>
+    </row>
+    <row r="176" customHeight="1" spans="1:29">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="32"/>
+      <c r="E176" s="31"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
@@ -30347,13 +30434,15 @@
       <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
       <c r="AA176" s="6"/>
-    </row>
-    <row r="177" customHeight="1" spans="1:27">
+      <c r="AB176" s="6"/>
+      <c r="AC176" s="6"/>
+    </row>
+    <row r="177" customHeight="1" spans="1:29">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
-      <c r="E177" s="32"/>
+      <c r="E177" s="31"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
@@ -30376,13 +30465,15 @@
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
       <c r="AA177" s="6"/>
-    </row>
-    <row r="178" customHeight="1" spans="1:27">
+      <c r="AB177" s="6"/>
+      <c r="AC177" s="6"/>
+    </row>
+    <row r="178" customHeight="1" spans="1:29">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="32"/>
+      <c r="E178" s="31"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
@@ -30405,13 +30496,15 @@
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
       <c r="AA178" s="6"/>
-    </row>
-    <row r="179" customHeight="1" spans="1:27">
+      <c r="AB178" s="6"/>
+      <c r="AC178" s="6"/>
+    </row>
+    <row r="179" customHeight="1" spans="1:29">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
-      <c r="E179" s="32"/>
+      <c r="E179" s="31"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
@@ -30434,13 +30527,15 @@
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="6"/>
-    </row>
-    <row r="180" customHeight="1" spans="1:27">
+      <c r="AB179" s="6"/>
+      <c r="AC179" s="6"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:29">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
-      <c r="E180" s="32"/>
+      <c r="E180" s="31"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -30463,13 +30558,15 @@
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
       <c r="AA180" s="6"/>
-    </row>
-    <row r="181" customHeight="1" spans="1:27">
+      <c r="AB180" s="6"/>
+      <c r="AC180" s="6"/>
+    </row>
+    <row r="181" customHeight="1" spans="1:29">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="32"/>
+      <c r="E181" s="31"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -30492,13 +30589,15 @@
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
       <c r="AA181" s="6"/>
-    </row>
-    <row r="182" customHeight="1" spans="1:27">
+      <c r="AB181" s="6"/>
+      <c r="AC181" s="6"/>
+    </row>
+    <row r="182" customHeight="1" spans="1:29">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="32"/>
+      <c r="E182" s="31"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -30521,13 +30620,15 @@
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
       <c r="AA182" s="6"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:27">
+      <c r="AB182" s="6"/>
+      <c r="AC182" s="6"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:29">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
-      <c r="E183" s="32"/>
+      <c r="E183" s="31"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
@@ -30550,13 +30651,15 @@
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
       <c r="AA183" s="6"/>
-    </row>
-    <row r="184" customHeight="1" spans="1:27">
+      <c r="AB183" s="6"/>
+      <c r="AC183" s="6"/>
+    </row>
+    <row r="184" customHeight="1" spans="1:29">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
-      <c r="E184" s="32"/>
+      <c r="E184" s="31"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -30579,13 +30682,15 @@
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
       <c r="AA184" s="6"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:27">
+      <c r="AB184" s="6"/>
+      <c r="AC184" s="6"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:29">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
-      <c r="E185" s="32"/>
+      <c r="E185" s="31"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -30608,13 +30713,15 @@
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
       <c r="AA185" s="6"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:27">
+      <c r="AB185" s="6"/>
+      <c r="AC185" s="6"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:29">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="32"/>
+      <c r="E186" s="31"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
@@ -30637,13 +30744,15 @@
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
       <c r="AA186" s="6"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:27">
+      <c r="AB186" s="6"/>
+      <c r="AC186" s="6"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:29">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
-      <c r="E187" s="32"/>
+      <c r="E187" s="31"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -30666,13 +30775,15 @@
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
       <c r="AA187" s="6"/>
-    </row>
-    <row r="188" customHeight="1" spans="1:27">
+      <c r="AB187" s="6"/>
+      <c r="AC187" s="6"/>
+    </row>
+    <row r="188" customHeight="1" spans="1:29">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="32"/>
+      <c r="E188" s="31"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -30695,13 +30806,15 @@
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
       <c r="AA188" s="6"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:27">
+      <c r="AB188" s="6"/>
+      <c r="AC188" s="6"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:29">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="32"/>
+      <c r="E189" s="31"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
@@ -30724,13 +30837,15 @@
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
       <c r="AA189" s="6"/>
-    </row>
-    <row r="190" customHeight="1" spans="1:27">
+      <c r="AB189" s="6"/>
+      <c r="AC189" s="6"/>
+    </row>
+    <row r="190" customHeight="1" spans="1:29">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
-      <c r="E190" s="32"/>
+      <c r="E190" s="31"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
@@ -30753,13 +30868,15 @@
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
       <c r="AA190" s="6"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:27">
+      <c r="AB190" s="6"/>
+      <c r="AC190" s="6"/>
+    </row>
+    <row r="191" customHeight="1" spans="1:29">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
-      <c r="E191" s="32"/>
+      <c r="E191" s="31"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
@@ -30782,13 +30899,15 @@
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
-    </row>
-    <row r="192" customHeight="1" spans="1:27">
+      <c r="AB191" s="6"/>
+      <c r="AC191" s="6"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:29">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
-      <c r="E192" s="32"/>
+      <c r="E192" s="31"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
@@ -30811,13 +30930,15 @@
       <c r="Y192" s="6"/>
       <c r="Z192" s="6"/>
       <c r="AA192" s="6"/>
-    </row>
-    <row r="193" customHeight="1" spans="1:27">
+      <c r="AB192" s="6"/>
+      <c r="AC192" s="6"/>
+    </row>
+    <row r="193" customHeight="1" spans="1:29">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
-      <c r="E193" s="32"/>
+      <c r="E193" s="31"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
@@ -30840,13 +30961,15 @@
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
       <c r="AA193" s="6"/>
-    </row>
-    <row r="194" customHeight="1" spans="1:27">
+      <c r="AB193" s="6"/>
+      <c r="AC193" s="6"/>
+    </row>
+    <row r="194" customHeight="1" spans="1:29">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
-      <c r="E194" s="32"/>
+      <c r="E194" s="31"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -30869,13 +30992,15 @@
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
       <c r="AA194" s="6"/>
-    </row>
-    <row r="195" customHeight="1" spans="1:27">
+      <c r="AB194" s="6"/>
+      <c r="AC194" s="6"/>
+    </row>
+    <row r="195" customHeight="1" spans="1:29">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="32"/>
+      <c r="E195" s="31"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
@@ -30898,13 +31023,15 @@
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
       <c r="AA195" s="6"/>
-    </row>
-    <row r="196" customHeight="1" spans="1:27">
+      <c r="AB195" s="6"/>
+      <c r="AC195" s="6"/>
+    </row>
+    <row r="196" customHeight="1" spans="1:29">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
-      <c r="E196" s="32"/>
+      <c r="E196" s="31"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -30927,13 +31054,15 @@
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
       <c r="AA196" s="6"/>
-    </row>
-    <row r="197" customHeight="1" spans="1:27">
+      <c r="AB196" s="6"/>
+      <c r="AC196" s="6"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:29">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="32"/>
+      <c r="E197" s="31"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -30956,13 +31085,15 @@
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
       <c r="AA197" s="6"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:27">
+      <c r="AB197" s="6"/>
+      <c r="AC197" s="6"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:29">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
-      <c r="E198" s="32"/>
+      <c r="E198" s="31"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -30985,13 +31116,15 @@
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
       <c r="AA198" s="6"/>
-    </row>
-    <row r="199" customHeight="1" spans="1:27">
+      <c r="AB198" s="6"/>
+      <c r="AC198" s="6"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:29">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
-      <c r="E199" s="32"/>
+      <c r="E199" s="31"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -31014,13 +31147,15 @@
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
       <c r="AA199" s="6"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:27">
+      <c r="AB199" s="6"/>
+      <c r="AC199" s="6"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:29">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
-      <c r="E200" s="32"/>
+      <c r="E200" s="31"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -31043,13 +31178,15 @@
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
       <c r="AA200" s="6"/>
-    </row>
-    <row r="201" customHeight="1" spans="1:27">
+      <c r="AB200" s="6"/>
+      <c r="AC200" s="6"/>
+    </row>
+    <row r="201" customHeight="1" spans="1:29">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
-      <c r="E201" s="32"/>
+      <c r="E201" s="31"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -31072,6 +31209,8 @@
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
       <c r="AA201" s="6"/>
+      <c r="AB201" s="6"/>
+      <c r="AC201" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31081,9 +31220,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="8" tint="0.4"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31143,16 +31280,16 @@
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -31179,16 +31316,16 @@
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -31215,16 +31352,16 @@
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -31251,16 +31388,16 @@
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -31287,16 +31424,16 @@
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -31323,16 +31460,16 @@
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -31359,16 +31496,16 @@
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -31395,16 +31532,16 @@
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -31431,16 +31568,16 @@
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -31467,16 +31604,16 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -31503,16 +31640,16 @@
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -31539,16 +31676,16 @@
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -31575,16 +31712,16 @@
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -31611,16 +31748,16 @@
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -31647,16 +31784,16 @@
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -31683,16 +31820,16 @@
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -31719,16 +31856,16 @@
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -31755,16 +31892,16 @@
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -31791,16 +31928,16 @@
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -31827,16 +31964,16 @@
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -31863,16 +32000,16 @@
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -31899,16 +32036,16 @@
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -31935,16 +32072,16 @@
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -31971,16 +32108,16 @@
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -32007,16 +32144,16 @@
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -32043,16 +32180,16 @@
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -32079,16 +32216,16 @@
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -32115,16 +32252,16 @@
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -32151,16 +32288,16 @@
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -32187,16 +32324,16 @@
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -32223,16 +32360,16 @@
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -32259,16 +32396,16 @@
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -32295,16 +32432,16 @@
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -32331,16 +32468,16 @@
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -32367,16 +32504,16 @@
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -32403,16 +32540,16 @@
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -32439,16 +32576,16 @@
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -32475,16 +32612,16 @@
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -32511,16 +32648,16 @@
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -32547,16 +32684,16 @@
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -32583,16 +32720,16 @@
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -32619,16 +32756,16 @@
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -32655,16 +32792,16 @@
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -32691,16 +32828,16 @@
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -32727,16 +32864,16 @@
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -32763,16 +32900,16 @@
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -32799,16 +32936,16 @@
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -32835,16 +32972,16 @@
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -32871,16 +33008,16 @@
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -32907,16 +33044,16 @@
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -32943,16 +33080,16 @@
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -32979,16 +33116,16 @@
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -33015,16 +33152,16 @@
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -33051,16 +33188,16 @@
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -33087,16 +33224,16 @@
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -33123,16 +33260,16 @@
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -33159,16 +33296,16 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -33195,16 +33332,16 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -33231,16 +33368,16 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -33267,16 +33404,16 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -33303,16 +33440,16 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -33339,16 +33476,16 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -33375,16 +33512,16 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -33411,16 +33548,16 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -33447,16 +33584,16 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -33483,16 +33620,16 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -33519,16 +33656,16 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -33555,16 +33692,16 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -33591,16 +33728,16 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -33627,16 +33764,16 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -33663,16 +33800,16 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -33699,16 +33836,16 @@
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -33735,16 +33872,16 @@
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -33771,16 +33908,16 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -33807,16 +33944,16 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -33843,16 +33980,16 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -33879,16 +34016,16 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -33915,16 +34052,16 @@
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -33951,16 +34088,16 @@
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -33987,16 +34124,16 @@
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -34023,16 +34160,16 @@
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -34059,16 +34196,16 @@
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -34095,16 +34232,16 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -34131,16 +34268,16 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -34167,16 +34304,16 @@
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -34203,16 +34340,16 @@
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -34239,16 +34376,16 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -34275,16 +34412,16 @@
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -34311,16 +34448,16 @@
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -34347,16 +34484,16 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -34383,16 +34520,16 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -34419,16 +34556,16 @@
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -34455,16 +34592,16 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -34491,16 +34628,16 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -34527,16 +34664,16 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -34563,16 +34700,16 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -34599,16 +34736,16 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -34635,16 +34772,16 @@
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -34671,16 +34808,16 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -34707,16 +34844,16 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -34743,16 +34880,16 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -34779,16 +34916,16 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="21" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -34815,16 +34952,16 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="21" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -34851,16 +34988,16 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="21" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -34887,16 +35024,16 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="21" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -34923,16 +35060,16 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="21" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -34959,16 +35096,16 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="21" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -34995,16 +35132,16 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="21" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -35031,16 +35168,16 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="21" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -35067,16 +35204,16 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="21" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -35467,11 +35604,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AD18"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.4"/>
+  </sheetPr>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2"/>
@@ -35483,10 +35622,12 @@
     <col min="5" max="5" width="19.3846153846154" customWidth="1"/>
     <col min="6" max="6" width="22.2692307692308" style="3" customWidth="1"/>
     <col min="7" max="7" width="73.5576923076923" customWidth="1"/>
-    <col min="8" max="8" width="12.9711538461538" customWidth="1"/>
+    <col min="8" max="8" width="53.6826923076923" customWidth="1"/>
+    <col min="9" max="9" width="18.1057692307692" customWidth="1"/>
+    <col min="10" max="10" width="16.9807692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:31">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -35497,25 +35638,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
@@ -35535,27 +35680,30 @@
       <c r="AB1" s="17"/>
       <c r="AC1" s="17"/>
       <c r="AD1" s="17"/>
-    </row>
-    <row r="2" ht="16.8" spans="1:30">
+      <c r="AE1" s="17"/>
+    </row>
+    <row r="2" ht="16.8" spans="1:31">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D2" s="8">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="6"/>
+        <v>571</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -35577,27 +35725,30 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
-    </row>
-    <row r="3" ht="16.8" spans="1:30">
+      <c r="AE2" s="6"/>
+    </row>
+    <row r="3" ht="16.8" spans="1:31">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D3" s="8">
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="6"/>
+        <v>574</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -35619,27 +35770,30 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-    </row>
-    <row r="4" ht="16.8" spans="1:30">
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" ht="16.8" spans="1:31">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F4" s="8">
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="6"/>
+        <v>577</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -35661,27 +35815,30 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
-    </row>
-    <row r="5" ht="16.8" spans="1:30">
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" ht="16.8" spans="1:31">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F5" s="8">
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -35703,27 +35860,30 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-    </row>
-    <row r="6" ht="16.8" spans="1:30">
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" ht="16.8" spans="1:31">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D6" s="8">
         <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="6"/>
+        <v>571</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -35745,27 +35905,30 @@
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-    </row>
-    <row r="7" ht="16.8" spans="1:30">
+      <c r="AE6" s="6"/>
+    </row>
+    <row r="7" ht="16.8" spans="1:31">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F7" s="8">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="6"/>
+        <v>574</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -35787,27 +35950,30 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-    </row>
-    <row r="8" ht="16.8" spans="1:30">
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" ht="16.8" spans="1:31">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D8" s="8">
         <v>4</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="6"/>
+        <v>577</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -35829,27 +35995,30 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
-    </row>
-    <row r="9" ht="16.8" spans="1:30">
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" ht="16.8" spans="1:31">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F9" s="8">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -35871,27 +36040,30 @@
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
-    </row>
-    <row r="10" ht="409.5" spans="1:30">
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" ht="409.5" spans="1:31">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="6"/>
+        <v>581</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -35913,27 +36085,30 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
-    </row>
-    <row r="11" ht="409.5" spans="1:30">
+      <c r="AE10" s="6"/>
+    </row>
+    <row r="11" ht="409.5" spans="1:31">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F11" s="15">
         <v>2</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="6"/>
+        <v>583</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -35955,27 +36130,30 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-    </row>
-    <row r="12" ht="409.5" spans="1:30">
+      <c r="AE11" s="6"/>
+    </row>
+    <row r="12" ht="409.5" spans="1:31">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F12" s="15">
         <v>3</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="6"/>
+        <v>584</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -35997,27 +36175,30 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-    </row>
-    <row r="13" ht="409.5" spans="1:30">
+      <c r="AE12" s="6"/>
+    </row>
+    <row r="13" ht="409.5" spans="1:31">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="6"/>
+        <v>585</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -36039,27 +36220,30 @@
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
-    </row>
-    <row r="14" ht="409.5" spans="1:30">
+      <c r="AE13" s="6"/>
+    </row>
+    <row r="14" ht="409.5" spans="1:31">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="6"/>
+        <v>586</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -36081,27 +36265,30 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
-    </row>
-    <row r="15" ht="408" customHeight="1" spans="1:30">
+      <c r="AE14" s="6"/>
+    </row>
+    <row r="15" ht="408" customHeight="1" spans="1:31">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F15" s="15">
         <v>2</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="6"/>
+        <v>587</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -36123,27 +36310,30 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
-    </row>
-    <row r="16" ht="409" customHeight="1" spans="1:30">
+      <c r="AE15" s="6"/>
+    </row>
+    <row r="16" ht="409" customHeight="1" spans="1:31">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F16" s="15">
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="6"/>
+        <v>588</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -36165,27 +36355,30 @@
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
-    </row>
-    <row r="17" ht="409" customHeight="1" spans="1:30">
+      <c r="AE16" s="6"/>
+    </row>
+    <row r="17" ht="409" customHeight="1" spans="1:31">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F17" s="15">
         <v>4</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="6"/>
+        <v>589</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -36207,48 +36400,7 @@
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
-    </row>
-    <row r="18" ht="16.8" spans="1:30">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="9">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="AE17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
+++ b/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160" activeTab="2"/>
+    <workbookView windowHeight="16160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="592">
   <si>
     <t>f_result</t>
   </si>
@@ -284,7 +284,13 @@
     <t>取健康评估记录表已确认状态的最新一条记录的既往疾病结果</t>
   </si>
   <si>
-    <t>f_age</t>
+    <t>f_crowd</t>
+  </si>
+  <si>
+    <t>f_crowdCode</t>
+  </si>
+  <si>
+    <t>f_ageType</t>
   </si>
   <si>
     <t>f_testcase</t>
@@ -302,6 +308,12 @@
     <t>身体指标</t>
   </si>
   <si>
+    <t>普通人群</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>成人体重超重或肥胖</t>
   </si>
   <si>
@@ -314,9 +326,6 @@
     <t>BMI&gt;=24 and 年龄&gt;=18 and 年龄&lt;65</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>TZ_STZB001</t>
   </si>
   <si>
@@ -350,6 +359,9 @@
     <t>TZ_STZB003</t>
   </si>
   <si>
+    <t>老年人</t>
+  </si>
+  <si>
     <t>老年人体重超重或肥胖</t>
   </si>
   <si>
@@ -393,6 +405,12 @@
   </si>
   <si>
     <t>TZ_STZB006</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>（14-18岁）体重超重或肥胖</t>
@@ -712,9 +730,6 @@
 or (17.5&lt;= 年龄＜18 and 23.9&lt;= BMI and 性别=女)</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>TZ_STZB007</t>
   </si>
   <si>
@@ -5445,6 +5460,9 @@
   </si>
   <si>
     <t>TZ_STZB015</t>
+  </si>
+  <si>
+    <t>儿童</t>
   </si>
   <si>
     <t>（60-72月龄）体重超重或肥胖</t>
@@ -13198,34 +13216,22 @@
     <t>TZ_JWJB002</t>
   </si>
   <si>
-    <t>普通人群</t>
-  </si>
-  <si>
     <t>人群分类为普通人群</t>
   </si>
   <si>
     <t>TZ_RQFL001</t>
   </si>
   <si>
-    <t>老年人</t>
-  </si>
-  <si>
     <t>人群分类为老年人</t>
   </si>
   <si>
     <t>TZ_RQFL002</t>
   </si>
   <si>
-    <t>学生</t>
-  </si>
-  <si>
     <t>人群分类为学生</t>
   </si>
   <si>
     <t>TZ_RQFL003</t>
-  </si>
-  <si>
-    <t>儿童</t>
   </si>
   <si>
     <t>人群分类为儿童</t>
@@ -24152,26 +24158,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="评估因素规则库"/>
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="32.6538461538462" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="49.2403846153846" customWidth="1"/>
-    <col min="7" max="7" width="59.4807692307692" customWidth="1"/>
-    <col min="8" max="8" width="20.1538461538462" customWidth="1"/>
-    <col min="9" max="9" width="34.8173076923077" customWidth="1"/>
+    <col min="4" max="4" width="26.5961538461538" customWidth="1"/>
+    <col min="5" max="5" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1538461538462" customWidth="1"/>
+    <col min="7" max="7" width="32.6538461538462" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="49.2403846153846" customWidth="1"/>
+    <col min="10" max="10" width="59.4807692307692" customWidth="1"/>
+    <col min="11" max="11" width="34.8173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="27.75" customHeight="1" spans="1:29">
+    <row r="1" s="25" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -24181,29 +24189,29 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>67</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>68</v>
@@ -24211,8 +24219,12 @@
       <c r="M1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="N1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>71</v>
+      </c>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -24227,33 +24239,39 @@
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
-    </row>
-    <row r="2" ht="31" spans="1:29">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+    </row>
+    <row r="2" ht="31" spans="1:31">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="29" t="s">
         <v>72</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
       <c r="F2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="I2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>79</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -24272,33 +24290,39 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
-    </row>
-    <row r="3" ht="31" spans="1:29">
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+    </row>
+    <row r="3" ht="31" spans="1:31">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -24317,33 +24341,39 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-    </row>
-    <row r="4" ht="31" spans="1:29">
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" ht="31" spans="1:31">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="33" t="s">
+      <c r="H4" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -24362,35 +24392,41 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-    </row>
-    <row r="5" ht="31" spans="1:29">
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" ht="31" spans="1:31">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="H5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -24407,33 +24443,39 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-    </row>
-    <row r="6" ht="31" spans="1:29">
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" ht="31" spans="1:31">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="H6" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>100</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -24452,33 +24494,39 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-    </row>
-    <row r="7" ht="31" spans="1:29">
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+    </row>
+    <row r="7" ht="31" spans="1:31">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="H7" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -24497,33 +24545,39 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-    </row>
-    <row r="8" ht="244" spans="1:29">
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" ht="244" spans="1:31">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>103</v>
+        <v>72</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>112</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -24542,33 +24596,39 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-    </row>
-    <row r="9" ht="244" spans="1:29">
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" ht="244" spans="1:31">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>109</v>
+        <v>72</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -24587,33 +24647,39 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-    </row>
-    <row r="10" ht="244" spans="1:29">
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" ht="244" spans="1:31">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>114</v>
+        <v>72</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>122</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -24632,33 +24698,39 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-    </row>
-    <row r="11" ht="183" spans="1:29">
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+    </row>
+    <row r="11" ht="183" spans="1:31">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>103</v>
+        <v>72</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>126</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -24677,33 +24749,39 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-    </row>
-    <row r="12" ht="183" spans="1:29">
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+    </row>
+    <row r="12" ht="183" spans="1:31">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>123</v>
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>131</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -24722,33 +24800,39 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-    </row>
-    <row r="13" ht="183" spans="1:29">
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+    </row>
+    <row r="13" ht="183" spans="1:31">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>128</v>
+        <v>72</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>136</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -24767,33 +24851,39 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-    </row>
-    <row r="14" ht="304" spans="1:29">
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+    </row>
+    <row r="14" ht="304" spans="1:31">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>133</v>
+        <v>72</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -24812,33 +24902,39 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-    </row>
-    <row r="15" ht="304" spans="1:29">
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+    </row>
+    <row r="15" ht="304" spans="1:31">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>138</v>
+        <v>72</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>146</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -24857,33 +24953,39 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-    </row>
-    <row r="16" ht="274" spans="1:29">
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+    </row>
+    <row r="16" ht="274" spans="1:31">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>143</v>
+        <v>72</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>151</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -24902,33 +25004,39 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-    </row>
-    <row r="17" ht="122" spans="1:29">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+    </row>
+    <row r="17" ht="122" spans="1:31">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>148</v>
+        <v>72</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>157</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -24947,33 +25055,39 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-    </row>
-    <row r="18" ht="228" spans="1:29">
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+    </row>
+    <row r="18" ht="228" spans="1:31">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>153</v>
+      <c r="E18" s="8">
+        <v>1</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>162</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -24992,33 +25106,39 @@
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-    </row>
-    <row r="19" ht="122" spans="1:29">
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+    </row>
+    <row r="19" ht="122" spans="1:31">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>158</v>
+        <v>72</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>167</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -25037,33 +25157,39 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-    </row>
-    <row r="20" ht="122" spans="1:29">
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+    </row>
+    <row r="20" ht="122" spans="1:31">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>163</v>
+        <v>72</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>172</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -25082,33 +25208,39 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
-    </row>
-    <row r="21" ht="198" spans="1:29">
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+    </row>
+    <row r="21" ht="198" spans="1:31">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>168</v>
+        <v>72</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>177</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -25127,33 +25259,39 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-    </row>
-    <row r="22" ht="122" spans="1:29">
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+    </row>
+    <row r="22" ht="122" spans="1:31">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>173</v>
+        <v>72</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>182</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -25172,33 +25310,39 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-    </row>
-    <row r="23" ht="122" spans="1:29">
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+    </row>
+    <row r="23" ht="122" spans="1:31">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>178</v>
+        <v>72</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>187</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -25217,33 +25361,39 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
-    </row>
-    <row r="24" ht="228" spans="1:29">
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+    </row>
+    <row r="24" ht="228" spans="1:31">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>183</v>
+        <v>72</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>192</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -25262,33 +25412,39 @@
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-    </row>
-    <row r="25" ht="122" spans="1:29">
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+    </row>
+    <row r="25" ht="122" spans="1:31">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>188</v>
+        <v>72</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>197</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -25307,33 +25463,39 @@
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-    </row>
-    <row r="26" ht="61" spans="1:29">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+    </row>
+    <row r="26" ht="61" spans="1:31">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>193</v>
+        <v>72</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>202</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -25352,33 +25514,39 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
-    </row>
-    <row r="27" ht="107" spans="1:29">
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+    </row>
+    <row r="27" ht="107" spans="1:31">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>198</v>
+        <v>72</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>207</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -25397,33 +25565,39 @@
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
-    </row>
-    <row r="28" ht="61" spans="1:29">
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+    </row>
+    <row r="28" ht="61" spans="1:31">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>203</v>
+        <v>72</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>212</v>
+      </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -25442,33 +25616,39 @@
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
-    </row>
-    <row r="29" ht="61" spans="1:29">
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+    </row>
+    <row r="29" ht="61" spans="1:31">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>208</v>
+        <v>72</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>217</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -25487,33 +25667,39 @@
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-    </row>
-    <row r="30" ht="92" spans="1:29">
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+    </row>
+    <row r="30" ht="92" spans="1:31">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>213</v>
+        <v>72</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>222</v>
+      </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -25532,33 +25718,39 @@
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
-    </row>
-    <row r="31" ht="61" spans="1:29">
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+    </row>
+    <row r="31" ht="61" spans="1:31">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>218</v>
+        <v>72</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>227</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -25577,33 +25769,39 @@
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
-    </row>
-    <row r="32" ht="183" spans="1:29">
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+    </row>
+    <row r="32" ht="183" spans="1:31">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>223</v>
+        <v>72</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>232</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -25622,33 +25820,39 @@
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
-    </row>
-    <row r="33" ht="183" spans="1:29">
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+    </row>
+    <row r="33" ht="183" spans="1:31">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>228</v>
+        <v>72</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>237</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -25667,33 +25871,39 @@
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
-    </row>
-    <row r="34" ht="183" spans="1:29">
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+    </row>
+    <row r="34" ht="183" spans="1:31">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>233</v>
+        <v>72</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>241</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -25712,33 +25922,39 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
-    </row>
-    <row r="35" ht="183" spans="1:29">
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+    </row>
+    <row r="35" ht="183" spans="1:31">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>237</v>
+        <v>72</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>246</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -25757,33 +25973,39 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
-    </row>
-    <row r="36" ht="183" spans="1:29">
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+    </row>
+    <row r="36" ht="183" spans="1:31">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>242</v>
+        <v>72</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>251</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -25802,33 +26024,39 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
-    </row>
-    <row r="37" ht="183" spans="1:29">
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+    </row>
+    <row r="37" ht="183" spans="1:31">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>247</v>
+        <v>72</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>255</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -25847,33 +26075,39 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
-    </row>
-    <row r="38" ht="92" spans="1:29">
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+    </row>
+    <row r="38" ht="92" spans="1:31">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>251</v>
+        <v>72</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>260</v>
+      </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -25892,33 +26126,39 @@
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
-    </row>
-    <row r="39" ht="92" spans="1:29">
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+    </row>
+    <row r="39" ht="92" spans="1:31">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>256</v>
+        <v>72</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>265</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -25937,33 +26177,39 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-    </row>
-    <row r="40" ht="92" spans="1:29">
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+    </row>
+    <row r="40" ht="92" spans="1:31">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>261</v>
+        <v>72</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>269</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -25982,33 +26228,39 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-    </row>
-    <row r="41" ht="92" spans="1:29">
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+    </row>
+    <row r="41" ht="92" spans="1:31">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>265</v>
+        <v>72</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -26027,33 +26279,39 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-    </row>
-    <row r="42" ht="92" spans="1:29">
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+    </row>
+    <row r="42" ht="92" spans="1:31">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>270</v>
+        <v>72</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>279</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -26072,33 +26330,39 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-    </row>
-    <row r="43" ht="92" spans="1:29">
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+    </row>
+    <row r="43" ht="92" spans="1:31">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>275</v>
+        <v>72</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>283</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -26117,33 +26381,39 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
-    </row>
-    <row r="44" ht="152" spans="1:29">
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+    </row>
+    <row r="44" ht="152" spans="1:31">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>279</v>
+        <v>72</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>288</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -26162,33 +26432,39 @@
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
-    </row>
-    <row r="45" ht="152" spans="1:29">
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+    </row>
+    <row r="45" ht="152" spans="1:31">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>284</v>
+        <v>72</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>293</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -26207,33 +26483,39 @@
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
-    </row>
-    <row r="46" ht="152" spans="1:29">
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+    </row>
+    <row r="46" ht="152" spans="1:31">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>289</v>
+        <v>72</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>297</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -26252,33 +26534,35 @@
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
-    </row>
-    <row r="47" ht="31" spans="1:29">
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+    </row>
+    <row r="47" ht="31" spans="1:31">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>294</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>302</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -26297,33 +26581,35 @@
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
-    </row>
-    <row r="48" ht="31" spans="1:29">
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+    </row>
+    <row r="48" ht="31" spans="1:31">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="E48" s="29" t="s">
         <v>298</v>
       </c>
+      <c r="D48"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>306</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -26342,33 +26628,35 @@
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
-    </row>
-    <row r="49" ht="17" spans="1:29">
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+    </row>
+    <row r="49" ht="17" spans="1:31">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>302</v>
+      <c r="D49"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>308</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -26387,33 +26675,35 @@
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
-    </row>
-    <row r="50" ht="17" spans="1:29">
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+    </row>
+    <row r="50" ht="17" spans="1:31">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>305</v>
+      <c r="D50"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>310</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -26432,33 +26722,35 @@
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
-    </row>
-    <row r="51" ht="17" spans="1:29">
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+    </row>
+    <row r="51" ht="17" spans="1:31">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>308</v>
+      <c r="D51"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>312</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -26477,33 +26769,35 @@
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
-    </row>
-    <row r="52" ht="17" spans="1:29">
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+    </row>
+    <row r="52" ht="17" spans="1:31">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>311</v>
+      <c r="D52"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I52" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>314</v>
+      </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -26522,33 +26816,35 @@
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
-    </row>
-    <row r="53" ht="17" spans="1:29">
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+    </row>
+    <row r="53" ht="17" spans="1:31">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>314</v>
+      <c r="D53"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="H53" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>317</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -26567,33 +26863,35 @@
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
-    </row>
-    <row r="54" ht="17" spans="1:29">
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+    </row>
+    <row r="54" ht="17" spans="1:31">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>317</v>
+      <c r="D54"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="H54" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>320</v>
+      </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -26612,33 +26910,35 @@
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
-    </row>
-    <row r="55" ht="17" spans="1:29">
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+    </row>
+    <row r="55" ht="17" spans="1:31">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>320</v>
+      <c r="D55"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="H55" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="33" t="s">
+      <c r="H55" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="I55" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="J55" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>324</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -26657,33 +26957,35 @@
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
-    </row>
-    <row r="56" ht="17" spans="1:29">
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+    </row>
+    <row r="56" ht="17" spans="1:31">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>324</v>
+      <c r="D56"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G56" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="H56" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="33" t="s">
+      <c r="H56" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="I56" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="J56" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>328</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -26702,33 +27004,35 @@
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
-    </row>
-    <row r="57" ht="17" spans="1:29">
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+    </row>
+    <row r="57" ht="17" spans="1:31">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>328</v>
+      <c r="D57"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="H57" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="33" t="s">
+      <c r="H57" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="I57" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="J57" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>332</v>
+      </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -26747,16 +27051,18 @@
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
-    </row>
-    <row r="58" ht="15.2" spans="1:29">
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+    </row>
+    <row r="58" ht="15.2" spans="1:31">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="31"/>
+      <c r="D58"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="H58" s="31"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -26778,16 +27084,18 @@
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
-    </row>
-    <row r="59" ht="15.2" spans="1:29">
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+    </row>
+    <row r="59" ht="15.2" spans="1:31">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="31"/>
+      <c r="D59"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="H59" s="31"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -26809,16 +27117,18 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:29">
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:31">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="31"/>
+      <c r="D60"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="H60" s="31"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -26840,16 +27150,18 @@
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:29">
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:31">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="31"/>
+      <c r="D61"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="H61" s="31"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -26871,16 +27183,18 @@
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:29">
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:31">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="31"/>
+      <c r="D62"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="31"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -26902,16 +27216,18 @@
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
       <c r="AC62" s="6"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:29">
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:31">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="31"/>
+      <c r="D63"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="H63" s="31"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -26933,16 +27249,18 @@
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
       <c r="AC63" s="6"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:29">
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:31">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="31"/>
+      <c r="D64"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -26964,16 +27282,18 @@
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:29">
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:31">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="31"/>
+      <c r="D65"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="H65" s="31"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -26995,16 +27315,18 @@
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:29">
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:31">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="31"/>
+      <c r="D66"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="31"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -27026,16 +27348,18 @@
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:29">
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:31">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="31"/>
+      <c r="D67"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="31"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -27057,16 +27381,18 @@
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
       <c r="AC67" s="6"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:29">
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:31">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="31"/>
+      <c r="D68"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="31"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -27088,16 +27414,18 @@
       <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:29">
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:31">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="31"/>
+      <c r="D69"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="31"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -27119,16 +27447,18 @@
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:29">
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:31">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="31"/>
+      <c r="D70"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="31"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -27150,16 +27480,18 @@
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:29">
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:31">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="31"/>
+      <c r="D71"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="H71" s="31"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -27181,16 +27513,18 @@
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:29">
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:31">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="31"/>
+      <c r="D72"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="H72" s="31"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -27212,16 +27546,18 @@
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:29">
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:31">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="31"/>
+      <c r="D73"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="H73" s="31"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -27243,16 +27579,18 @@
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
       <c r="AC73" s="6"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:29">
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:31">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="31"/>
+      <c r="D74"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="H74" s="31"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -27274,16 +27612,18 @@
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:29">
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:31">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="31"/>
+      <c r="D75"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="31"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -27305,16 +27645,18 @@
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="6"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:29">
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:31">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="31"/>
+      <c r="D76"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="H76" s="31"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -27336,16 +27678,18 @@
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:29">
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:31">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="31"/>
+      <c r="D77"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="31"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -27367,16 +27711,18 @@
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
       <c r="AC77" s="6"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:29">
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:31">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="31"/>
+      <c r="D78"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="H78" s="31"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -27398,16 +27744,18 @@
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
       <c r="AC78" s="6"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:29">
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:31">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="31"/>
+      <c r="D79"/>
+      <c r="E79" s="2"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="H79" s="31"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -27429,16 +27777,18 @@
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
       <c r="AC79" s="6"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:29">
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:31">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="31"/>
+      <c r="D80"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="31"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -27460,16 +27810,18 @@
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
       <c r="AC80" s="6"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:29">
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:31">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="31"/>
+      <c r="D81"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="H81" s="31"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -27491,16 +27843,18 @@
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
       <c r="AC81" s="6"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:29">
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:31">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="31"/>
+      <c r="D82"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="H82" s="31"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -27522,16 +27876,18 @@
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="6"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:29">
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:31">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="31"/>
+      <c r="D83"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="H83" s="31"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -27553,16 +27909,18 @@
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
       <c r="AC83" s="6"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:29">
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:31">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="31"/>
+      <c r="D84"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="H84" s="31"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -27584,16 +27942,18 @@
       <c r="AA84" s="6"/>
       <c r="AB84" s="6"/>
       <c r="AC84" s="6"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:29">
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:31">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="31"/>
+      <c r="D85"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="H85" s="31"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -27615,16 +27975,18 @@
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
       <c r="AC85" s="6"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:29">
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:31">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="31"/>
+      <c r="D86"/>
+      <c r="E86" s="2"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="H86" s="31"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -27646,16 +28008,18 @@
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
       <c r="AC86" s="6"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:29">
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:31">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="31"/>
+      <c r="D87"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="31"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -27677,16 +28041,18 @@
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
       <c r="AC87" s="6"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:29">
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:31">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="31"/>
+      <c r="D88"/>
+      <c r="E88" s="2"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="H88" s="31"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
@@ -27708,16 +28074,18 @@
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
       <c r="AC88" s="6"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:29">
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:31">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="31"/>
+      <c r="D89"/>
+      <c r="E89" s="2"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="H89" s="31"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -27739,16 +28107,18 @@
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
       <c r="AC89" s="6"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:29">
+      <c r="AD89" s="6"/>
+      <c r="AE89" s="6"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:31">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="31"/>
+      <c r="D90"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="H90" s="31"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
@@ -27770,16 +28140,18 @@
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
       <c r="AC90" s="6"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:29">
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:31">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="31"/>
+      <c r="D91"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="H91" s="31"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -27801,16 +28173,18 @@
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:29">
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:31">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="31"/>
+      <c r="D92"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="H92" s="31"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -27832,16 +28206,18 @@
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
-    </row>
-    <row r="93" customHeight="1" spans="1:29">
+      <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:31">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="31"/>
+      <c r="D93"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="H93" s="31"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -27863,16 +28239,18 @@
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
-    </row>
-    <row r="94" customHeight="1" spans="1:29">
+      <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:31">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="31"/>
+      <c r="D94"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="31"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
@@ -27894,16 +28272,18 @@
       <c r="AA94" s="6"/>
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:29">
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:31">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="31"/>
+      <c r="D95"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="31"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -27925,16 +28305,18 @@
       <c r="AA95" s="6"/>
       <c r="AB95" s="6"/>
       <c r="AC95" s="6"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:29">
+      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:31">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="31"/>
+      <c r="D96"/>
+      <c r="E96" s="2"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="31"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
@@ -27956,16 +28338,18 @@
       <c r="AA96" s="6"/>
       <c r="AB96" s="6"/>
       <c r="AC96" s="6"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:29">
+      <c r="AD96" s="6"/>
+      <c r="AE96" s="6"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:31">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="31"/>
+      <c r="D97"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="H97" s="31"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -27987,16 +28371,18 @@
       <c r="AA97" s="6"/>
       <c r="AB97" s="6"/>
       <c r="AC97" s="6"/>
-    </row>
-    <row r="98" customHeight="1" spans="1:29">
+      <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:31">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="31"/>
+      <c r="D98"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="H98" s="31"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
@@ -28018,16 +28404,18 @@
       <c r="AA98" s="6"/>
       <c r="AB98" s="6"/>
       <c r="AC98" s="6"/>
-    </row>
-    <row r="99" customHeight="1" spans="1:29">
+      <c r="AD98" s="6"/>
+      <c r="AE98" s="6"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:31">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="31"/>
+      <c r="D99"/>
+      <c r="E99" s="2"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="H99" s="31"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -28049,16 +28437,18 @@
       <c r="AA99" s="6"/>
       <c r="AB99" s="6"/>
       <c r="AC99" s="6"/>
-    </row>
-    <row r="100" customHeight="1" spans="1:29">
+      <c r="AD99" s="6"/>
+      <c r="AE99" s="6"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:31">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="31"/>
+      <c r="D100"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+      <c r="H100" s="31"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
@@ -28080,16 +28470,18 @@
       <c r="AA100" s="6"/>
       <c r="AB100" s="6"/>
       <c r="AC100" s="6"/>
-    </row>
-    <row r="101" customHeight="1" spans="1:29">
+      <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:31">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="31"/>
+      <c r="D101"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="H101" s="31"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -28111,16 +28503,18 @@
       <c r="AA101" s="6"/>
       <c r="AB101" s="6"/>
       <c r="AC101" s="6"/>
-    </row>
-    <row r="102" customHeight="1" spans="1:29">
+      <c r="AD101" s="6"/>
+      <c r="AE101" s="6"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:31">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="31"/>
+      <c r="D102"/>
+      <c r="E102" s="2"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+      <c r="H102" s="31"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
@@ -28142,16 +28536,18 @@
       <c r="AA102" s="6"/>
       <c r="AB102" s="6"/>
       <c r="AC102" s="6"/>
-    </row>
-    <row r="103" customHeight="1" spans="1:29">
+      <c r="AD102" s="6"/>
+      <c r="AE102" s="6"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:31">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="31"/>
+      <c r="D103"/>
+      <c r="E103" s="2"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="H103" s="31"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -28173,16 +28569,18 @@
       <c r="AA103" s="6"/>
       <c r="AB103" s="6"/>
       <c r="AC103" s="6"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:29">
+      <c r="AD103" s="6"/>
+      <c r="AE103" s="6"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:31">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="31"/>
+      <c r="D104"/>
+      <c r="E104" s="2"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+      <c r="H104" s="31"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
@@ -28204,16 +28602,18 @@
       <c r="AA104" s="6"/>
       <c r="AB104" s="6"/>
       <c r="AC104" s="6"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:29">
+      <c r="AD104" s="6"/>
+      <c r="AE104" s="6"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:31">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="31"/>
+      <c r="D105"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="H105" s="31"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -28235,16 +28635,18 @@
       <c r="AA105" s="6"/>
       <c r="AB105" s="6"/>
       <c r="AC105" s="6"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:29">
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:31">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="31"/>
+      <c r="D106"/>
+      <c r="E106" s="2"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
+      <c r="H106" s="31"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
@@ -28266,16 +28668,18 @@
       <c r="AA106" s="6"/>
       <c r="AB106" s="6"/>
       <c r="AC106" s="6"/>
-    </row>
-    <row r="107" customHeight="1" spans="1:29">
+      <c r="AD106" s="6"/>
+      <c r="AE106" s="6"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:31">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="31"/>
+      <c r="D107"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
+      <c r="H107" s="31"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -28297,16 +28701,18 @@
       <c r="AA107" s="6"/>
       <c r="AB107" s="6"/>
       <c r="AC107" s="6"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:29">
+      <c r="AD107" s="6"/>
+      <c r="AE107" s="6"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:31">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="31"/>
+      <c r="D108"/>
+      <c r="E108" s="2"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
+      <c r="H108" s="31"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
@@ -28328,16 +28734,18 @@
       <c r="AA108" s="6"/>
       <c r="AB108" s="6"/>
       <c r="AC108" s="6"/>
-    </row>
-    <row r="109" customHeight="1" spans="1:29">
+      <c r="AD108" s="6"/>
+      <c r="AE108" s="6"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:31">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="31"/>
+      <c r="D109"/>
+      <c r="E109" s="2"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
+      <c r="H109" s="31"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -28359,16 +28767,18 @@
       <c r="AA109" s="6"/>
       <c r="AB109" s="6"/>
       <c r="AC109" s="6"/>
-    </row>
-    <row r="110" customHeight="1" spans="1:29">
+      <c r="AD109" s="6"/>
+      <c r="AE109" s="6"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:31">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="31"/>
+      <c r="D110"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
+      <c r="H110" s="31"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
@@ -28390,16 +28800,18 @@
       <c r="AA110" s="6"/>
       <c r="AB110" s="6"/>
       <c r="AC110" s="6"/>
-    </row>
-    <row r="111" customHeight="1" spans="1:29">
+      <c r="AD110" s="6"/>
+      <c r="AE110" s="6"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:31">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="31"/>
+      <c r="D111"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
+      <c r="H111" s="31"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -28421,16 +28833,18 @@
       <c r="AA111" s="6"/>
       <c r="AB111" s="6"/>
       <c r="AC111" s="6"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:29">
+      <c r="AD111" s="6"/>
+      <c r="AE111" s="6"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:31">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="31"/>
+      <c r="D112"/>
+      <c r="E112" s="2"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
+      <c r="H112" s="31"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
@@ -28452,16 +28866,18 @@
       <c r="AA112" s="6"/>
       <c r="AB112" s="6"/>
       <c r="AC112" s="6"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:29">
+      <c r="AD112" s="6"/>
+      <c r="AE112" s="6"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:31">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="31"/>
+      <c r="D113"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="H113" s="31"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -28483,16 +28899,18 @@
       <c r="AA113" s="6"/>
       <c r="AB113" s="6"/>
       <c r="AC113" s="6"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:29">
+      <c r="AD113" s="6"/>
+      <c r="AE113" s="6"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:31">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="31"/>
+      <c r="D114"/>
+      <c r="E114" s="2"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
+      <c r="H114" s="31"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
@@ -28514,16 +28932,18 @@
       <c r="AA114" s="6"/>
       <c r="AB114" s="6"/>
       <c r="AC114" s="6"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:29">
+      <c r="AD114" s="6"/>
+      <c r="AE114" s="6"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:31">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="31"/>
+      <c r="D115"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="H115" s="31"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -28545,16 +28965,18 @@
       <c r="AA115" s="6"/>
       <c r="AB115" s="6"/>
       <c r="AC115" s="6"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:29">
+      <c r="AD115" s="6"/>
+      <c r="AE115" s="6"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:31">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="31"/>
+      <c r="D116"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
+      <c r="H116" s="31"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
@@ -28576,16 +28998,18 @@
       <c r="AA116" s="6"/>
       <c r="AB116" s="6"/>
       <c r="AC116" s="6"/>
-    </row>
-    <row r="117" customHeight="1" spans="1:29">
+      <c r="AD116" s="6"/>
+      <c r="AE116" s="6"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:31">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="31"/>
+      <c r="D117"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
+      <c r="H117" s="31"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -28607,16 +29031,18 @@
       <c r="AA117" s="6"/>
       <c r="AB117" s="6"/>
       <c r="AC117" s="6"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:29">
+      <c r="AD117" s="6"/>
+      <c r="AE117" s="6"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:31">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="31"/>
+      <c r="D118"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
+      <c r="H118" s="31"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
@@ -28638,16 +29064,18 @@
       <c r="AA118" s="6"/>
       <c r="AB118" s="6"/>
       <c r="AC118" s="6"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:29">
+      <c r="AD118" s="6"/>
+      <c r="AE118" s="6"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:31">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="31"/>
+      <c r="D119"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
+      <c r="H119" s="31"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -28669,16 +29097,18 @@
       <c r="AA119" s="6"/>
       <c r="AB119" s="6"/>
       <c r="AC119" s="6"/>
-    </row>
-    <row r="120" customHeight="1" spans="1:29">
+      <c r="AD119" s="6"/>
+      <c r="AE119" s="6"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:31">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="31"/>
+      <c r="D120"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
+      <c r="H120" s="31"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
@@ -28700,16 +29130,18 @@
       <c r="AA120" s="6"/>
       <c r="AB120" s="6"/>
       <c r="AC120" s="6"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:29">
+      <c r="AD120" s="6"/>
+      <c r="AE120" s="6"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:31">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="31"/>
+      <c r="D121"/>
+      <c r="E121" s="2"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="H121" s="31"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -28731,16 +29163,18 @@
       <c r="AA121" s="6"/>
       <c r="AB121" s="6"/>
       <c r="AC121" s="6"/>
-    </row>
-    <row r="122" customHeight="1" spans="1:29">
+      <c r="AD121" s="6"/>
+      <c r="AE121" s="6"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:31">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="31"/>
+      <c r="D122"/>
+      <c r="E122" s="2"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
+      <c r="H122" s="31"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
@@ -28762,16 +29196,18 @@
       <c r="AA122" s="6"/>
       <c r="AB122" s="6"/>
       <c r="AC122" s="6"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:29">
+      <c r="AD122" s="6"/>
+      <c r="AE122" s="6"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:31">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="31"/>
+      <c r="D123"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
+      <c r="H123" s="31"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -28793,16 +29229,18 @@
       <c r="AA123" s="6"/>
       <c r="AB123" s="6"/>
       <c r="AC123" s="6"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:29">
+      <c r="AD123" s="6"/>
+      <c r="AE123" s="6"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:31">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="31"/>
+      <c r="D124"/>
+      <c r="E124" s="2"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
+      <c r="H124" s="31"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
@@ -28824,16 +29262,18 @@
       <c r="AA124" s="6"/>
       <c r="AB124" s="6"/>
       <c r="AC124" s="6"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:29">
+      <c r="AD124" s="6"/>
+      <c r="AE124" s="6"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:31">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="31"/>
+      <c r="D125"/>
+      <c r="E125" s="2"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="H125" s="31"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -28855,16 +29295,18 @@
       <c r="AA125" s="6"/>
       <c r="AB125" s="6"/>
       <c r="AC125" s="6"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:29">
+      <c r="AD125" s="6"/>
+      <c r="AE125" s="6"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:31">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="31"/>
+      <c r="D126"/>
+      <c r="E126" s="2"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
+      <c r="H126" s="31"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
@@ -28886,16 +29328,18 @@
       <c r="AA126" s="6"/>
       <c r="AB126" s="6"/>
       <c r="AC126" s="6"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:29">
+      <c r="AD126" s="6"/>
+      <c r="AE126" s="6"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:31">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="31"/>
+      <c r="D127"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
+      <c r="H127" s="31"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -28917,16 +29361,18 @@
       <c r="AA127" s="6"/>
       <c r="AB127" s="6"/>
       <c r="AC127" s="6"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:29">
+      <c r="AD127" s="6"/>
+      <c r="AE127" s="6"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:31">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="31"/>
+      <c r="D128"/>
+      <c r="E128" s="2"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
+      <c r="H128" s="31"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
@@ -28948,16 +29394,18 @@
       <c r="AA128" s="6"/>
       <c r="AB128" s="6"/>
       <c r="AC128" s="6"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:29">
+      <c r="AD128" s="6"/>
+      <c r="AE128" s="6"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:31">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="31"/>
+      <c r="D129"/>
+      <c r="E129" s="2"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="H129" s="31"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -28979,16 +29427,18 @@
       <c r="AA129" s="6"/>
       <c r="AB129" s="6"/>
       <c r="AC129" s="6"/>
-    </row>
-    <row r="130" customHeight="1" spans="1:29">
+      <c r="AD129" s="6"/>
+      <c r="AE129" s="6"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:31">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="31"/>
+      <c r="D130"/>
+      <c r="E130" s="2"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
+      <c r="H130" s="31"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
@@ -29010,16 +29460,18 @@
       <c r="AA130" s="6"/>
       <c r="AB130" s="6"/>
       <c r="AC130" s="6"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:29">
+      <c r="AD130" s="6"/>
+      <c r="AE130" s="6"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:31">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="31"/>
+      <c r="D131"/>
+      <c r="E131" s="2"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="H131" s="31"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -29041,16 +29493,18 @@
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
       <c r="AC131" s="6"/>
-    </row>
-    <row r="132" customHeight="1" spans="1:29">
+      <c r="AD131" s="6"/>
+      <c r="AE131" s="6"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:31">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="31"/>
+      <c r="D132"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
+      <c r="H132" s="31"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
@@ -29072,16 +29526,18 @@
       <c r="AA132" s="6"/>
       <c r="AB132" s="6"/>
       <c r="AC132" s="6"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:29">
+      <c r="AD132" s="6"/>
+      <c r="AE132" s="6"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:31">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="31"/>
+      <c r="D133"/>
+      <c r="E133" s="2"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
+      <c r="H133" s="31"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -29103,16 +29559,18 @@
       <c r="AA133" s="6"/>
       <c r="AB133" s="6"/>
       <c r="AC133" s="6"/>
-    </row>
-    <row r="134" customHeight="1" spans="1:29">
+      <c r="AD133" s="6"/>
+      <c r="AE133" s="6"/>
+    </row>
+    <row r="134" customHeight="1" spans="1:31">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="31"/>
+      <c r="D134"/>
+      <c r="E134" s="2"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
+      <c r="H134" s="31"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
@@ -29134,16 +29592,18 @@
       <c r="AA134" s="6"/>
       <c r="AB134" s="6"/>
       <c r="AC134" s="6"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:29">
+      <c r="AD134" s="6"/>
+      <c r="AE134" s="6"/>
+    </row>
+    <row r="135" customHeight="1" spans="1:31">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="31"/>
+      <c r="D135"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
+      <c r="H135" s="31"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -29165,16 +29625,18 @@
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
       <c r="AC135" s="6"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:29">
+      <c r="AD135" s="6"/>
+      <c r="AE135" s="6"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:31">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="31"/>
+      <c r="D136"/>
+      <c r="E136" s="2"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
+      <c r="H136" s="31"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
@@ -29196,16 +29658,18 @@
       <c r="AA136" s="6"/>
       <c r="AB136" s="6"/>
       <c r="AC136" s="6"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:29">
+      <c r="AD136" s="6"/>
+      <c r="AE136" s="6"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:31">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="31"/>
+      <c r="D137"/>
+      <c r="E137" s="2"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
+      <c r="H137" s="31"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -29227,16 +29691,18 @@
       <c r="AA137" s="6"/>
       <c r="AB137" s="6"/>
       <c r="AC137" s="6"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:29">
+      <c r="AD137" s="6"/>
+      <c r="AE137" s="6"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:31">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="31"/>
+      <c r="D138"/>
+      <c r="E138" s="2"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
+      <c r="H138" s="31"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
@@ -29258,16 +29724,18 @@
       <c r="AA138" s="6"/>
       <c r="AB138" s="6"/>
       <c r="AC138" s="6"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:29">
+      <c r="AD138" s="6"/>
+      <c r="AE138" s="6"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:31">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="31"/>
+      <c r="D139"/>
+      <c r="E139" s="2"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+      <c r="H139" s="31"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -29289,16 +29757,18 @@
       <c r="AA139" s="6"/>
       <c r="AB139" s="6"/>
       <c r="AC139" s="6"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:29">
+      <c r="AD139" s="6"/>
+      <c r="AE139" s="6"/>
+    </row>
+    <row r="140" customHeight="1" spans="1:31">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="31"/>
+      <c r="D140"/>
+      <c r="E140" s="2"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
+      <c r="H140" s="31"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
@@ -29320,16 +29790,18 @@
       <c r="AA140" s="6"/>
       <c r="AB140" s="6"/>
       <c r="AC140" s="6"/>
-    </row>
-    <row r="141" customHeight="1" spans="1:29">
+      <c r="AD140" s="6"/>
+      <c r="AE140" s="6"/>
+    </row>
+    <row r="141" customHeight="1" spans="1:31">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="31"/>
+      <c r="D141"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
+      <c r="H141" s="31"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -29351,16 +29823,18 @@
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
       <c r="AC141" s="6"/>
-    </row>
-    <row r="142" customHeight="1" spans="1:29">
+      <c r="AD141" s="6"/>
+      <c r="AE141" s="6"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:31">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="31"/>
+      <c r="D142"/>
+      <c r="E142" s="2"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
+      <c r="H142" s="31"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
@@ -29382,16 +29856,18 @@
       <c r="AA142" s="6"/>
       <c r="AB142" s="6"/>
       <c r="AC142" s="6"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:29">
+      <c r="AD142" s="6"/>
+      <c r="AE142" s="6"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:31">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="31"/>
+      <c r="D143"/>
+      <c r="E143" s="2"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
+      <c r="H143" s="31"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -29413,16 +29889,18 @@
       <c r="AA143" s="6"/>
       <c r="AB143" s="6"/>
       <c r="AC143" s="6"/>
-    </row>
-    <row r="144" customHeight="1" spans="1:29">
+      <c r="AD143" s="6"/>
+      <c r="AE143" s="6"/>
+    </row>
+    <row r="144" customHeight="1" spans="1:31">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="31"/>
+      <c r="D144"/>
+      <c r="E144" s="2"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
+      <c r="H144" s="31"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
@@ -29444,16 +29922,18 @@
       <c r="AA144" s="6"/>
       <c r="AB144" s="6"/>
       <c r="AC144" s="6"/>
-    </row>
-    <row r="145" customHeight="1" spans="1:29">
+      <c r="AD144" s="6"/>
+      <c r="AE144" s="6"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:31">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="31"/>
+      <c r="D145"/>
+      <c r="E145" s="2"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
+      <c r="H145" s="31"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -29475,16 +29955,18 @@
       <c r="AA145" s="6"/>
       <c r="AB145" s="6"/>
       <c r="AC145" s="6"/>
-    </row>
-    <row r="146" customHeight="1" spans="1:29">
+      <c r="AD145" s="6"/>
+      <c r="AE145" s="6"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:31">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="31"/>
+      <c r="D146"/>
+      <c r="E146" s="2"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
+      <c r="H146" s="31"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
@@ -29506,16 +29988,18 @@
       <c r="AA146" s="6"/>
       <c r="AB146" s="6"/>
       <c r="AC146" s="6"/>
-    </row>
-    <row r="147" customHeight="1" spans="1:29">
+      <c r="AD146" s="6"/>
+      <c r="AE146" s="6"/>
+    </row>
+    <row r="147" customHeight="1" spans="1:31">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="31"/>
+      <c r="D147"/>
+      <c r="E147" s="2"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
+      <c r="H147" s="31"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -29537,16 +30021,18 @@
       <c r="AA147" s="6"/>
       <c r="AB147" s="6"/>
       <c r="AC147" s="6"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:29">
+      <c r="AD147" s="6"/>
+      <c r="AE147" s="6"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:31">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="31"/>
+      <c r="D148"/>
+      <c r="E148" s="2"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
+      <c r="H148" s="31"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
@@ -29568,16 +30054,18 @@
       <c r="AA148" s="6"/>
       <c r="AB148" s="6"/>
       <c r="AC148" s="6"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:29">
+      <c r="AD148" s="6"/>
+      <c r="AE148" s="6"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:31">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="31"/>
+      <c r="D149"/>
+      <c r="E149" s="2"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
+      <c r="H149" s="31"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
@@ -29599,16 +30087,18 @@
       <c r="AA149" s="6"/>
       <c r="AB149" s="6"/>
       <c r="AC149" s="6"/>
-    </row>
-    <row r="150" customHeight="1" spans="1:29">
+      <c r="AD149" s="6"/>
+      <c r="AE149" s="6"/>
+    </row>
+    <row r="150" customHeight="1" spans="1:31">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="31"/>
+      <c r="D150"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
+      <c r="H150" s="31"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
@@ -29630,16 +30120,18 @@
       <c r="AA150" s="6"/>
       <c r="AB150" s="6"/>
       <c r="AC150" s="6"/>
-    </row>
-    <row r="151" customHeight="1" spans="1:29">
+      <c r="AD150" s="6"/>
+      <c r="AE150" s="6"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:31">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="31"/>
+      <c r="D151"/>
+      <c r="E151" s="2"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
+      <c r="H151" s="31"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
@@ -29661,16 +30153,18 @@
       <c r="AA151" s="6"/>
       <c r="AB151" s="6"/>
       <c r="AC151" s="6"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:29">
+      <c r="AD151" s="6"/>
+      <c r="AE151" s="6"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:31">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="31"/>
+      <c r="D152"/>
+      <c r="E152" s="2"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
+      <c r="H152" s="31"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
@@ -29692,16 +30186,18 @@
       <c r="AA152" s="6"/>
       <c r="AB152" s="6"/>
       <c r="AC152" s="6"/>
-    </row>
-    <row r="153" customHeight="1" spans="1:29">
+      <c r="AD152" s="6"/>
+      <c r="AE152" s="6"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:31">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="31"/>
+      <c r="D153"/>
+      <c r="E153" s="2"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
+      <c r="H153" s="31"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
@@ -29723,16 +30219,18 @@
       <c r="AA153" s="6"/>
       <c r="AB153" s="6"/>
       <c r="AC153" s="6"/>
-    </row>
-    <row r="154" customHeight="1" spans="1:29">
+      <c r="AD153" s="6"/>
+      <c r="AE153" s="6"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:31">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="31"/>
+      <c r="D154"/>
+      <c r="E154" s="2"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
+      <c r="H154" s="31"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
@@ -29754,16 +30252,18 @@
       <c r="AA154" s="6"/>
       <c r="AB154" s="6"/>
       <c r="AC154" s="6"/>
-    </row>
-    <row r="155" customHeight="1" spans="1:29">
+      <c r="AD154" s="6"/>
+      <c r="AE154" s="6"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:31">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="31"/>
+      <c r="D155"/>
+      <c r="E155" s="2"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
+      <c r="H155" s="31"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
@@ -29785,16 +30285,18 @@
       <c r="AA155" s="6"/>
       <c r="AB155" s="6"/>
       <c r="AC155" s="6"/>
-    </row>
-    <row r="156" customHeight="1" spans="1:29">
+      <c r="AD155" s="6"/>
+      <c r="AE155" s="6"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:31">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="31"/>
+      <c r="D156"/>
+      <c r="E156" s="2"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
+      <c r="H156" s="31"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
@@ -29816,16 +30318,18 @@
       <c r="AA156" s="6"/>
       <c r="AB156" s="6"/>
       <c r="AC156" s="6"/>
-    </row>
-    <row r="157" customHeight="1" spans="1:29">
+      <c r="AD156" s="6"/>
+      <c r="AE156" s="6"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:31">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="31"/>
+      <c r="D157"/>
+      <c r="E157" s="2"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
+      <c r="H157" s="31"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
@@ -29847,16 +30351,18 @@
       <c r="AA157" s="6"/>
       <c r="AB157" s="6"/>
       <c r="AC157" s="6"/>
-    </row>
-    <row r="158" customHeight="1" spans="1:29">
+      <c r="AD157" s="6"/>
+      <c r="AE157" s="6"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:31">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="31"/>
+      <c r="D158"/>
+      <c r="E158" s="2"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
+      <c r="H158" s="31"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
@@ -29878,16 +30384,18 @@
       <c r="AA158" s="6"/>
       <c r="AB158" s="6"/>
       <c r="AC158" s="6"/>
-    </row>
-    <row r="159" customHeight="1" spans="1:29">
+      <c r="AD158" s="6"/>
+      <c r="AE158" s="6"/>
+    </row>
+    <row r="159" customHeight="1" spans="1:31">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="31"/>
+      <c r="D159"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
+      <c r="H159" s="31"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
@@ -29909,16 +30417,18 @@
       <c r="AA159" s="6"/>
       <c r="AB159" s="6"/>
       <c r="AC159" s="6"/>
-    </row>
-    <row r="160" customHeight="1" spans="1:29">
+      <c r="AD159" s="6"/>
+      <c r="AE159" s="6"/>
+    </row>
+    <row r="160" customHeight="1" spans="1:31">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="31"/>
+      <c r="D160"/>
+      <c r="E160" s="2"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
+      <c r="H160" s="31"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
@@ -29940,16 +30450,18 @@
       <c r="AA160" s="6"/>
       <c r="AB160" s="6"/>
       <c r="AC160" s="6"/>
-    </row>
-    <row r="161" customHeight="1" spans="1:29">
+      <c r="AD160" s="6"/>
+      <c r="AE160" s="6"/>
+    </row>
+    <row r="161" customHeight="1" spans="1:31">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="31"/>
+      <c r="D161"/>
+      <c r="E161" s="2"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
+      <c r="H161" s="31"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -29971,16 +30483,18 @@
       <c r="AA161" s="6"/>
       <c r="AB161" s="6"/>
       <c r="AC161" s="6"/>
-    </row>
-    <row r="162" customHeight="1" spans="1:29">
+      <c r="AD161" s="6"/>
+      <c r="AE161" s="6"/>
+    </row>
+    <row r="162" customHeight="1" spans="1:31">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="31"/>
+      <c r="D162"/>
+      <c r="E162" s="2"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
+      <c r="H162" s="31"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
@@ -30002,16 +30516,18 @@
       <c r="AA162" s="6"/>
       <c r="AB162" s="6"/>
       <c r="AC162" s="6"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:29">
+      <c r="AD162" s="6"/>
+      <c r="AE162" s="6"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:31">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="31"/>
+      <c r="D163"/>
+      <c r="E163" s="2"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
+      <c r="H163" s="31"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
@@ -30033,16 +30549,18 @@
       <c r="AA163" s="6"/>
       <c r="AB163" s="6"/>
       <c r="AC163" s="6"/>
-    </row>
-    <row r="164" customHeight="1" spans="1:29">
+      <c r="AD163" s="6"/>
+      <c r="AE163" s="6"/>
+    </row>
+    <row r="164" customHeight="1" spans="1:31">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="31"/>
+      <c r="D164"/>
+      <c r="E164" s="2"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
+      <c r="H164" s="31"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
@@ -30064,16 +30582,18 @@
       <c r="AA164" s="6"/>
       <c r="AB164" s="6"/>
       <c r="AC164" s="6"/>
-    </row>
-    <row r="165" customHeight="1" spans="1:29">
+      <c r="AD164" s="6"/>
+      <c r="AE164" s="6"/>
+    </row>
+    <row r="165" customHeight="1" spans="1:31">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="31"/>
+      <c r="D165"/>
+      <c r="E165" s="2"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
+      <c r="H165" s="31"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
@@ -30095,16 +30615,18 @@
       <c r="AA165" s="6"/>
       <c r="AB165" s="6"/>
       <c r="AC165" s="6"/>
-    </row>
-    <row r="166" customHeight="1" spans="1:29">
+      <c r="AD165" s="6"/>
+      <c r="AE165" s="6"/>
+    </row>
+    <row r="166" customHeight="1" spans="1:31">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="31"/>
+      <c r="D166"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
+      <c r="H166" s="31"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
@@ -30126,16 +30648,18 @@
       <c r="AA166" s="6"/>
       <c r="AB166" s="6"/>
       <c r="AC166" s="6"/>
-    </row>
-    <row r="167" customHeight="1" spans="1:29">
+      <c r="AD166" s="6"/>
+      <c r="AE166" s="6"/>
+    </row>
+    <row r="167" customHeight="1" spans="1:31">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="31"/>
+      <c r="D167"/>
+      <c r="E167" s="2"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
+      <c r="H167" s="31"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
@@ -30157,16 +30681,18 @@
       <c r="AA167" s="6"/>
       <c r="AB167" s="6"/>
       <c r="AC167" s="6"/>
-    </row>
-    <row r="168" customHeight="1" spans="1:29">
+      <c r="AD167" s="6"/>
+      <c r="AE167" s="6"/>
+    </row>
+    <row r="168" customHeight="1" spans="1:31">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="31"/>
+      <c r="D168"/>
+      <c r="E168" s="2"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
+      <c r="H168" s="31"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
@@ -30188,16 +30714,18 @@
       <c r="AA168" s="6"/>
       <c r="AB168" s="6"/>
       <c r="AC168" s="6"/>
-    </row>
-    <row r="169" customHeight="1" spans="1:29">
+      <c r="AD168" s="6"/>
+      <c r="AE168" s="6"/>
+    </row>
+    <row r="169" customHeight="1" spans="1:31">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="31"/>
+      <c r="D169"/>
+      <c r="E169" s="2"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
+      <c r="H169" s="31"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
@@ -30219,16 +30747,18 @@
       <c r="AA169" s="6"/>
       <c r="AB169" s="6"/>
       <c r="AC169" s="6"/>
-    </row>
-    <row r="170" customHeight="1" spans="1:29">
+      <c r="AD169" s="6"/>
+      <c r="AE169" s="6"/>
+    </row>
+    <row r="170" customHeight="1" spans="1:31">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="31"/>
+      <c r="D170"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
+      <c r="H170" s="31"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
@@ -30250,16 +30780,18 @@
       <c r="AA170" s="6"/>
       <c r="AB170" s="6"/>
       <c r="AC170" s="6"/>
-    </row>
-    <row r="171" customHeight="1" spans="1:29">
+      <c r="AD170" s="6"/>
+      <c r="AE170" s="6"/>
+    </row>
+    <row r="171" customHeight="1" spans="1:31">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="31"/>
+      <c r="D171"/>
+      <c r="E171" s="2"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
+      <c r="H171" s="31"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
@@ -30281,16 +30813,18 @@
       <c r="AA171" s="6"/>
       <c r="AB171" s="6"/>
       <c r="AC171" s="6"/>
-    </row>
-    <row r="172" customHeight="1" spans="1:29">
+      <c r="AD171" s="6"/>
+      <c r="AE171" s="6"/>
+    </row>
+    <row r="172" customHeight="1" spans="1:31">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="31"/>
+      <c r="D172"/>
+      <c r="E172" s="2"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
+      <c r="H172" s="31"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
@@ -30312,16 +30846,18 @@
       <c r="AA172" s="6"/>
       <c r="AB172" s="6"/>
       <c r="AC172" s="6"/>
-    </row>
-    <row r="173" customHeight="1" spans="1:29">
+      <c r="AD172" s="6"/>
+      <c r="AE172" s="6"/>
+    </row>
+    <row r="173" customHeight="1" spans="1:31">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="31"/>
+      <c r="D173"/>
+      <c r="E173" s="2"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
+      <c r="H173" s="31"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
@@ -30343,16 +30879,18 @@
       <c r="AA173" s="6"/>
       <c r="AB173" s="6"/>
       <c r="AC173" s="6"/>
-    </row>
-    <row r="174" customHeight="1" spans="1:29">
+      <c r="AD173" s="6"/>
+      <c r="AE173" s="6"/>
+    </row>
+    <row r="174" customHeight="1" spans="1:31">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="31"/>
+      <c r="D174"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
+      <c r="H174" s="31"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
@@ -30374,16 +30912,18 @@
       <c r="AA174" s="6"/>
       <c r="AB174" s="6"/>
       <c r="AC174" s="6"/>
-    </row>
-    <row r="175" customHeight="1" spans="1:29">
+      <c r="AD174" s="6"/>
+      <c r="AE174" s="6"/>
+    </row>
+    <row r="175" customHeight="1" spans="1:31">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="31"/>
+      <c r="D175"/>
+      <c r="E175" s="2"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
+      <c r="H175" s="31"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
@@ -30405,16 +30945,18 @@
       <c r="AA175" s="6"/>
       <c r="AB175" s="6"/>
       <c r="AC175" s="6"/>
-    </row>
-    <row r="176" customHeight="1" spans="1:29">
+      <c r="AD175" s="6"/>
+      <c r="AE175" s="6"/>
+    </row>
+    <row r="176" customHeight="1" spans="1:31">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="31"/>
+      <c r="D176"/>
+      <c r="E176" s="2"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
+      <c r="H176" s="31"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
@@ -30436,16 +30978,18 @@
       <c r="AA176" s="6"/>
       <c r="AB176" s="6"/>
       <c r="AC176" s="6"/>
-    </row>
-    <row r="177" customHeight="1" spans="1:29">
+      <c r="AD176" s="6"/>
+      <c r="AE176" s="6"/>
+    </row>
+    <row r="177" customHeight="1" spans="1:31">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="31"/>
+      <c r="D177"/>
+      <c r="E177" s="2"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
+      <c r="H177" s="31"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
@@ -30467,16 +31011,18 @@
       <c r="AA177" s="6"/>
       <c r="AB177" s="6"/>
       <c r="AC177" s="6"/>
-    </row>
-    <row r="178" customHeight="1" spans="1:29">
+      <c r="AD177" s="6"/>
+      <c r="AE177" s="6"/>
+    </row>
+    <row r="178" customHeight="1" spans="1:31">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="31"/>
+      <c r="D178"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
+      <c r="H178" s="31"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
@@ -30498,16 +31044,18 @@
       <c r="AA178" s="6"/>
       <c r="AB178" s="6"/>
       <c r="AC178" s="6"/>
-    </row>
-    <row r="179" customHeight="1" spans="1:29">
+      <c r="AD178" s="6"/>
+      <c r="AE178" s="6"/>
+    </row>
+    <row r="179" customHeight="1" spans="1:31">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="31"/>
+      <c r="D179"/>
+      <c r="E179" s="2"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
+      <c r="H179" s="31"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
@@ -30529,16 +31077,18 @@
       <c r="AA179" s="6"/>
       <c r="AB179" s="6"/>
       <c r="AC179" s="6"/>
-    </row>
-    <row r="180" customHeight="1" spans="1:29">
+      <c r="AD179" s="6"/>
+      <c r="AE179" s="6"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:31">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="31"/>
+      <c r="D180"/>
+      <c r="E180" s="2"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
+      <c r="H180" s="31"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
@@ -30560,16 +31110,18 @@
       <c r="AA180" s="6"/>
       <c r="AB180" s="6"/>
       <c r="AC180" s="6"/>
-    </row>
-    <row r="181" customHeight="1" spans="1:29">
+      <c r="AD180" s="6"/>
+      <c r="AE180" s="6"/>
+    </row>
+    <row r="181" customHeight="1" spans="1:31">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="31"/>
+      <c r="D181"/>
+      <c r="E181" s="2"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
+      <c r="H181" s="31"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
@@ -30591,16 +31143,18 @@
       <c r="AA181" s="6"/>
       <c r="AB181" s="6"/>
       <c r="AC181" s="6"/>
-    </row>
-    <row r="182" customHeight="1" spans="1:29">
+      <c r="AD181" s="6"/>
+      <c r="AE181" s="6"/>
+    </row>
+    <row r="182" customHeight="1" spans="1:31">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="31"/>
+      <c r="D182"/>
+      <c r="E182" s="2"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
+      <c r="H182" s="31"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
@@ -30622,16 +31176,18 @@
       <c r="AA182" s="6"/>
       <c r="AB182" s="6"/>
       <c r="AC182" s="6"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:29">
+      <c r="AD182" s="6"/>
+      <c r="AE182" s="6"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:31">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="31"/>
+      <c r="D183"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
+      <c r="H183" s="31"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
@@ -30653,16 +31209,18 @@
       <c r="AA183" s="6"/>
       <c r="AB183" s="6"/>
       <c r="AC183" s="6"/>
-    </row>
-    <row r="184" customHeight="1" spans="1:29">
+      <c r="AD183" s="6"/>
+      <c r="AE183" s="6"/>
+    </row>
+    <row r="184" customHeight="1" spans="1:31">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="31"/>
+      <c r="D184"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
+      <c r="H184" s="31"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
@@ -30684,16 +31242,18 @@
       <c r="AA184" s="6"/>
       <c r="AB184" s="6"/>
       <c r="AC184" s="6"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:29">
+      <c r="AD184" s="6"/>
+      <c r="AE184" s="6"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:31">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="31"/>
+      <c r="D185"/>
+      <c r="E185" s="2"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
+      <c r="H185" s="31"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
@@ -30715,16 +31275,18 @@
       <c r="AA185" s="6"/>
       <c r="AB185" s="6"/>
       <c r="AC185" s="6"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:29">
+      <c r="AD185" s="6"/>
+      <c r="AE185" s="6"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:31">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="31"/>
+      <c r="D186"/>
+      <c r="E186" s="2"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
+      <c r="H186" s="31"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
@@ -30746,16 +31308,18 @@
       <c r="AA186" s="6"/>
       <c r="AB186" s="6"/>
       <c r="AC186" s="6"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:29">
+      <c r="AD186" s="6"/>
+      <c r="AE186" s="6"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:31">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="31"/>
+      <c r="D187"/>
+      <c r="E187" s="2"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
+      <c r="H187" s="31"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
@@ -30777,16 +31341,18 @@
       <c r="AA187" s="6"/>
       <c r="AB187" s="6"/>
       <c r="AC187" s="6"/>
-    </row>
-    <row r="188" customHeight="1" spans="1:29">
+      <c r="AD187" s="6"/>
+      <c r="AE187" s="6"/>
+    </row>
+    <row r="188" customHeight="1" spans="1:31">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="31"/>
+      <c r="D188"/>
+      <c r="E188" s="2"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
+      <c r="H188" s="31"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
@@ -30808,16 +31374,18 @@
       <c r="AA188" s="6"/>
       <c r="AB188" s="6"/>
       <c r="AC188" s="6"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:29">
+      <c r="AD188" s="6"/>
+      <c r="AE188" s="6"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:31">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="31"/>
+      <c r="D189"/>
+      <c r="E189" s="2"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
+      <c r="H189" s="31"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
@@ -30839,16 +31407,18 @@
       <c r="AA189" s="6"/>
       <c r="AB189" s="6"/>
       <c r="AC189" s="6"/>
-    </row>
-    <row r="190" customHeight="1" spans="1:29">
+      <c r="AD189" s="6"/>
+      <c r="AE189" s="6"/>
+    </row>
+    <row r="190" customHeight="1" spans="1:31">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="31"/>
+      <c r="D190"/>
+      <c r="E190" s="2"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
+      <c r="H190" s="31"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
@@ -30870,16 +31440,18 @@
       <c r="AA190" s="6"/>
       <c r="AB190" s="6"/>
       <c r="AC190" s="6"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:29">
+      <c r="AD190" s="6"/>
+      <c r="AE190" s="6"/>
+    </row>
+    <row r="191" customHeight="1" spans="1:31">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="31"/>
+      <c r="D191"/>
+      <c r="E191" s="2"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
+      <c r="H191" s="31"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
@@ -30901,16 +31473,18 @@
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
       <c r="AC191" s="6"/>
-    </row>
-    <row r="192" customHeight="1" spans="1:29">
+      <c r="AD191" s="6"/>
+      <c r="AE191" s="6"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:31">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="31"/>
+      <c r="D192"/>
+      <c r="E192" s="2"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
+      <c r="H192" s="31"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
@@ -30932,16 +31506,18 @@
       <c r="AA192" s="6"/>
       <c r="AB192" s="6"/>
       <c r="AC192" s="6"/>
-    </row>
-    <row r="193" customHeight="1" spans="1:29">
+      <c r="AD192" s="6"/>
+      <c r="AE192" s="6"/>
+    </row>
+    <row r="193" customHeight="1" spans="1:31">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="31"/>
+      <c r="D193"/>
+      <c r="E193" s="2"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
+      <c r="H193" s="31"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
@@ -30963,16 +31539,18 @@
       <c r="AA193" s="6"/>
       <c r="AB193" s="6"/>
       <c r="AC193" s="6"/>
-    </row>
-    <row r="194" customHeight="1" spans="1:29">
+      <c r="AD193" s="6"/>
+      <c r="AE193" s="6"/>
+    </row>
+    <row r="194" customHeight="1" spans="1:31">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="31"/>
+      <c r="D194"/>
+      <c r="E194" s="2"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
+      <c r="H194" s="31"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
@@ -30994,16 +31572,18 @@
       <c r="AA194" s="6"/>
       <c r="AB194" s="6"/>
       <c r="AC194" s="6"/>
-    </row>
-    <row r="195" customHeight="1" spans="1:29">
+      <c r="AD194" s="6"/>
+      <c r="AE194" s="6"/>
+    </row>
+    <row r="195" customHeight="1" spans="1:31">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="31"/>
+      <c r="D195"/>
+      <c r="E195" s="2"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
+      <c r="H195" s="31"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
@@ -31025,16 +31605,18 @@
       <c r="AA195" s="6"/>
       <c r="AB195" s="6"/>
       <c r="AC195" s="6"/>
-    </row>
-    <row r="196" customHeight="1" spans="1:29">
+      <c r="AD195" s="6"/>
+      <c r="AE195" s="6"/>
+    </row>
+    <row r="196" customHeight="1" spans="1:31">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="31"/>
+      <c r="D196"/>
+      <c r="E196" s="2"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
+      <c r="H196" s="31"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
@@ -31056,16 +31638,18 @@
       <c r="AA196" s="6"/>
       <c r="AB196" s="6"/>
       <c r="AC196" s="6"/>
-    </row>
-    <row r="197" customHeight="1" spans="1:29">
+      <c r="AD196" s="6"/>
+      <c r="AE196" s="6"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:31">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="31"/>
+      <c r="D197"/>
+      <c r="E197" s="2"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
+      <c r="H197" s="31"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
@@ -31087,16 +31671,18 @@
       <c r="AA197" s="6"/>
       <c r="AB197" s="6"/>
       <c r="AC197" s="6"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:29">
+      <c r="AD197" s="6"/>
+      <c r="AE197" s="6"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:31">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="31"/>
+      <c r="D198"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
+      <c r="H198" s="31"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
@@ -31118,16 +31704,18 @@
       <c r="AA198" s="6"/>
       <c r="AB198" s="6"/>
       <c r="AC198" s="6"/>
-    </row>
-    <row r="199" customHeight="1" spans="1:29">
+      <c r="AD198" s="6"/>
+      <c r="AE198" s="6"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:31">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="31"/>
+      <c r="D199"/>
+      <c r="E199" s="2"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
+      <c r="H199" s="31"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
@@ -31149,16 +31737,18 @@
       <c r="AA199" s="6"/>
       <c r="AB199" s="6"/>
       <c r="AC199" s="6"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:29">
+      <c r="AD199" s="6"/>
+      <c r="AE199" s="6"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:31">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="31"/>
+      <c r="D200"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
+      <c r="H200" s="31"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
       <c r="K200" s="6"/>
@@ -31180,16 +31770,18 @@
       <c r="AA200" s="6"/>
       <c r="AB200" s="6"/>
       <c r="AC200" s="6"/>
-    </row>
-    <row r="201" customHeight="1" spans="1:29">
+      <c r="AD200" s="6"/>
+      <c r="AE200" s="6"/>
+    </row>
+    <row r="201" customHeight="1" spans="1:31">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="31"/>
+      <c r="D201"/>
+      <c r="E201" s="2"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
+      <c r="H201" s="31"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
       <c r="K201" s="6"/>
@@ -31211,6 +31803,8 @@
       <c r="AA201" s="6"/>
       <c r="AB201" s="6"/>
       <c r="AC201" s="6"/>
+      <c r="AD201" s="6"/>
+      <c r="AE201" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31280,16 +31874,16 @@
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -31316,16 +31910,16 @@
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -31352,16 +31946,16 @@
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -31388,16 +31982,16 @@
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -31424,16 +32018,16 @@
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -31460,16 +32054,16 @@
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -31496,16 +32090,16 @@
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -31532,16 +32126,16 @@
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -31568,16 +32162,16 @@
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -31604,16 +32198,16 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -31640,16 +32234,16 @@
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -31676,16 +32270,16 @@
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -31712,16 +32306,16 @@
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -31748,16 +32342,16 @@
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -31784,16 +32378,16 @@
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -31820,16 +32414,16 @@
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -31856,16 +32450,16 @@
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -31892,16 +32486,16 @@
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -31928,16 +32522,16 @@
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -31964,16 +32558,16 @@
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -32000,16 +32594,16 @@
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -32036,16 +32630,16 @@
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -32072,16 +32666,16 @@
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -32108,16 +32702,16 @@
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -32144,16 +32738,16 @@
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -32180,16 +32774,16 @@
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -32216,16 +32810,16 @@
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -32252,16 +32846,16 @@
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -32288,16 +32882,16 @@
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -32324,16 +32918,16 @@
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -32360,16 +32954,16 @@
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -32396,16 +32990,16 @@
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -32432,16 +33026,16 @@
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -32468,16 +33062,16 @@
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -32504,16 +33098,16 @@
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -32540,16 +33134,16 @@
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -32576,16 +33170,16 @@
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -32612,16 +33206,16 @@
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -32648,16 +33242,16 @@
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -32684,16 +33278,16 @@
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -32720,16 +33314,16 @@
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -32756,16 +33350,16 @@
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -32792,16 +33386,16 @@
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -32828,16 +33422,16 @@
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -32864,16 +33458,16 @@
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -32900,16 +33494,16 @@
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -32936,16 +33530,16 @@
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -32972,16 +33566,16 @@
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -33008,16 +33602,16 @@
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -33044,16 +33638,16 @@
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -33080,16 +33674,16 @@
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -33116,16 +33710,16 @@
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -33152,16 +33746,16 @@
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -33188,16 +33782,16 @@
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -33224,16 +33818,16 @@
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -33260,16 +33854,16 @@
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -33296,16 +33890,16 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -33332,16 +33926,16 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -33368,16 +33962,16 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -33404,16 +33998,16 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -33440,16 +34034,16 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -33476,16 +34070,16 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -33512,16 +34106,16 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -33548,16 +34142,16 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -33584,16 +34178,16 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -33620,16 +34214,16 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -33656,16 +34250,16 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -33692,16 +34286,16 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -33728,16 +34322,16 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -33764,16 +34358,16 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -33800,16 +34394,16 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -33836,16 +34430,16 @@
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -33872,16 +34466,16 @@
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -33908,16 +34502,16 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -33944,16 +34538,16 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -33980,16 +34574,16 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -34016,16 +34610,16 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -34052,16 +34646,16 @@
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -34088,16 +34682,16 @@
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -34124,16 +34718,16 @@
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -34160,16 +34754,16 @@
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -34196,16 +34790,16 @@
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -34232,16 +34826,16 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -34268,16 +34862,16 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -34304,16 +34898,16 @@
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -34340,16 +34934,16 @@
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -34376,16 +34970,16 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -34412,16 +35006,16 @@
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -34448,16 +35042,16 @@
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -34484,16 +35078,16 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -34520,16 +35114,16 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -34556,16 +35150,16 @@
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -34592,16 +35186,16 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -34628,16 +35222,16 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -34664,16 +35258,16 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -34700,16 +35294,16 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -34736,16 +35330,16 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -34772,16 +35366,16 @@
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -34808,16 +35402,16 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -34844,16 +35438,16 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -34880,16 +35474,16 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -34916,16 +35510,16 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -34952,16 +35546,16 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="21" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -34988,16 +35582,16 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="21" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -35024,16 +35618,16 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="21" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -35060,16 +35654,16 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -35096,16 +35690,16 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -35132,16 +35726,16 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -35168,16 +35762,16 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -35204,16 +35798,16 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -35609,8 +36203,8 @@
   </sheetPr>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2"/>
@@ -35638,28 +36232,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -35686,22 +36280,22 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="D2" s="8">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="6"/>
@@ -35731,22 +36325,22 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8">
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="6"/>
@@ -35776,22 +36370,22 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F4" s="8">
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>575</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="6"/>
@@ -35821,22 +36415,22 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F5" s="8">
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="6"/>
@@ -35866,22 +36460,22 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="D6" s="8">
         <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="6"/>
@@ -35911,22 +36505,22 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F7" s="8">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="6"/>
@@ -35956,22 +36550,22 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8">
         <v>4</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>575</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="6"/>
@@ -36001,22 +36595,22 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F9" s="8">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="6"/>
@@ -36046,22 +36640,22 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="6"/>
@@ -36091,22 +36685,22 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F11" s="15">
         <v>2</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="6"/>
@@ -36136,22 +36730,22 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8" t="s">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F12" s="15">
         <v>3</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>584</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>582</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="6"/>
@@ -36181,22 +36775,22 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8" t="s">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="6"/>
@@ -36226,22 +36820,22 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="6"/>
@@ -36271,22 +36865,22 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F15" s="15">
         <v>2</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="6"/>
@@ -36316,22 +36910,22 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F16" s="15">
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="6"/>
@@ -36361,22 +36955,22 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F17" s="15">
         <v>4</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="6"/>

--- a/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
+++ b/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16160" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
     <sheet name="评估因素取值" sheetId="1" r:id="rId2"/>
     <sheet name="ER" sheetId="2" r:id="rId3"/>
-    <sheet name="IR" sheetId="15" r:id="rId4"/>
+    <sheet name="HIRB" sheetId="15" r:id="rId4"/>
     <sheet name="WEIGHT_STATUS" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="594">
   <si>
     <t>f_result</t>
   </si>
@@ -5471,148 +5471,15 @@
     <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（60-72月龄）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(60月≤年龄＜63月 and 16.7≤BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (63月≤年龄＜66月 and 16.7≤BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (66月≤年龄＜69月 and 16.8≤BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (69月≤年龄≤72月 and 16.9≤BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (60月≤年龄＜63月 and 16.4≤BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (63月≤年龄＜66月 and 16.4≤BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (66月≤年龄＜69月 and 16.5≤BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (69月≤年龄≤72月 and 16.5≤BMI and 性别=女)</t>
-    </r>
+    <t>(60月≤年龄＜63月 and 16.7≤BMI and 性别=男)
+or (63月≤年龄＜66月 and 16.7≤BMI and 性别=男)
+or (66月≤年龄＜69月 and 16.8≤BMI and 性别=男)
+or (69月≤年龄≤72月 and 16.9≤BMI and 性别=男)
+or (60月≤年龄＜63月 and 16.4≤BMI and 性别=女)
+or (63月≤年龄＜66月 and 16.4≤BMI and 性别=女)
+or (66月≤年龄＜69月 and 16.5≤BMI and 性别=女)
+or (69月≤年龄&lt;72月 and 16.5≤BMI and 性别=女)
+or (年龄=72月 and 16.5&lt;=BMI and 性别=女)</t>
   </si>
   <si>
     <r>
@@ -5768,148 +5635,16 @@
     <t>按照儿童性别和年龄段判断儿童体重正常（60-72月龄）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(60月≤年龄＜63月 and 13.2≤BMI＜16.7 and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (63月≤年龄＜66月 and 13.1≤BMI＜16.7 and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (66月≤年龄＜69月 and 13.1≤BMI＜16.8 and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (69月≤年龄≤72月 and 13.1≤BMI＜16.9 and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (60月≤年龄＜63月 and 12.9≤BMI＜16.4 and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (63月≤年龄＜66月 and 12.8≤BMI＜16.4 and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (66月≤年龄＜69月 and 12.8≤BMI＜16.5 and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (69月≤年龄≤72月 and 12.8≤BMI＜16.5 and 性别=女)</t>
-    </r>
+    <t>(60月≤年龄＜63月 and 13.2≤BMI＜16.7 and 性别=男)
+or (63月≤年龄＜66月 and 13.1≤BMI＜16.7 and 性别=男)
+or (66月≤年龄＜69月 and 13.1≤BMI＜16.8 and 性别=男)
+or (69月≤年龄&lt;72月 and 13.1≤BMI＜16.9 and 性别=男)
+or (年龄=72月 and 13.1&lt;=BMI&lt;16.9 and 性别=男)
+or (60月≤年龄＜63月 and 12.9≤BMI＜16.4 and 性别=女)
+or (63月≤年龄＜66月 and 12.8≤BMI＜16.4 and 性别=女)
+or (66月≤年龄＜69月 and 12.8≤BMI＜16.5 and 性别=女)
+or (69月≤年龄&lt;72月 and 12.8≤BMI＜16.5 and 性别=女)
+or (年龄=72月 and 12.8&lt;=BMI&lt;16.5 and 性别=女)</t>
   </si>
   <si>
     <r>
@@ -6065,148 +5800,16 @@
     <t>按照儿童性别和年龄段判断儿童体重偏低（60-72月龄）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(60月≤年龄＜63月 and 13.2＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (63月≤年龄＜66月 and 13.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (66月≤年龄＜69月 and 13.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (69月≤年龄≤72月 and 13.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (60月≤年龄＜63月 and 12.9＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (63月≤年龄＜66月 and 12.8＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (66月≤年龄＜69月 and 12.8＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (69月≤年龄≤72月 and 12.8＞BMI and 性别=女)</t>
-    </r>
+    <t>(60月≤年龄＜63月 and 13.2＞BMI and 性别=男)
+or (63月≤年龄＜66月 and 13.1＞BMI and 性别=男)
+or (66月≤年龄＜69月 and 13.1＞BMI and 性别=男)
+or (69月≤年龄&lt;72月 and 13.1＞BMI and 性别=男)
+or (年龄=72月 and 13.1&gt;BMI and 性别=男)
+or (60月≤年龄＜63月 and 12.9＞BMI and 性别=女)
+or (63月≤年龄＜66月 and 12.8＞BMI and 性别=女)
+or (66月≤年龄＜69月 and 12.8＞BMI and 性别=女)
+or (69月≤年龄&lt;72月 and 12.8＞BMI and 性别=女)
+or (年龄=72月 and 12.8&gt;BMI and 性别=女)</t>
   </si>
   <si>
     <r>
@@ -7847,148 +7450,14 @@
     <t>按照儿童性别和年龄段判断儿童体重偏低（36-48月龄）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(36月≤年龄＜39月 and 13.6＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (39月≤年龄＜42月 and 13.5＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (42月≤年龄＜45月 and 13.4＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (45月≤年龄＜48月 and 13.4＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (36月≤年龄＜39月 and 13.3＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (39月≤年龄＜42月 and 13.2＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (42月≤年龄＜45月 and 13.2＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (45月≤年龄＜48月 and 13.1＞BMI and 性别=女)</t>
-    </r>
+    <t>(36月≤年龄＜39月 and 13.6＞BMI and 性别=男)
+or (39月≤年龄＜42月 and 13.5＞BMI and 性别=男)
+or (42月≤年龄＜45月 and 13.4＞BMI and 性别=男)
+or (45月≤年龄＜48月 and 13.4＞BMI and 性别=男)
+or (36月≤年龄＜39月 and 13.3＞BMI and 性别=女)
+or (39月≤年龄＜42月 and 13.2＞BMI and 性别=女)
+or (42月≤年龄＜45月 and 13.2＞BMI and 性别=女)
+or (45月≤年龄＜48月 and 13.1＞BMI and 性别=女)</t>
   </si>
   <si>
     <r>
@@ -13264,7 +12733,7 @@
     <t>年龄≤3</t>
   </si>
   <si>
-    <t>年龄&lt;= 3</t>
+    <t>年龄&lt;=3</t>
   </si>
   <si>
     <t>TZ_AGE001</t>
@@ -13273,34 +12742,40 @@
     <t>4-10岁</t>
   </si>
   <si>
-    <t>年龄≥4 and ≤10</t>
-  </si>
-  <si>
-    <t>年龄&gt;=4 and 年龄&lt;=10</t>
+    <t>年龄≥4 and &lt;10</t>
+  </si>
+  <si>
+    <t>年龄&gt;=4 and 年龄&lt;10</t>
   </si>
   <si>
     <t>TZ_AGE002</t>
   </si>
   <si>
+    <t>年龄=10</t>
+  </si>
+  <si>
     <t>11-17岁</t>
   </si>
   <si>
-    <t>年龄≥11 and ≤17</t>
-  </si>
-  <si>
-    <t>年龄&gt;=11 and 年龄&lt;=17</t>
+    <t>年龄≥11 and &lt;17</t>
+  </si>
+  <si>
+    <t>年龄&gt;=11 and 年龄&lt;17</t>
   </si>
   <si>
     <t>TZ_AGE003</t>
   </si>
   <si>
+    <t>年龄=17</t>
+  </si>
+  <si>
     <t>饮食</t>
   </si>
   <si>
     <t>TZ_YS001</t>
   </si>
   <si>
-    <t>TZ_RQFL001='是' and TZ_STZB001='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_RQFL001='是' and TZ_STZB001='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>成人体重超重或肥胖='是'</t>
@@ -13309,7 +12784,7 @@
     <t>TZ_YS002</t>
   </si>
   <si>
-    <t>TZ_RQFL001='是' and TZ_STZB002='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_RQFL001='是' and TZ_STZB002='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>成人体重正常='是'</t>
@@ -13318,7 +12793,7 @@
     <t>TZ_YS003</t>
   </si>
   <si>
-    <t>TZ_RQFL001='是' and TZ_STZB003='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_RQFL001='是' and TZ_STZB003='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>成人体重偏低='是'</t>
@@ -13327,7 +12802,7 @@
     <t>TZ_YS004</t>
   </si>
   <si>
-    <t>TZ_STZB004='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB004='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>高龄老年人体重超重或肥胖='是'</t>
@@ -13336,7 +12811,7 @@
     <t>TZ_YS005</t>
   </si>
   <si>
-    <t>TZ_STZB005='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB005='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>高龄老年人成人体重正常='是'</t>
@@ -13345,7 +12820,7 @@
     <t>TZ_YS006</t>
   </si>
   <si>
-    <t>TZ_STZB006='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB006='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>高龄老年人成人体重偏低='是'</t>
@@ -13354,7 +12829,7 @@
     <t>TZ_YS007</t>
   </si>
   <si>
-    <t>TZ_STZB007='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB007='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（14-18岁）体重超重或肥胖='是'</t>
@@ -13363,7 +12838,7 @@
     <t>TZ_YS008</t>
   </si>
   <si>
-    <t>TZ_STZB008='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB008='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（14-18岁）体重正常='是'</t>
@@ -13372,7 +12847,7 @@
     <t>TZ_YS009</t>
   </si>
   <si>
-    <t>TZ_STZB009='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB009='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（14-18岁）体重偏低='是'</t>
@@ -13381,7 +12856,7 @@
     <t>TZ_YS010</t>
   </si>
   <si>
-    <t>TZ_STZB010='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB010='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（11-14岁）体重超重或肥胖='是'</t>
@@ -13390,7 +12865,7 @@
     <t>TZ_YS011</t>
   </si>
   <si>
-    <t>TZ_STZB011='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB011='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（11-14岁）体重正常='是'</t>
@@ -13399,7 +12874,7 @@
     <t>TZ_YS012</t>
   </si>
   <si>
-    <t>TZ_STZB012='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB012='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（11-14岁）体重偏低='是'</t>
@@ -13408,7 +12883,7 @@
     <t>TZ_YS013</t>
   </si>
   <si>
-    <t>TZ_STZB013='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB013='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（6-11岁）体重超重或肥胖='是'</t>
@@ -13417,7 +12892,7 @@
     <t>TZ_YS014</t>
   </si>
   <si>
-    <t>TZ_STZB014='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB014='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（6-11岁）体重正常='是'</t>
@@ -13426,7 +12901,7 @@
     <t>TZ_YS015</t>
   </si>
   <si>
-    <t>TZ_STZB015='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB015='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（6-11岁）体重偏低='是'</t>
@@ -13435,7 +12910,7 @@
     <t>TZ_YS016</t>
   </si>
   <si>
-    <t>TZ_STZB016='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB016='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（60-72月龄）体重超重或肥胖='是'</t>
@@ -13444,7 +12919,7 @@
     <t>TZ_YS017</t>
   </si>
   <si>
-    <t>TZ_STZB017='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB017='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（60-72月龄）体重正常='是'</t>
@@ -13453,7 +12928,7 @@
     <t>TZ_YS018</t>
   </si>
   <si>
-    <t>TZ_STZB018='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB018='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（60-72月龄）体重偏低='是'</t>
@@ -13462,7 +12937,7 @@
     <t>TZ_YS019</t>
   </si>
   <si>
-    <t>TZ_STZB019='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB019='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（48-60月龄）体重超重或肥胖='是'</t>
@@ -13471,7 +12946,7 @@
     <t>TZ_YS020</t>
   </si>
   <si>
-    <t>TZ_STZB020='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB020='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（48-60月龄）体重正常='是'</t>
@@ -13480,7 +12955,7 @@
     <t>TZ_YS021</t>
   </si>
   <si>
-    <t>TZ_STZB021='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB021='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（48-60月龄）体重偏低='是'</t>
@@ -13489,7 +12964,7 @@
     <t>TZ_YS022</t>
   </si>
   <si>
-    <t>TZ_STZB022='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB022='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（36-48月龄）体重超重或肥胖='是'</t>
@@ -13498,7 +12973,7 @@
     <t>TZ_YS023</t>
   </si>
   <si>
-    <t>TZ_STZB023='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB023='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（36-48月龄）体重正常='是'</t>
@@ -13507,7 +12982,7 @@
     <t>TZ_YS024</t>
   </si>
   <si>
-    <t>TZ_STZB024='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB024='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（36-48月龄）体重偏低='是'</t>
@@ -13516,7 +12991,7 @@
     <t>TZ_YS025</t>
   </si>
   <si>
-    <t>TZ_STZB025='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB025='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（30-36月龄）体重超重或肥胖='是'</t>
@@ -13525,7 +13000,7 @@
     <t>TZ_YS026</t>
   </si>
   <si>
-    <t>TZ_STZB026='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB026='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（30-36月龄）体重正常='是'</t>
@@ -13534,7 +13009,7 @@
     <t>TZ_YS027</t>
   </si>
   <si>
-    <t>TZ_STZB027='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB027='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（30-36月龄）体重偏低='是'</t>
@@ -13543,7 +13018,7 @@
     <t>TZ_YS028</t>
   </si>
   <si>
-    <t>TZ_STZB028='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB028='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（24-30月龄）体重超重或肥胖='是'</t>
@@ -13552,7 +13027,7 @@
     <t>TZ_YS029</t>
   </si>
   <si>
-    <t>TZ_STZB029='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB029='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（24-30月龄）体重正常='是'</t>
@@ -13561,7 +13036,7 @@
     <t>TZ_YS030</t>
   </si>
   <si>
-    <t>TZ_STZB030='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB030='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（24-30月龄）体重偏低='是'</t>
@@ -13570,7 +13045,7 @@
     <t>TZ_YS031</t>
   </si>
   <si>
-    <t>TZ_STZB031='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB031='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（18-24月龄）体重超重或肥胖='是'</t>
@@ -13579,7 +13054,7 @@
     <t>TZ_YS032</t>
   </si>
   <si>
-    <t>TZ_STZB032='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB032='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（18-24月龄）体重正常='是'</t>
@@ -13588,7 +13063,7 @@
     <t>TZ_YS033</t>
   </si>
   <si>
-    <t>TZ_STZB033='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB033='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（18-24月龄）体重偏低='是'</t>
@@ -13597,7 +13072,7 @@
     <t>TZ_YS034</t>
   </si>
   <si>
-    <t>TZ_STZB034='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB034='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（12-18月龄）体重超重或肥胖='是'</t>
@@ -13606,7 +13081,7 @@
     <t>TZ_YS035</t>
   </si>
   <si>
-    <t>TZ_STZB035='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB035='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（12-18月龄）体重正常='是'</t>
@@ -13615,7 +13090,7 @@
     <t>TZ_YS036</t>
   </si>
   <si>
-    <t>TZ_STZB036='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB036='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（12-18月龄）体重偏低='是'</t>
@@ -13624,7 +13099,7 @@
     <t>TZ_YS037</t>
   </si>
   <si>
-    <t>TZ_STZB037='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB037='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（8-12月龄）体重超重或肥胖='是'</t>
@@ -13633,7 +13108,7 @@
     <t>TZ_YS038</t>
   </si>
   <si>
-    <t>TZ_STZB038='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB038='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（8-12月龄）体重正常='是'</t>
@@ -13642,7 +13117,7 @@
     <t>TZ_YS039</t>
   </si>
   <si>
-    <t>TZ_STZB039='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB039='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（8-12月龄）体重偏低='是'</t>
@@ -13651,7 +13126,7 @@
     <t>TZ_YS040</t>
   </si>
   <si>
-    <t>TZ_STZB040='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB040='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（6-8月龄）体重超重或肥胖='是'</t>
@@ -13660,7 +13135,7 @@
     <t>TZ_YS041</t>
   </si>
   <si>
-    <t>TZ_STZB041='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB041='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（6-8月龄）体重正常='是'</t>
@@ -13669,7 +13144,7 @@
     <t>TZ_YS042</t>
   </si>
   <si>
-    <t>TZ_STZB042='是' and TZ_JB001='否' and TZ_JB002='否'</t>
+    <t>TZ_STZB042='是' and TZ_JWJB001='否' and TZ_JWJB002='否'</t>
   </si>
   <si>
     <t>（6-8月龄）体重偏低='是'</t>
@@ -13687,7 +13162,7 @@
     <t>TZ_YS044</t>
   </si>
   <si>
-    <t>(TZ_STZB002='是' or TZ_STZB005) and TZ_JB002='是' and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>(TZ_STZB002='是' or TZ_STZB005) and TZ_JWJB002='是' and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>成人或老年人体重正常='是' 且 有糖尿病</t>
@@ -13696,7 +13171,7 @@
     <t>TZ_YS045</t>
   </si>
   <si>
-    <t>(TZ_STZB002='是' or TZ_STZB005) and TZ_JB001='是' and  TZ_JB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>(TZ_STZB002='是' or TZ_STZB005) and TZ_JWJB001='是' and  TZ_JWJB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>成人或老年人体重正常='是' 且 有高血压 且 无糖尿病</t>
@@ -13705,7 +13180,7 @@
     <t>TZ_YS046</t>
   </si>
   <si>
-    <t>（TZ_STZB001='是' or TZ_STZB004） and TZ_JB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>（TZ_STZB001='是' or TZ_STZB004） and TZ_JWJB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>成人或老年人体重超重或肥胖='是' 且 有糖尿病</t>
@@ -13714,7 +13189,7 @@
     <t>TZ_YS047</t>
   </si>
   <si>
-    <t>（TZ_STZB001='是' or TZ_STZB004） and TZ_JB001='是' and  TZ_JB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>（TZ_STZB001='是' or TZ_STZB004） and TZ_JWJB001='是' and  TZ_JWJB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>成人或老年人体重超重或肥胖='是'  且 有高血压 且 无糖尿病</t>
@@ -13723,7 +13198,7 @@
     <t>TZ_YS048</t>
   </si>
   <si>
-    <t>（TZ_STZB003='是' or TZ_STZB006） and TZ_JB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>（TZ_STZB003='是' or TZ_STZB006） and TZ_JWJB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>成人或老年人体重偏低='是' 且 有糖尿病</t>
@@ -13732,7 +13207,7 @@
     <t>TZ_YS049</t>
   </si>
   <si>
-    <t>（TZ_STZB003='是' or TZ_STZB006='是'） and TZ_JB001='是' and  TZ_JB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>（TZ_STZB003='是' or TZ_STZB006='是'） and TZ_JWJB001='是' and  TZ_JWJB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>成人或老年人体重偏低='是'  且 有高血压 且 无糖尿病</t>
@@ -13888,37 +13363,37 @@
     <t>TZ_YD044</t>
   </si>
   <si>
-    <t>(TZ_STZB002='是' or TZ_STZB005='是) and TZ_JB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>(TZ_STZB002='是' or TZ_STZB005='是) and TZ_JWJB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>TZ_YD045</t>
   </si>
   <si>
-    <t>(TZ_STZB002='是' or TZ_STZB005='是) and TZ_JB001='是' and  TZ_JB002='否' and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>(TZ_STZB002='是' or TZ_STZB005='是) and TZ_JWJB001='是' and  TZ_JWJB002='否' and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>TZ_YD046</t>
   </si>
   <si>
-    <t>（TZ_STZB001='是' or TZ_STZB004='是） and TZ_JB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>（TZ_STZB001='是' or TZ_STZB004='是） and TZ_JWJB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>TZ_YD047</t>
   </si>
   <si>
-    <t>（TZ_STZB001='是' or TZ_STZB004='是） and TZ_JB001='是' and  TZ_JB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>（TZ_STZB001='是' or TZ_STZB004='是） and TZ_JWJB001='是' and  TZ_JWJB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>TZ_YD048</t>
   </si>
   <si>
-    <t>（TZ_STZB003='是' or TZ_STZB006='是） and TZ_JB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>（TZ_STZB003='是' or TZ_STZB006='是） and TZ_JWJB002='是'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>TZ_YD049</t>
   </si>
   <si>
-    <t>（TZ_STZB003='是' or TZ_STZB006='是） and TZ_JB001='是' and  TZ_JB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
+    <t>（TZ_STZB003='是' or TZ_STZB006='是） and TZ_JWJB001='是' and  TZ_JWJB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否'</t>
   </si>
   <si>
     <t>TZ_YD050</t>
@@ -19696,1478 +19171,86 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(年龄=1月 and 12.9＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=2月 and 14.2＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=3月 and 14.8＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=4月 and 15＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=5月 and 15.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=6月 and 15.2＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=7月 and 15.2＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=8月 and 15.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=9月 and 15.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=10月 and 15＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=11月 and 14.9＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=12月 and 14.8＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=13月 and 14.7＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=14月 and 14.6＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=15月 and 14.5＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=16月 and 14.4＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=17月 and 14.3＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=18月 and 14.2＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=19月 and 14.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=20月 and 14.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=21月 and 14＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=22月 and 13.9＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=23月 and 13.9＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (24月&lt;=年龄＜27月 and 14＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (27月&lt;=年龄＜30月 and 13.9＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (30月&lt;=年龄＜33月 and 13.7＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (33月&lt;=年龄＜36月 and 13.6＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (36月&lt;=年龄＜39月 and 13.6＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (39月&lt;=年龄＜42月 and 13.5＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (42月&lt;=年龄＜45月 and 13.4＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (45月&lt;=年龄＜48月 and 13.4＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (48月&lt;=年龄＜51月 and 13.3＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (51月&lt;=年龄＜54月 and 13.3＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (54月&lt;=年龄＜57月 and 13.3＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (57月&lt;=年龄＜60月 and 13.2＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (60月&lt;=年龄＜63月 and 13.2＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (63月&lt;=年龄＜66月 and 13.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (66月&lt;=年龄＜69月 and 13.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (69月&lt;=年龄&lt;=72月 and 13.1＞BMI and 性别=男)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=1月 and 12.6＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=2月 and 13.7＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=3月 and 14.3＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=5月 and 14.6＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=5月 and 14.7＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=6月 and 14.8＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=7月 and 14.8＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=8月 and 14.7＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=9月 and 14.6＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=10月 and 14.6＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=11月 and 14.5＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=12月 and 14.4＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=13月 and 14.3＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=14月 and 14.2＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=15月 and 14＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=16月 and 14＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=17月 and 13.9＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=18月 and 13.8＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=19月 and 13.8＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=20月 and 13.7＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=21月 and 13.7＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=22月 and 13.6＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (年龄=23月 and 13.5＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (24月&lt;=年龄＜27月 and 13.7＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (27月&lt;=年龄＜30月 and 13.6＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (30月&lt;=年龄＜33月 and 13.5＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (33月&lt;=年龄＜36月 and 13.4＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (36月&lt;=年龄＜39月 and 13.3＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (39月&lt;=年龄＜42月 and 13.2＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (42月&lt;=年龄＜45月 and 13.2＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (45月&lt;=年龄＜48月 and 13.1＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (48月&lt;=年龄＜51月 and 13＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (51月&lt;=年龄＜54月 and 13＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (54月&lt;=年龄＜57月 and 12.9＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (57月&lt;=年龄＜60月 and 12.9＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (60月&lt;=年龄＜63月 and 12.9＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (63月&lt;=年龄＜66月 and 12.8＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (66月&lt;=年龄＜69月 and 12.8＞BMI and 性别=女)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>or (69月&lt;=年龄&lt;=72月 and 12.8＞BMI and 性别=女)</t>
-    </r>
+    <t>(年龄=1月 and 12.9＞BMI and 性别=男)
+or (年龄=2月 and 14.2＞BMI and 性别=男)
+or (年龄=3月 and 14.8＞BMI and 性别=男)
+or (年龄=4月 and 15＞BMI and 性别=男)
+or (年龄=5月 and 15.1＞BMI and 性别=男)
+or (年龄=6月 and 15.2＞BMI and 性别=男)
+or (年龄=7月 and 15.2＞BMI and 性别=男)
+or (年龄=8月 and 15.1＞BMI and 性别=男)
+or (年龄=9月 and 15.1＞BMI and 性别=男)
+or (年龄=10月 and 15＞BMI and 性别=男)
+or (年龄=11月 and 14.9＞BMI and 性别=男)
+or (年龄=12月 and 14.8＞BMI and 性别=男)
+or (年龄=13月 and 14.7＞BMI and 性别=男)
+or (年龄=14月 and 14.6＞BMI and 性别=男)
+or (年龄=15月 and 14.5＞BMI and 性别=男)
+or (年龄=16月 and 14.4＞BMI and 性别=男)
+or (年龄=17月 and 14.3＞BMI and 性别=男)
+or (年龄=18月 and 14.2＞BMI and 性别=男)
+or (年龄=19月 and 14.1＞BMI and 性别=男)
+or (年龄=20月 and 14.1＞BMI and 性别=男)
+or (年龄=21月 and 14＞BMI and 性别=男)
+or (年龄=22月 and 13.9＞BMI and 性别=男)
+or (年龄=23月 and 13.9＞BMI and 性别=男)
+or (24月&lt;=年龄＜27月 and 14＞BMI and 性别=男)
+or (27月&lt;=年龄＜30月 and 13.9＞BMI and 性别=男)
+or (30月&lt;=年龄＜33月 and 13.7＞BMI and 性别=男)
+or (33月&lt;=年龄＜36月 and 13.6＞BMI and 性别=男)
+or (36月&lt;=年龄＜39月 and 13.6＞BMI and 性别=男)
+or (39月&lt;=年龄＜42月 and 13.5＞BMI and 性别=男)
+or (42月&lt;=年龄＜45月 and 13.4＞BMI and 性别=男)
+or (45月&lt;=年龄＜48月 and 13.4＞BMI and 性别=男)
+or (48月&lt;=年龄＜51月 and 13.3＞BMI and 性别=男)
+or (51月&lt;=年龄＜54月 and 13.3＞BMI and 性别=男)
+or (54月&lt;=年龄＜57月 and 13.3＞BMI and 性别=男)
+or (57月&lt;=年龄＜60月 and 13.2＞BMI and 性别=男)
+or (60月&lt;=年龄＜63月 and 13.2＞BMI and 性别=男)
+or (63月&lt;=年龄＜66月 and 13.1＞BMI and 性别=男)
+or (66月&lt;=年龄＜69月 and 13.1＞BMI and 性别=男)
+or (69月&lt;=年龄&lt;72月 and 13.1＞BMI and 性别=男)
+or (年龄=72月 and 13.1＞BMI and 性别=男)
+or (年龄=1月 and 12.6＞BMI and 性别=女)
+or (年龄=2月 and 13.7＞BMI and 性别=女)
+or (年龄=3月 and 14.3＞BMI and 性别=女)
+or (年龄=5月 and 14.6＞BMI and 性别=女)
+or (年龄=5月 and 14.7＞BMI and 性别=女)
+or (年龄=6月 and 14.8＞BMI and 性别=女)
+or (年龄=7月 and 14.8＞BMI and 性别=女)
+or (年龄=8月 and 14.7＞BMI and 性别=女)
+or (年龄=9月 and 14.6＞BMI and 性别=女)
+or (年龄=10月 and 14.6＞BMI and 性别=女)
+or (年龄=11月 and 14.5＞BMI and 性别=女)
+or (年龄=12月 and 14.4＞BMI and 性别=女)
+or (年龄=13月 and 14.3＞BMI and 性别=女)
+or (年龄=14月 and 14.2＞BMI and 性别=女)
+or (年龄=15月 and 14＞BMI and 性别=女)
+or (年龄=16月 and 14＞BMI and 性别=女)
+or (年龄=17月 and 13.9＞BMI and 性别=女)
+or (年龄=18月 and 13.8＞BMI and 性别=女)
+or (年龄=19月 and 13.8＞BMI and 性别=女)
+or (年龄=20月 and 13.7＞BMI and 性别=女)
+or (年龄=21月 and 13.7＞BMI and 性别=女)
+or (年龄=22月 and 13.6＞BMI and 性别=女)
+or (年龄=23月 and 13.5＞BMI and 性别=女)
+or (24月&lt;=年龄＜27月 and 13.7＞BMI and 性别=女)
+or (27月&lt;=年龄＜30月 and 13.6＞BMI and 性别=女)
+or (30月&lt;=年龄＜33月 and 13.5＞BMI and 性别=女)
+or (33月&lt;=年龄＜36月 and 13.4＞BMI and 性别=女)
+or (36月&lt;=年龄＜39月 and 13.3＞BMI and 性别=女)
+or (39月&lt;=年龄＜42月 and 13.2＞BMI and 性别=女)
+or (42月&lt;=年龄＜45月 and 13.2＞BMI and 性别=女)
+or (45月&lt;=年龄＜48月 and 13.1＞BMI and 性别=女)
+or (48月&lt;=年龄＜51月 and 13＞BMI and 性别=女)
+or (51月&lt;=年龄＜54月 and 13＞BMI and 性别=女)
+or (54月&lt;=年龄＜57月 and 12.9＞BMI and 性别=女)
+or (57月&lt;=年龄＜60月 and 12.9＞BMI and 性别=女)
+or (60月&lt;=年龄＜63月 and 12.9＞BMI and 性别=女)
+or (63月&lt;=年龄＜66月 and 12.8＞BMI and 性别=女)
+or (66月&lt;=年龄＜69月 and 12.8＞BMI and 性别=女)
+or (69月&lt;=年龄&lt;72月 and 12.8＞BMI and 性别=女)
+or (年龄=72月 and 12.8＞BMI and 性别=女)</t>
   </si>
   <si>
     <t>(年龄=1月 and 12.9&lt;=BMI＜16.4 and 性别=男)
@@ -21208,7 +19291,8 @@
 or (60月&lt;=年龄＜63月 and 13.2&lt;=BMI＜16.7 and 性别=男)
 or (63月&lt;=年龄＜66月 and 13.1&lt;=BMI＜16.7 and 性别=男)
 or (66月&lt;=年龄＜69月 and 13.1&lt;=BMI＜16.8 and 性别=男)
-or (69月&lt;=年龄&lt;=72月 and 13.1&lt;=BMI＜16.9 and 性别=男)
+or (69月&lt;=年龄&lt;72月 and 13.1&lt;=BMI＜16.9 and 性别=男)
+or (年龄=72月 and 13.1&lt;=BMI＜16.9 and 性别=男)
 or (年龄=1月 and 12.6&lt;=BMI＜15.9 and 性别=女)
 or (年龄=2月 and 13.7&lt;=BMI＜17.5 and 性别=女)
 or (年龄=3月 and 14.3&lt;=BMI＜18.3 and 性别=女)
@@ -21247,7 +19331,8 @@
 or (60月&lt;=年龄＜63月 and 12.9&lt;=BMI＜16.4 and 性别=女)
 or (63月&lt;=年龄＜66月 and 12.8&lt;=BMI＜16.4 and 性别=女)
 or (66月&lt;=年龄＜69月 and 12.8&lt;=BMI＜16.5 and 性别=女)
-or (69月&lt;=年龄&lt;=72月 and 12.8&lt;=BMI＜16.5 and 性别=女)</t>
+or (69月&lt;=年龄&lt;72月 and 12.8&lt;=BMI＜16.5 and 性别=女)
+or (年龄=72月 and 12.8&lt;=BMI＜16.5 and 性别=女)</t>
   </si>
   <si>
     <t>(年龄=1月 and 16.4&lt;=BMI&lt;17.7 and 性别=男)
@@ -21288,7 +19373,8 @@
 or (60月&lt;=年龄＜63月 and 16.7&lt;=BMI&lt;18.4 and 性别=男)
 or (63月&lt;=年龄＜66月 and 16.7&lt;=BMI&lt;18.6 and 性别=男)
 or (66月&lt;=年龄＜69月 and 16.8&lt;=BMI&lt;18.7 and 性别=男)
-or (69月&lt;=年龄&lt;=72月 and 16.9&lt;=BMI&lt;18.9 and 性别=男)
+or (69月&lt;=年龄&lt;72月 and 16.9&lt;=BMI&lt;18.9 and 性别=男)
+or (年龄=72月 and 16.9&lt;=BMI&lt;18.9 and 性别=男)
 or (年龄=1月 and 15.9&lt;=BMI&lt;17.3 and 性别=女)
 or (年龄=2月 and 17.5&lt;=BMI&lt;19.1 and 性别=女)
 or (年龄=3月 and 18.3&lt;=BMI&lt;20.0 and 性别=女)
@@ -21327,7 +19413,8 @@
 or (60月&lt;=年龄＜63月 and 16.4&lt;=BMI&lt;18.2 and 性别=女)
 or (63月&lt;=年龄＜66月 and 16.4&lt;=BMI&lt;18.3 and 性别=女)
 or (66月&lt;=年龄＜69月 and 16.5&lt;=BMI&lt;18.4 and 性别=女)
-or (69月&lt;=年龄&lt;=72月 and 16.5&lt;=BMI&lt;18.4 and 性别=女)</t>
+or (69月&lt;=年龄&lt;72月 and 16.5&lt;=BMI&lt;18.4 and 性别=女)
+or (年龄=72月 and 16.5&lt;=BMI&lt;18.4 and 性别=女)</t>
   </si>
   <si>
     <t>(年龄=1月 and BMI&gt;=17.7 and 性别=男)
@@ -21368,7 +19455,8 @@
 or (60月&lt;=年龄＜63月 and BMI&gt;=18.4 and 性别=男)
 or (63月&lt;=年龄＜66月 and BMI&gt;=18.6 and 性别=男)
 or (66月&lt;=年龄＜69月 and BMI&gt;=18.7 and 性别=男)
-or (69月&lt;=年龄&lt;=72月 and BMI&gt;=18.9 and 性别=男)
+or (69月&lt;=年龄&lt;72月 and BMI&gt;=18.9 and 性别=男)
+or (年龄=72月 and BMI&gt;=18.9 and 性别=男)
 or (年龄=1月 and BMI&gt;=17.3 and 性别=女)
 or (年龄=2月 and BMI&gt;=19.1 and 性别=女)
 or (年龄=3月 and BMI&gt;=20.0 and 性别=女)
@@ -21407,7 +19495,8 @@
 or (60月&lt;=年龄＜63月 and BMI&gt;=18.2 and 性别=女)
 or (63月&lt;=年龄＜66月 and BMI&gt;=18.3 and 性别=女)
 or (66月&lt;=年龄＜69月 and BMI&gt;=18.4 and 性别=女)
-or (69月&lt;=年龄&lt;=72月 and BMI&gt;=18.4 and 性别=女)</t>
+or (69月&lt;=年龄&lt;72月 and BMI&gt;=18.4 and 性别=女)
+or (年龄=72月 and BMI&gt;=18.4 and 性别=女)</t>
   </si>
 </sst>
 </file>
@@ -22967,7 +21056,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.84615384615385" defaultRowHeight="15.2"/>
@@ -24158,12 +22247,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="评估因素规则库"/>
-  <dimension ref="A1:AE201"/>
+  <dimension ref="A1:AE202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -25007,7 +23096,7 @@
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
     </row>
-    <row r="17" ht="122" spans="1:31">
+    <row r="17" ht="233" customHeight="1" spans="1:31">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="27" t="s">
@@ -25109,7 +23198,7 @@
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
     </row>
-    <row r="19" ht="122" spans="1:31">
+    <row r="19" ht="152" spans="1:31">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="27" t="s">
@@ -26558,7 +24647,7 @@
         <v>301</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K47" s="33" t="s">
         <v>302</v>
@@ -26605,7 +24694,7 @@
         <v>305</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K48" s="33" t="s">
         <v>306</v>
@@ -26651,8 +24740,8 @@
       <c r="I49" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="J49" s="27" t="s">
-        <v>307</v>
+      <c r="J49" s="27">
+        <v>3</v>
       </c>
       <c r="K49" s="33" t="s">
         <v>308</v>
@@ -26698,8 +24787,8 @@
       <c r="I50" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="J50" s="27" t="s">
-        <v>309</v>
+      <c r="J50" s="27">
+        <v>4</v>
       </c>
       <c r="K50" s="33" t="s">
         <v>310</v>
@@ -26745,8 +24834,8 @@
       <c r="I51" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="J51" s="27" t="s">
-        <v>311</v>
+      <c r="J51" s="27">
+        <v>2</v>
       </c>
       <c r="K51" s="33" t="s">
         <v>312</v>
@@ -26792,8 +24881,8 @@
       <c r="I52" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="J52" s="27" t="s">
-        <v>313</v>
+      <c r="J52" s="27">
+        <v>1</v>
       </c>
       <c r="K52" s="33" t="s">
         <v>314</v>
@@ -26839,8 +24928,8 @@
       <c r="I53" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="J53" s="27" t="s">
-        <v>316</v>
+      <c r="J53" s="27">
+        <v>6</v>
       </c>
       <c r="K53" s="33" t="s">
         <v>317</v>
@@ -26886,8 +24975,8 @@
       <c r="I54" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="J54" s="27" t="s">
-        <v>319</v>
+      <c r="J54" s="27">
+        <v>7</v>
       </c>
       <c r="K54" s="33" t="s">
         <v>320</v>
@@ -27007,31 +25096,30 @@
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
     </row>
-    <row r="57" ht="17" spans="1:31">
+    <row r="57" customFormat="1" ht="17" spans="1:31">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D57"/>
       <c r="E57" s="2"/>
       <c r="F57" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G57" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="I57" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="J57" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="I57" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>331</v>
-      </c>
       <c r="K57" s="33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -27054,18 +25142,32 @@
       <c r="AD57" s="6"/>
       <c r="AE57" s="6"/>
     </row>
-    <row r="58" ht="15.2" spans="1:31">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+    <row r="58" ht="17" spans="1:31">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="D58"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="F58" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>333</v>
+      </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -27087,18 +25189,32 @@
       <c r="AD58" s="6"/>
       <c r="AE58" s="6"/>
     </row>
-    <row r="59" ht="15.2" spans="1:31">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+    <row r="59" customFormat="1" ht="17" spans="1:31">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="D59"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="F59" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>333</v>
+      </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -27120,7 +25236,7 @@
       <c r="AD59" s="6"/>
       <c r="AE59" s="6"/>
     </row>
-    <row r="60" customHeight="1" spans="1:31">
+    <row r="60" ht="15.2" spans="1:31">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -31806,6 +29922,39 @@
       <c r="AD201" s="6"/>
       <c r="AE201" s="6"/>
     </row>
+    <row r="202" customHeight="1" spans="1:31">
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="31"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
+      <c r="U202" s="6"/>
+      <c r="V202" s="6"/>
+      <c r="W202" s="6"/>
+      <c r="X202" s="6"/>
+      <c r="Y202" s="6"/>
+      <c r="Z202" s="6"/>
+      <c r="AA202" s="6"/>
+      <c r="AB202" s="6"/>
+      <c r="AC202" s="6"/>
+      <c r="AD202" s="6"/>
+      <c r="AE202" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -31817,8 +29966,8 @@
   <sheetPr/>
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2"/>
@@ -31874,16 +30023,16 @@
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -31910,16 +30059,16 @@
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -31946,16 +30095,16 @@
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -31982,16 +30131,16 @@
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -32018,16 +30167,16 @@
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -32054,16 +30203,16 @@
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -32090,16 +30239,16 @@
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -32126,16 +30275,16 @@
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -32162,16 +30311,16 @@
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -32198,16 +30347,16 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -32234,16 +30383,16 @@
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -32270,16 +30419,16 @@
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -32306,16 +30455,16 @@
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -32342,16 +30491,16 @@
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -32378,16 +30527,16 @@
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -32414,16 +30563,16 @@
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -32450,16 +30599,16 @@
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -32486,16 +30635,16 @@
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -32522,16 +30671,16 @@
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -32558,16 +30707,16 @@
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -32594,16 +30743,16 @@
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -32630,16 +30779,16 @@
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -32666,16 +30815,16 @@
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -32702,16 +30851,16 @@
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -32738,16 +30887,16 @@
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -32774,16 +30923,16 @@
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -32810,16 +30959,16 @@
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -32846,16 +30995,16 @@
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -32882,16 +31031,16 @@
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -32918,16 +31067,16 @@
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -32954,16 +31103,16 @@
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -32990,16 +31139,16 @@
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -33026,16 +31175,16 @@
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -33062,16 +31211,16 @@
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -33098,16 +31247,16 @@
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -33134,16 +31283,16 @@
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -33170,16 +31319,16 @@
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -33206,16 +31355,16 @@
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -33242,16 +31391,16 @@
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -33278,16 +31427,16 @@
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -33314,16 +31463,16 @@
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -33350,16 +31499,16 @@
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -33386,16 +31535,16 @@
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -33422,16 +31571,16 @@
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -33458,16 +31607,16 @@
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -33494,16 +31643,16 @@
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -33530,16 +31679,16 @@
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -33566,16 +31715,16 @@
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -33602,16 +31751,16 @@
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -33638,13 +31787,13 @@
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>315</v>
@@ -33674,13 +31823,13 @@
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>318</v>
@@ -33710,16 +31859,16 @@
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -33746,16 +31895,16 @@
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -33782,16 +31931,16 @@
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -33818,16 +31967,16 @@
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -33854,16 +32003,16 @@
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -33890,16 +32039,16 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -33926,16 +32075,16 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -33962,16 +32111,16 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -33998,16 +32147,16 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -34034,16 +32183,16 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -34070,16 +32219,16 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -34106,16 +32255,16 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -34142,16 +32291,16 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -34178,16 +32327,16 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -34214,16 +32363,16 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -34250,16 +32399,16 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -34286,16 +32435,16 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -34322,16 +32471,16 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -34358,16 +32507,16 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -34394,16 +32543,16 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -34430,16 +32579,16 @@
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -34466,16 +32615,16 @@
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -34502,16 +32651,16 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -34538,16 +32687,16 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -34574,16 +32723,16 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -34610,16 +32759,16 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -34646,16 +32795,16 @@
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -34682,16 +32831,16 @@
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -34718,16 +32867,16 @@
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -34754,16 +32903,16 @@
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -34790,16 +32939,16 @@
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -34826,16 +32975,16 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -34862,16 +33011,16 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -34898,16 +33047,16 @@
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -34934,16 +33083,16 @@
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -34970,16 +33119,16 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -35006,16 +33155,16 @@
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -35042,16 +33191,16 @@
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -35078,16 +33227,16 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -35114,16 +33263,16 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -35150,16 +33299,16 @@
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -35186,16 +33335,16 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -35222,16 +33371,16 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -35258,16 +33407,16 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -35294,16 +33443,16 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -35330,16 +33479,16 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -35366,16 +33515,16 @@
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -35402,16 +33551,16 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -35438,16 +33587,16 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -35474,13 +33623,13 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F102" s="21" t="s">
         <v>315</v>
@@ -35510,13 +33659,13 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F103" s="21" t="s">
         <v>318</v>
@@ -35546,16 +33695,16 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -35582,16 +33731,16 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -35618,16 +33767,16 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -35654,16 +33803,16 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -35690,16 +33839,16 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -35726,16 +33875,16 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -35762,16 +33911,16 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -35798,16 +33947,16 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -36203,8 +34352,8 @@
   </sheetPr>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:D$1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2"/>
@@ -36232,13 +34381,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>28</v>
@@ -36286,16 +34435,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="6"/>
@@ -36331,16 +34480,16 @@
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="6"/>
@@ -36376,16 +34525,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F4" s="8">
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>579</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>577</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="6"/>
@@ -36421,16 +34570,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F5" s="8">
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="6"/>
@@ -36466,16 +34615,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="6"/>
@@ -36511,16 +34660,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F7" s="8">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="6"/>
@@ -36556,16 +34705,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>579</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>577</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="6"/>
@@ -36601,16 +34750,16 @@
         <v>4</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F9" s="8">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="6"/>
@@ -36646,16 +34795,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="6"/>
@@ -36691,16 +34840,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F11" s="15">
         <v>2</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="6"/>
@@ -36736,16 +34885,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F12" s="15">
         <v>3</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>586</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>584</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="6"/>
@@ -36781,16 +34930,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="6"/>
@@ -36826,16 +34975,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="6"/>
@@ -36871,16 +35020,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F15" s="15">
         <v>2</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="6"/>
@@ -36916,16 +35065,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F16" s="15">
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="6"/>
@@ -36961,16 +35110,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F17" s="15">
         <v>4</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="6"/>

--- a/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
+++ b/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15560" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="13160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -16363,7 +16363,7 @@
     <t>(年龄≥4 and 年龄＜10) or 年龄 = 10</t>
   </si>
   <si>
-    <t>年龄≥4 and 年龄＜10</t>
+    <t>年龄&gt;=4 and 年龄＜10</t>
   </si>
   <si>
     <t>TZ_AGE002</t>
@@ -16378,7 +16378,7 @@
     <t>(年龄≥11 and 年龄＜17) or 年龄 = 17</t>
   </si>
   <si>
-    <t>年龄≥11 and 年龄＜17</t>
+    <t>年龄&gt;=11 and 年龄＜17</t>
   </si>
   <si>
     <t>TZ_AGE003</t>
@@ -20950,10 +20950,10 @@
   <sheetPr codeName="评估因素规则库"/>
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -23745,10 +23745,10 @@
         <v>52</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F55" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>106</v>
@@ -23796,10 +23796,10 @@
         <v>52</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F56" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>106</v>
@@ -23847,10 +23847,10 @@
         <v>52</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F57" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>106</v>
@@ -23898,10 +23898,10 @@
         <v>52</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F58" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>106</v>
@@ -23949,10 +23949,10 @@
         <v>52</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F59" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>106</v>
@@ -24003,7 +24003,7 @@
   <sheetPr/>
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -27836,7 +27836,7 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" ht="16" spans="1:26">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="5" t="s">

--- a/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
+++ b/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="13160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="609">
   <si>
     <t>f_result</t>
   </si>
@@ -16288,6 +16288,9 @@
     <t>既往疾病包含“高血压”</t>
   </si>
   <si>
+    <t>疾病=高血压</t>
+  </si>
+  <si>
     <t>TZ_JB001</t>
   </si>
   <si>
@@ -16300,30 +16303,45 @@
     <t>既往疾病包含“糖尿病”</t>
   </si>
   <si>
+    <t>疾病=糖尿病</t>
+  </si>
+  <si>
     <t>TZ_JB002</t>
   </si>
   <si>
     <t>人群分类为普通人群</t>
   </si>
   <si>
+    <t>人群分类=3</t>
+  </si>
+  <si>
     <t>TZ_RQFL001</t>
   </si>
   <si>
     <t>人群分类为老年人</t>
   </si>
   <si>
+    <t>人群分类=4</t>
+  </si>
+  <si>
     <t>TZ_RQFL002</t>
   </si>
   <si>
     <t>人群分类为学生</t>
   </si>
   <si>
+    <t>人群分类=2</t>
+  </si>
+  <si>
     <t>TZ_RQFL003</t>
   </si>
   <si>
     <t>人群分类为儿童</t>
   </si>
   <si>
+    <t>人群分类=1</t>
+  </si>
+  <si>
     <t>TZ_RQFL004</t>
   </si>
   <si>
@@ -16333,6 +16351,9 @@
     <t>人群分类为孕妇</t>
   </si>
   <si>
+    <t>人群分类=6</t>
+  </si>
+  <si>
     <t>TZ_RQFL005</t>
   </si>
   <si>
@@ -16342,6 +16363,9 @@
     <t>人群分类为产妇</t>
   </si>
   <si>
+    <t>人群分类=7</t>
+  </si>
+  <si>
     <t>TZ_RQFL006</t>
   </si>
   <si>
@@ -16385,6 +16409,9 @@
   </si>
   <si>
     <t>年龄 = 17</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>饮食</t>
@@ -17406,14 +17433,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="仿宋"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体-简"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
       <charset val="134"/>
     </font>
     <font>
@@ -17428,7 +17455,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17443,7 +17470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99DDFF"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17474,6 +17501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99DDFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17861,7 +17894,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17885,16 +17918,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -17903,97 +17936,97 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18010,7 +18043,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -18022,7 +18055,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18031,7 +18064,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18040,7 +18073,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18067,7 +18100,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18075,9 +18108,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -18088,7 +18118,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18185,49 +18215,55 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -18236,10 +18272,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18795,7 +18834,7 @@
     <col min="10" max="16384" width="9.84615384615385" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" s="67" customFormat="1" ht="33" customHeight="1" spans="1:29">
+    <row r="1" s="66" customFormat="1" ht="33" customHeight="1" spans="1:29">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -18811,16 +18850,16 @@
       <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="80" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="66" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="73"/>
@@ -18843,132 +18882,132 @@
       <c r="AB1" s="73"/>
       <c r="AC1" s="73"/>
     </row>
-    <row r="2" s="67" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A2" s="70" t="s">
+    <row r="2" s="66" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="68" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="67" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-    </row>
-    <row r="4" s="69" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-    </row>
-    <row r="5" s="70" customFormat="1" ht="33" customHeight="1" spans="1:26">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+    </row>
+    <row r="4" s="68" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+    </row>
+    <row r="5" s="69" customFormat="1" ht="33" customHeight="1" spans="1:26">
       <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
@@ -18984,13 +19023,13 @@
       <c r="E5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="84" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="73"/>
@@ -19012,11 +19051,11 @@
       <c r="Y5" s="73"/>
       <c r="Z5" s="73"/>
     </row>
-    <row r="6" s="70" customFormat="1" ht="33" customHeight="1" spans="1:28">
-      <c r="A6" s="70" t="s">
+    <row r="6" s="69" customFormat="1" ht="33" customHeight="1" spans="1:28">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="73" t="s">
@@ -19031,10 +19070,10 @@
       <c r="F6" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="84" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="73"/>
@@ -19058,35 +19097,35 @@
       <c r="AA6" s="73"/>
       <c r="AB6" s="73"/>
     </row>
-    <row r="7" s="71" customFormat="1" ht="33" customHeight="1"/>
-    <row r="8" s="70" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A8" s="70" t="s">
+    <row r="7" s="70" customFormat="1" ht="33" customHeight="1"/>
+    <row r="8" s="69" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="69" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" s="70" customFormat="1" ht="33" customHeight="1" spans="3:28">
-      <c r="C9" s="75" t="s">
+    <row r="9" s="69" customFormat="1" ht="33" customHeight="1" spans="3:28">
+      <c r="C9" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="73"/>
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
@@ -19110,81 +19149,81 @@
       <c r="AA9" s="73"/>
       <c r="AB9" s="73"/>
     </row>
-    <row r="10" s="27" customFormat="1" ht="29" customHeight="1" spans="1:31">
-      <c r="A10" s="30" t="s">
+    <row r="10" s="71" customFormat="1" ht="29" customHeight="1" spans="1:31">
+      <c r="A10" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
     </row>
     <row r="11" ht="17.6" spans="3:6">
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="76" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" ht="16.8" spans="1:3">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19208,838 +19247,838 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="21.7211538461538" style="43" customWidth="1"/>
-    <col min="3" max="3" width="87.1634615384615" style="44" customWidth="1"/>
-    <col min="4" max="7" width="21.7211538461538" style="44" customWidth="1"/>
-    <col min="8" max="8" width="21.7211538461538" style="43" customWidth="1"/>
-    <col min="9" max="9" width="21.7211538461538" style="44" customWidth="1"/>
-    <col min="10" max="11" width="21.7211538461538" style="43" customWidth="1"/>
+    <col min="1" max="2" width="21.7211538461538" style="42" customWidth="1"/>
+    <col min="3" max="3" width="87.1634615384615" style="43" customWidth="1"/>
+    <col min="4" max="7" width="21.7211538461538" style="43" customWidth="1"/>
+    <col min="8" max="8" width="21.7211538461538" style="42" customWidth="1"/>
+    <col min="9" max="9" width="21.7211538461538" style="43" customWidth="1"/>
+    <col min="10" max="11" width="21.7211538461538" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:11">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:11">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="55"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:11">
-      <c r="A3" s="46"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="55"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:11">
-      <c r="A4" s="46"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="55"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:11">
-      <c r="A5" s="46"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="55"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:11">
-      <c r="A6" s="46"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="55"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:11">
-      <c r="A7" s="46"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="55"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:11">
-      <c r="A8" s="46"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="55"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:11">
-      <c r="A9" s="46"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:11">
-      <c r="A10" s="46"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="55"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:11">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="55"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:11">
-      <c r="A12" s="46"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="55"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:11">
-      <c r="A13" s="46"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="55"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:11">
-      <c r="A14" s="46"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="55"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="54"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:11">
-      <c r="A15" s="46"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="55"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:11">
-      <c r="A16" s="46"/>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="55"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:11">
-      <c r="A17" s="46"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="55"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:11">
-      <c r="A18" s="46"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="55"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:11">
-      <c r="A19" s="46"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="55"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:11">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="55"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:11">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" ht="33" customHeight="1" spans="1:11">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" ht="33" customHeight="1" spans="1:11">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:11">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" ht="33" customHeight="1" spans="1:11">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
     </row>
     <row r="26" ht="33" customHeight="1" spans="1:11">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" ht="33" customHeight="1" spans="1:11">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
     </row>
     <row r="28" ht="33" customHeight="1" spans="1:11">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
     </row>
     <row r="29" ht="33" customHeight="1" spans="1:11">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
     </row>
     <row r="30" ht="33" customHeight="1" spans="1:11">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="31" ht="33" customHeight="1" spans="1:11">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
     </row>
     <row r="32" ht="33" customHeight="1" spans="1:11">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:11">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:11">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
     </row>
     <row r="35" ht="33" customHeight="1" spans="1:11">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
     </row>
     <row r="36" ht="33" customHeight="1" spans="1:11">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" ht="33" customHeight="1" spans="1:11">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
     </row>
     <row r="38" ht="33" customHeight="1" spans="1:11">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
     </row>
     <row r="39" ht="33" customHeight="1" spans="1:11">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
     </row>
     <row r="40" ht="33" customHeight="1" spans="1:11">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
     </row>
     <row r="41" ht="33" customHeight="1" spans="1:11">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="1:11">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="1:11">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="1:11">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="1:11">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="1:11">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
     </row>
     <row r="47" ht="33" customHeight="1" spans="1:11">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="1:11">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:11">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="1:11">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
     </row>
     <row r="51" ht="33" customHeight="1" spans="1:11">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
     </row>
     <row r="52" ht="33" customHeight="1" spans="1:3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
     </row>
     <row r="53" ht="33" customHeight="1" spans="1:3">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
     </row>
     <row r="54" ht="33" customHeight="1" spans="1:3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
     </row>
     <row r="55" ht="33" customHeight="1" spans="1:3">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
     </row>
     <row r="56" ht="33" customHeight="1" spans="1:3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
     </row>
     <row r="57" ht="33" customHeight="1" spans="1:3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
     </row>
     <row r="58" ht="33" customHeight="1" spans="1:3">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
     </row>
     <row r="59" ht="33" customHeight="1" spans="1:3">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
     </row>
     <row r="60" ht="33" customHeight="1" spans="1:3">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
     </row>
     <row r="61" ht="33" customHeight="1"/>
     <row r="62" ht="33" customHeight="1"/>
@@ -20130,7 +20169,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2"/>
@@ -20148,84 +20187,84 @@
   </cols>
   <sheetData>
     <row r="1" s="27" customFormat="1" ht="29" customHeight="1" spans="1:32">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
     </row>
     <row r="2" ht="16.8" spans="1:32">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
         <v>3</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <v>1</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -20253,25 +20292,25 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>3</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <v>2</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -20299,25 +20338,25 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>3</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -20345,25 +20384,25 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>3</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <v>4</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -20391,25 +20430,25 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>4</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <v>1</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -20437,25 +20476,25 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>4</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <v>2</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -20483,25 +20522,25 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>4</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <v>3</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -20529,25 +20568,25 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>4</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>4</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -20575,25 +20614,25 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>2</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -20621,25 +20660,25 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>2</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>2</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -20667,25 +20706,25 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>2</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>3</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="42"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -20713,25 +20752,25 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>2</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>4</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -20759,25 +20798,25 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>1</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>1</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="42"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -20805,25 +20844,25 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>1</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>2</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -20851,25 +20890,25 @@
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>3</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="42"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -20897,25 +20936,25 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>1</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>4</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="42"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -20950,10 +20989,10 @@
   <sheetPr codeName="评估因素规则库"/>
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -23355,10 +23394,10 @@
         <v>330</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
@@ -23397,19 +23436,19 @@
         <v>106</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
@@ -23451,16 +23490,16 @@
         <v>79</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="K49" s="16">
-        <v>3</v>
+        <v>338</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M49" s="25"/>
       <c r="N49" s="25"/>
@@ -23502,16 +23541,16 @@
         <v>91</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="K50" s="16">
-        <v>4</v>
+        <v>341</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
@@ -23553,16 +23592,16 @@
         <v>92</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="K51" s="16">
-        <v>2</v>
+        <v>344</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M51" s="25"/>
       <c r="N51" s="25"/>
@@ -23604,16 +23643,16 @@
         <v>98</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="K52" s="16">
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
@@ -23643,7 +23682,7 @@
         <v>36</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F53" s="13">
         <v>6</v>
@@ -23652,19 +23691,19 @@
         <v>106</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="K53" s="16">
-        <v>6</v>
+        <v>351</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
@@ -23694,7 +23733,7 @@
         <v>36</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F54" s="13">
         <v>7</v>
@@ -23703,19 +23742,19 @@
         <v>106</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="K54" s="16">
-        <v>7</v>
+        <v>355</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M54" s="25"/>
       <c r="N54" s="25"/>
@@ -23745,28 +23784,28 @@
         <v>52</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F55" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>106</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
@@ -23805,19 +23844,19 @@
         <v>106</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
@@ -23856,19 +23895,19 @@
         <v>106</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
@@ -23907,19 +23946,19 @@
         <v>106</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M58" s="25"/>
       <c r="N58" s="25"/>
@@ -23958,19 +23997,19 @@
         <v>106</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M59" s="25"/>
       <c r="N59" s="25"/>
@@ -24003,8 +24042,8 @@
   <sheetPr/>
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -24012,15 +24051,15 @@
     <col min="1" max="2" width="14"/>
     <col min="3" max="3" width="21.4711538461538" customWidth="1"/>
     <col min="4" max="4" width="17.2980769230769" customWidth="1"/>
-    <col min="5" max="5" width="104.663461538462" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68.9038461538462" style="2" customWidth="1"/>
     <col min="6" max="6" width="37.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:26">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:26">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -24035,7 +24074,9 @@
       <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -24060,16 +24101,16 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -24096,16 +24137,16 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -24132,16 +24173,16 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -24168,16 +24209,16 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -24204,16 +24245,16 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -24240,16 +24281,16 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -24276,16 +24317,16 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -24312,16 +24353,16 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -24348,16 +24389,16 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -24384,16 +24425,16 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -24420,16 +24461,16 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -24456,16 +24497,16 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -24492,16 +24533,16 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -24528,16 +24569,16 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -24564,16 +24605,16 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -24600,16 +24641,16 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -24636,16 +24677,16 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -24672,16 +24713,16 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -24708,16 +24749,16 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -24744,16 +24785,16 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -24780,16 +24821,16 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -24816,16 +24857,16 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -24852,16 +24893,16 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -24888,16 +24929,16 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -24924,16 +24965,16 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -24960,16 +25001,16 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -24996,16 +25037,16 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -25032,16 +25073,16 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -25068,16 +25109,16 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -25104,16 +25145,16 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -25140,16 +25181,16 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -25176,16 +25217,16 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -25212,16 +25253,16 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -25248,16 +25289,16 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -25284,16 +25325,16 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -25320,16 +25361,16 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -25356,16 +25397,16 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -25392,16 +25433,16 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -25428,16 +25469,16 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -25464,16 +25505,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -25500,16 +25541,16 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -25536,16 +25577,16 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -25572,16 +25613,16 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -25608,16 +25649,16 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -25644,16 +25685,16 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -25680,16 +25721,16 @@
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -25716,16 +25757,16 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -25752,16 +25793,16 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -25788,16 +25829,16 @@
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -25824,16 +25865,16 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -25860,16 +25901,16 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -25896,16 +25937,16 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -25932,16 +25973,16 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -25968,16 +26009,16 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -26004,16 +26045,16 @@
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -26040,16 +26081,16 @@
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -26076,16 +26117,16 @@
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -26112,16 +26153,16 @@
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -26148,16 +26189,16 @@
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -26184,16 +26225,16 @@
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -26220,16 +26261,16 @@
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -26256,16 +26297,16 @@
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -26292,16 +26333,16 @@
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -26328,16 +26369,16 @@
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -26364,16 +26405,16 @@
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -26400,16 +26441,16 @@
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -26436,16 +26477,16 @@
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -26472,16 +26513,16 @@
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -26508,16 +26549,16 @@
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -26544,16 +26585,16 @@
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -26580,16 +26621,16 @@
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -26616,16 +26657,16 @@
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -26652,16 +26693,16 @@
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -26688,16 +26729,16 @@
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -26724,16 +26765,16 @@
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -26760,16 +26801,16 @@
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -26796,16 +26837,16 @@
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -26832,16 +26873,16 @@
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -26868,16 +26909,16 @@
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -26904,16 +26945,16 @@
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -26940,16 +26981,16 @@
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -26976,16 +27017,16 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -27012,16 +27053,16 @@
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -27048,16 +27089,16 @@
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -27084,16 +27125,16 @@
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -27120,16 +27161,16 @@
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -27156,16 +27197,16 @@
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -27192,16 +27233,16 @@
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -27228,16 +27269,16 @@
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -27264,16 +27305,16 @@
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -27300,16 +27341,16 @@
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -27336,16 +27377,16 @@
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -27372,16 +27413,16 @@
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -27408,16 +27449,16 @@
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -27444,16 +27485,16 @@
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -27480,16 +27521,16 @@
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -27516,16 +27557,16 @@
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -27552,16 +27593,16 @@
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -27588,16 +27629,16 @@
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>507</v>
-      </c>
       <c r="F100" s="5" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -27624,16 +27665,16 @@
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -27660,16 +27701,16 @@
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -27696,16 +27737,16 @@
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -27732,16 +27773,16 @@
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="5" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -27768,16 +27809,16 @@
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="5" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -27804,16 +27845,16 @@
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="5" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -27840,16 +27881,16 @@
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="5" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -27876,16 +27917,16 @@
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="5" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -27912,16 +27953,16 @@
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="5" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -27948,16 +27989,16 @@
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="5" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -27984,16 +28025,16 @@
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="5" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>

--- a/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
+++ b/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160" activeTab="4"/>
+    <workbookView windowWidth="27140" windowHeight="13160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="622">
   <si>
     <t>f_result</t>
   </si>
@@ -465,7 +465,37 @@
     <t>取健康评估记录表已确认状态的最新一条记录的既往疾病结果</t>
   </si>
   <si>
-    <t>f_log</t>
+    <t>result_nvc</t>
+  </si>
+  <si>
+    <t>testDate_date</t>
+  </si>
+  <si>
+    <t>log_nvc</t>
+  </si>
+  <si>
+    <t>category_nvc</t>
+  </si>
+  <si>
+    <t>categoryCode_vc</t>
+  </si>
+  <si>
+    <t>weightStatus_nvc</t>
+  </si>
+  <si>
+    <t>weightStatusCode_vc</t>
+  </si>
+  <si>
+    <t>conditions_nvc</t>
+  </si>
+  <si>
+    <t>testCase_nvc</t>
+  </si>
+  <si>
+    <t>caseTotal_i</t>
+  </si>
+  <si>
+    <t>errID_i</t>
   </si>
   <si>
     <t>普通人群</t>
@@ -6070,10 +6100,22 @@
 or (年龄=72月 and BMI&gt;=18.4 and 性别=女)</t>
   </si>
   <si>
-    <t>f_conditions_o</t>
-  </si>
-  <si>
-    <t>f_code</t>
+    <t>type_nvc</t>
+  </si>
+  <si>
+    <t>ageType_nvc</t>
+  </si>
+  <si>
+    <t>ruleName_nvc</t>
+  </si>
+  <si>
+    <t>detail_nvc</t>
+  </si>
+  <si>
+    <t>conditions_old_nvc</t>
+  </si>
+  <si>
+    <t>code_vc</t>
   </si>
   <si>
     <t>身体指标</t>
@@ -16411,9 +16453,6 @@
     <t>年龄 = 17</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>饮食</t>
   </si>
   <si>
@@ -17045,8 +17084,7 @@
     <t>TZ_YD049</t>
   </si>
   <si>
-    <t>(TZ_STZB003='是' and TZ_JB001='是' and  TZ_JB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否') 
-or （TZ_STZB006='是' and TZ_JB001='是' and  TZ_JB002='否'  and TZ_RQFL005='否' and TZ_RQFL006='否')</t>
+    <t>(TZ_STZB003='是' and TZ_JB001='是' and TZ_JB002='否' and TZ_RQFL005='否' and TZ_RQFL006='否') or (TZ_STZB006='是' and TZ_JB001='是' and TZ_JB002='否' and TZ_RQFL005='否' and TZ_RQFL006='否')</t>
   </si>
   <si>
     <t>TZ_YD050</t>
@@ -17455,18 +17493,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -17894,7 +17926,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17918,16 +17950,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -17936,85 +17968,85 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18028,7 +18060,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18046,34 +18078,34 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18085,10 +18117,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18118,7 +18150,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18136,10 +18168,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -18151,13 +18183,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18215,16 +18247,16 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18236,49 +18268,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20169,7 +20201,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2"/>
@@ -20188,37 +20220,37 @@
   <sheetData>
     <row r="1" s="27" customFormat="1" ht="29" customHeight="1" spans="1:32">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -20247,22 +20279,22 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="30" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E2" s="31">
         <v>3</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G2" s="31">
         <v>1</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J2" s="41"/>
       <c r="K2" s="7"/>
@@ -20293,22 +20325,22 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="30" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E3" s="31">
         <v>3</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G3" s="31">
         <v>2</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J3" s="41"/>
       <c r="K3" s="7"/>
@@ -20339,22 +20371,22 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="30" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E4" s="31">
         <v>3</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G4" s="31">
         <v>3</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="7"/>
@@ -20385,22 +20417,22 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="30" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E5" s="31">
         <v>3</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G5" s="31">
         <v>4</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="7"/>
@@ -20431,22 +20463,22 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="30" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E6" s="31">
         <v>4</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G6" s="31">
         <v>1</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J6" s="41"/>
       <c r="K6" s="7"/>
@@ -20477,22 +20509,22 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="30" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E7" s="31">
         <v>4</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G7" s="31">
         <v>2</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="7"/>
@@ -20523,22 +20555,22 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="30" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E8" s="31">
         <v>4</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G8" s="31">
         <v>3</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="7"/>
@@ -20569,22 +20601,22 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="30" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E9" s="31">
         <v>4</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G9" s="31">
         <v>4</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J9" s="41"/>
       <c r="K9" s="7"/>
@@ -20615,22 +20647,22 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E10" s="32">
         <v>2</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G10" s="35">
         <v>1</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J10" s="41"/>
       <c r="K10" s="7"/>
@@ -20661,22 +20693,22 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E11" s="31">
         <v>2</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G11" s="37">
         <v>2</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="7"/>
@@ -20707,22 +20739,22 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E12" s="31">
         <v>2</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G12" s="37">
         <v>3</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J12" s="41"/>
       <c r="K12" s="7"/>
@@ -20753,22 +20785,22 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E13" s="31">
         <v>2</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G13" s="37">
         <v>4</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="7"/>
@@ -20799,22 +20831,22 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E14" s="31">
         <v>1</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G14" s="37">
         <v>1</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J14" s="41"/>
       <c r="K14" s="7"/>
@@ -20845,22 +20877,22 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E15" s="31">
         <v>1</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G15" s="37">
         <v>2</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J15" s="41"/>
       <c r="K15" s="7"/>
@@ -20891,22 +20923,22 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E16" s="31">
         <v>1</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G16" s="37">
         <v>3</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J16" s="41"/>
       <c r="K16" s="7"/>
@@ -20937,22 +20969,22 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G17" s="37">
         <v>4</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="7"/>
@@ -20990,9 +21022,9 @@
   <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -21012,49 +21044,49 @@
   <sheetData>
     <row r="1" s="12" customFormat="1" ht="27.75" customHeight="1" spans="1:31">
       <c r="A1" s="15" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -21078,31 +21110,31 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F2" s="19">
         <v>3</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
@@ -21129,31 +21161,31 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F3" s="19">
         <v>3</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -21180,31 +21212,31 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F4" s="19">
         <v>3</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
@@ -21231,31 +21263,31 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F5" s="19">
         <v>4</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -21282,31 +21314,31 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F6" s="19">
         <v>4</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="25"/>
@@ -21333,31 +21365,31 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F7" s="19">
         <v>4</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
@@ -21384,31 +21416,31 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F8" s="19">
         <v>2</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
@@ -21435,31 +21467,31 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F9" s="19">
         <v>2</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
@@ -21486,31 +21518,31 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F10" s="19">
         <v>2</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
@@ -21537,31 +21569,31 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F11" s="19">
         <v>2</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H11" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="J11" s="20" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
@@ -21588,31 +21620,31 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F12" s="19">
         <v>2</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -21639,31 +21671,31 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F13" s="19">
         <v>2</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -21690,31 +21722,31 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F14" s="19">
         <v>2</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -21741,31 +21773,31 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F15" s="19">
         <v>2</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
@@ -21792,31 +21824,31 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F16" s="19">
         <v>2</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
@@ -21843,31 +21875,31 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
@@ -21894,31 +21926,31 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
@@ -21945,31 +21977,31 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F19" s="19">
         <v>1</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
@@ -21996,31 +22028,31 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F20" s="19">
         <v>1</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
@@ -22047,31 +22079,31 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F21" s="19">
         <v>1</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -22098,31 +22130,31 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F22" s="19">
         <v>1</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -22149,31 +22181,31 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F23" s="19">
         <v>1</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -22200,31 +22232,31 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F24" s="19">
         <v>1</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
@@ -22251,31 +22283,31 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
@@ -22302,31 +22334,31 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F26" s="19">
         <v>1</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
@@ -22353,31 +22385,31 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F27" s="19">
         <v>1</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
@@ -22404,31 +22436,31 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
@@ -22455,31 +22487,31 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
@@ -22506,31 +22538,31 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F30" s="19">
         <v>1</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
@@ -22557,31 +22589,31 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F31" s="19">
         <v>1</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
@@ -22608,31 +22640,31 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F32" s="19">
         <v>1</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
@@ -22659,31 +22691,31 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
@@ -22710,31 +22742,31 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F34" s="19">
         <v>1</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
@@ -22761,31 +22793,31 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
@@ -22812,31 +22844,31 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F36" s="19">
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
@@ -22863,31 +22895,31 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F37" s="19">
         <v>1</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
@@ -22914,31 +22946,31 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F38" s="19">
         <v>1</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
@@ -22965,31 +22997,31 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F39" s="19">
         <v>1</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
@@ -23016,31 +23048,31 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F40" s="19">
         <v>1</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
@@ -23067,31 +23099,31 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F41" s="19">
         <v>1</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
@@ -23118,31 +23150,31 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F42" s="19">
         <v>1</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
@@ -23169,31 +23201,31 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F43" s="19">
         <v>1</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
@@ -23220,31 +23252,31 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F44" s="19">
         <v>1</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="M44" s="25"/>
       <c r="N44" s="25"/>
@@ -23271,31 +23303,31 @@
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F45" s="19">
         <v>1</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
@@ -23322,31 +23354,31 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F46" s="19">
         <v>1</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
@@ -23373,31 +23405,31 @@
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F47" s="13">
         <v>4</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
@@ -23424,31 +23456,31 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F48" s="13">
         <v>4</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
@@ -23478,28 +23510,28 @@
         <v>36</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F49" s="13">
         <v>3</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M49" s="25"/>
       <c r="N49" s="25"/>
@@ -23529,28 +23561,28 @@
         <v>36</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F50" s="13">
         <v>4</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
@@ -23580,28 +23612,28 @@
         <v>36</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F51" s="13">
         <v>2</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M51" s="25"/>
       <c r="N51" s="25"/>
@@ -23631,28 +23663,28 @@
         <v>36</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
@@ -23682,28 +23714,28 @@
         <v>36</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F53" s="13">
         <v>6</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
@@ -23733,28 +23765,28 @@
         <v>36</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F54" s="13">
         <v>7</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="M54" s="25"/>
       <c r="N54" s="25"/>
@@ -23784,28 +23816,28 @@
         <v>52</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F55" s="13">
         <v>1</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
@@ -23835,28 +23867,28 @@
         <v>52</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F56" s="13">
         <v>3</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
@@ -23886,28 +23918,28 @@
         <v>52</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F57" s="13">
         <v>3</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
@@ -23937,28 +23969,28 @@
         <v>52</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F58" s="13">
         <v>3</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M58" s="25"/>
       <c r="N58" s="25"/>
@@ -23988,28 +24020,28 @@
         <v>52</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F59" s="13">
         <v>3</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M59" s="25"/>
       <c r="N59" s="25"/>
@@ -24042,8 +24074,8 @@
   <sheetPr/>
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -24057,26 +24089,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" spans="1:26">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>372</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G1" s="3"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -24101,16 +24131,16 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -24137,16 +24167,16 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -24173,16 +24203,16 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -24209,16 +24239,16 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -24245,16 +24275,16 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -24281,16 +24311,16 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -24317,16 +24347,16 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -24353,16 +24383,16 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -24389,16 +24419,16 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -24425,16 +24455,16 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -24461,16 +24491,16 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -24497,16 +24527,16 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -24533,16 +24563,16 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -24569,16 +24599,16 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -24605,16 +24635,16 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -24641,16 +24671,16 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -24677,16 +24707,16 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -24713,16 +24743,16 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -24749,16 +24779,16 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -24785,16 +24815,16 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -24821,16 +24851,16 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -24857,16 +24887,16 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -24893,16 +24923,16 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -24929,16 +24959,16 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -24965,16 +24995,16 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -25001,16 +25031,16 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -25037,16 +25067,16 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -25073,16 +25103,16 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -25109,16 +25139,16 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -25145,16 +25175,16 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -25181,16 +25211,16 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -25217,16 +25247,16 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -25253,16 +25283,16 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -25289,16 +25319,16 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -25325,16 +25355,16 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -25361,16 +25391,16 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -25397,16 +25427,16 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -25433,16 +25463,16 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -25469,16 +25499,16 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -25505,16 +25535,16 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -25541,16 +25571,16 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -25577,16 +25607,16 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -25613,16 +25643,16 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -25645,20 +25675,20 @@
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
     </row>
-    <row r="45" ht="31" spans="1:26">
+    <row r="45" ht="46" spans="1:26">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -25681,20 +25711,20 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
     </row>
-    <row r="46" ht="31" spans="1:26">
+    <row r="46" ht="61" spans="1:26">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -25717,20 +25747,20 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
     </row>
-    <row r="47" ht="31" spans="1:26">
+    <row r="47" ht="46" spans="1:26">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -25753,20 +25783,20 @@
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
     </row>
-    <row r="48" ht="31" spans="1:26">
+    <row r="48" ht="61" spans="1:26">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -25789,20 +25819,20 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
     </row>
-    <row r="49" ht="31" spans="1:26">
+    <row r="49" ht="46" spans="1:26">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -25825,20 +25855,20 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" ht="31" spans="1:26">
+    <row r="50" ht="61" spans="1:26">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -25865,16 +25895,16 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -25901,16 +25931,16 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -25937,16 +25967,16 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -25973,16 +26003,16 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -26009,16 +26039,16 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -26045,16 +26075,16 @@
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -26081,16 +26111,16 @@
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -26117,16 +26147,16 @@
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -26153,16 +26183,16 @@
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -26189,16 +26219,16 @@
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -26225,16 +26255,16 @@
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -26261,16 +26291,16 @@
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -26297,16 +26327,16 @@
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -26333,16 +26363,16 @@
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -26369,16 +26399,16 @@
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -26405,16 +26435,16 @@
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -26441,16 +26471,16 @@
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -26477,16 +26507,16 @@
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -26513,16 +26543,16 @@
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -26549,16 +26579,16 @@
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -26585,16 +26615,16 @@
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -26621,16 +26651,16 @@
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -26657,16 +26687,16 @@
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -26693,16 +26723,16 @@
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -26729,16 +26759,16 @@
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -26765,16 +26795,16 @@
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -26801,16 +26831,16 @@
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -26837,16 +26867,16 @@
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -26873,16 +26903,16 @@
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -26909,16 +26939,16 @@
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -26945,16 +26975,16 @@
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -26981,16 +27011,16 @@
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -27017,16 +27047,16 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -27053,16 +27083,16 @@
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -27089,16 +27119,16 @@
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -27125,16 +27155,16 @@
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -27161,16 +27191,16 @@
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -27197,16 +27227,16 @@
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -27233,16 +27263,16 @@
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -27269,16 +27299,16 @@
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -27305,16 +27335,16 @@
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -27341,16 +27371,16 @@
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -27377,16 +27407,16 @@
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -27413,16 +27443,16 @@
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -27449,16 +27479,16 @@
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -27481,20 +27511,20 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" ht="31" spans="1:26">
+    <row r="96" ht="46" spans="1:26">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -27517,20 +27547,20 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
     </row>
-    <row r="97" ht="31" spans="1:26">
+    <row r="97" ht="61" spans="1:26">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -27553,20 +27583,20 @@
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
     </row>
-    <row r="98" ht="31" spans="1:26">
+    <row r="98" ht="46" spans="1:26">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -27589,20 +27619,20 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
     </row>
-    <row r="99" ht="31" spans="1:26">
+    <row r="99" ht="61" spans="1:26">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -27625,20 +27655,20 @@
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
     </row>
-    <row r="100" ht="31" spans="1:26">
+    <row r="100" ht="46" spans="1:26">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -27661,20 +27691,20 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" ht="31" spans="1:26">
+    <row r="101" ht="46" spans="1:26">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -27701,16 +27731,16 @@
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -27737,16 +27767,16 @@
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -27773,16 +27803,16 @@
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="5" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -27809,16 +27839,16 @@
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="5" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -27845,16 +27875,16 @@
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="5" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -27881,16 +27911,16 @@
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="5" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -27917,16 +27947,16 @@
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="5" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -27953,16 +27983,16 @@
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="5" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -27989,16 +28019,16 @@
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="5" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -28025,16 +28055,16 @@
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="5" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>

--- a/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
+++ b/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
@@ -15094,10 +15094,10 @@
 or (79月≤年龄＜84月 and 16.7≤BMI and 性别=女)</t>
   </si>
   <si>
-    <t>(73月&lt;=年龄&lt;79月 and 16.4&lt;=BMI and 性别=男)
-or (79月&lt;=年龄＜84月 and 16.7&lt;=BMI and 性别=男)
-or (73月&lt;=年龄＜79月 and 16.2&lt;=BMI and 性别=女)
-or (79月&lt;=年龄＜84月 and 16.5&lt;=BMI and 性别=女)</t>
+    <t>(73月&lt;=年龄&lt;79月 and 17.1&lt;=BMI and 性别=男)
+or (79月&lt;=年龄＜84月 and 17.2&lt;=BMI and 性别=男)
+or (73月&lt;=年龄＜79月 and 16.6&lt;=BMI and 性别=女)
+or (79月&lt;=年龄＜84月 and 16.7&lt;=BMI and 性别=女)</t>
   </si>
   <si>
     <t>TZ_STZB046</t>
@@ -15143,10 +15143,10 @@
 or (79月≤年龄＜84月 and 13.3≤BMI＜16.7 and 性别=女)</t>
   </si>
   <si>
-    <t>(73月&lt;=年龄＜79月 and 13.4&lt;=BMI＜16.4 and 性别=男)  
-or (79月&lt;=年龄＜84月 and 13.8&lt;=BMI＜16.7 and 性别=男)
-or (73月&lt;=年龄＜79月 and 13.1&lt;=BMI＜16.2 and 性别=女)
-or (79月&lt;=年龄＜84月 and 13.3&lt;=BMI＜16.6 and 性别=女)</t>
+    <t>(73月&lt;=年龄＜79月 and 13.4&lt;=BMI＜17.1 and 性别=男)  
+or (79月&lt;=年龄＜84月 and 13.8&lt;=BMI＜17.2 and 性别=男)
+or (73月&lt;=年龄＜79月 and 13.1&lt;=BMI＜16.6 and 性别=女)
+or (79月&lt;=年龄＜84月 and 13.3&lt;=BMI＜16.7 and 性别=女)</t>
   </si>
   <si>
     <t>TZ_STZB047</t>
@@ -19714,10 +19714,10 @@
   <sheetPr codeName="评估因素规则库"/>
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>

--- a/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
+++ b/instance/zyjk/CHC/rule/weight/1.0/weight10.xlsx
@@ -19717,7 +19717,7 @@
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
